--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmst0\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81524C37-061D-40B9-BADA-113AA16B1364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B579B-EA8B-4509-86FA-71E1A3E876A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3360" yWindow="1344" windowWidth="6828" windowHeight="3648" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="166" r:id="rId1"/>
+    <sheet name="単体テスト（regist.php＆regist.js）" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>作成者</t>
   </si>
@@ -361,19 +361,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「男性」か「女性」を選択する。</t>
-    <rPh sb="1" eb="3">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「1234567」と入力する。</t>
     <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
@@ -405,19 +392,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「一般」か「管理者」を選択する。</t>
-    <rPh sb="1" eb="3">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面推移</t>
     <rPh sb="0" eb="4">
       <t>ガメンスイイ</t>
@@ -442,28 +416,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>文字の入力不備を確認する。不備がなければ確認画面へ推移する。</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ニュウリョクフビ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フビ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>スイイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>何も入力をしない。</t>
     <rPh sb="0" eb="1">
       <t>ナニ</t>
@@ -802,7 +754,351 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「</t>
+    <t>「名前（姓）は漢字かひらがなで入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「名前（名）は漢字かひらがなで入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カナ（姓）は全角カタカナで入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カナ（名）は全角カタカナで入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「正しいメールアドレスを入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="43" eb="44">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「パスワードは半角英数字で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="44" eb="45">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「郵便番号は半角数字のみ入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="1" eb="5">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「住所（市区町村）は漢字・ひらがな・カタカナ・半角数字で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「住所（番地）は漢字・ひらがな・カタカナ・半角数字・ハイフンで入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。</t>
+    <rPh sb="62" eb="63">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「男性」を選択する。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「一般」を選択する。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「タロウ」と表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「yamada.t@yahoo.jp」と表示される。</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「test」と表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「男性」が選択される。</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「1234567」と表示される。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「北海道」と選択される。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「あああああ」と表示される。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ああああ1-2-3」と表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「一般」と選択される。</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「やまだ」と入力する。</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「たろう」と入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「あああ@yahoo.jp」と入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「テスト」と入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「１２３４５６７」と入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「test1-2-3」と入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「やまだ」と表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「たろう」と表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「あああ@yahoo.jp」と表示される。</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「テスト」と表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「１２３４５６７」と表示される。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「test1-2-3」と表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字の入力不備を確認する。不備がないので確認画面へ推移する。</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ニュウリョクフビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スイイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1203,16 +1499,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1233,83 +1577,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1661,43 +1957,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="9" customWidth="1"/>
-    <col min="4" max="14" width="7.109375" style="48" customWidth="1"/>
+    <col min="4" max="14" width="7.109375" style="24" customWidth="1"/>
     <col min="15" max="19" width="10.6640625" style="6" customWidth="1"/>
     <col min="20" max="16384" width="7" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="34" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,22 +2007,22 @@
       <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="49" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1741,19 +2037,19 @@
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1764,37 +2060,37 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="45" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
       <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="33"/>
+      <c r="R4" s="55"/>
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1803,1829 +2099,1692 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="11.25" customHeight="1">
       <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="11.25" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="25"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="30"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="11.25" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="39"/>
       <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="D12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
       <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="D13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
       <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="D14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="11.25" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="D15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="30"/>
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="43"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="D16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19" ht="11.25" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="43"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="D17" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="14">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>48</v>
+      <c r="B18" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
       <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="14">
         <v>4</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="52" t="s">
+      <c r="B19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
       <c r="S19" s="15"/>
     </row>
     <row r="20" spans="1:19" ht="11.25" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
       <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19" ht="11.25" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="52" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="11.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="52" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30"/>
       <c r="S22" s="15"/>
     </row>
     <row r="23" spans="1:19" ht="11.25" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="15"/>
     </row>
     <row r="24" spans="1:19" ht="11.25" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="52" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="25"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
       <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:19" ht="11.25" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="15"/>
     </row>
     <row r="26" spans="1:19" ht="11.25" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="25"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
       <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" ht="11.25" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="52" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
       <c r="S27" s="15"/>
     </row>
     <row r="28" spans="1:19" ht="11.25" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="52" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
       <c r="S28" s="15"/>
     </row>
     <row r="29" spans="1:19" ht="11.25" customHeight="1">
       <c r="A29" s="14">
         <v>5</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53" t="s">
+      <c r="B29" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
       <c r="S29" s="15"/>
     </row>
     <row r="30" spans="1:19" ht="11.25" customHeight="1">
       <c r="A30" s="14">
         <v>6</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="52" t="s">
+      <c r="B30" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
       <c r="S30" s="15"/>
     </row>
     <row r="31" spans="1:19" ht="11.25" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="52" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
       <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:19" ht="11.25" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="52" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
       <c r="S32" s="15"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="52" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
       <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="52" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="25"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
       <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" ht="11.25" customHeight="1">
       <c r="A35" s="14"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="52" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:19" ht="11.25" customHeight="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="52" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
       <c r="S36" s="15"/>
     </row>
     <row r="37" spans="1:19" ht="11.25" customHeight="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="52" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
       <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19" ht="11.25" customHeight="1">
       <c r="A38" s="14"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="25"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
       <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19" ht="11.25" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="52" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
       <c r="S39" s="15"/>
     </row>
     <row r="40" spans="1:19" ht="11.25" customHeight="1">
       <c r="A40" s="14">
         <v>7</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
       <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19" ht="11.25" customHeight="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="52" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="25"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="30"/>
       <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" ht="11.25" customHeight="1">
       <c r="A42" s="14"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="52" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
+      <c r="D42" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="23"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="39"/>
       <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" ht="11.25" customHeight="1">
       <c r="A43" s="14"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="52" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
+      <c r="D43" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="25"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="30"/>
       <c r="S43" s="15"/>
     </row>
     <row r="44" spans="1:19" ht="11.25" customHeight="1">
       <c r="A44" s="14"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="52" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
+      <c r="D44" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="25"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="30"/>
       <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:19" ht="11.25" customHeight="1">
       <c r="A45" s="14"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="52" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
+      <c r="D45" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="25"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="30"/>
       <c r="S45" s="15"/>
     </row>
     <row r="46" spans="1:19" ht="11.25" customHeight="1">
       <c r="A46" s="14"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="52" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
+      <c r="D46" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="25"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30"/>
       <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19" ht="11.25" customHeight="1">
       <c r="A47" s="14"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="25"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="39"/>
       <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19" ht="11.25" customHeight="1">
       <c r="A48" s="14"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="23"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
       <c r="S48" s="15"/>
     </row>
     <row r="49" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
+      <c r="A49" s="14">
+        <v>8</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="25"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="39"/>
       <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19" ht="11.25" customHeight="1">
       <c r="A50" s="14">
-        <v>8</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
+      <c r="C50" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="23"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
       <c r="S50" s="15"/>
     </row>
     <row r="51" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A51" s="14">
-        <v>9</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="25"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="30"/>
       <c r="S51" s="15"/>
     </row>
     <row r="52" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="25"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
       <c r="S52" s="15"/>
     </row>
     <row r="53" spans="1:19" ht="11.25" customHeight="1">
       <c r="A53" s="16"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="25"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="30"/>
       <c r="S53" s="15"/>
     </row>
     <row r="54" spans="1:19" ht="11.25" customHeight="1">
       <c r="A54" s="16"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="25"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="30"/>
       <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19" ht="11.25" customHeight="1">
       <c r="A55" s="16"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="25"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="30"/>
       <c r="S55" s="15"/>
     </row>
     <row r="56" spans="1:19" ht="11.25" customHeight="1">
       <c r="A56" s="16"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="25"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="30"/>
       <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19" ht="11.25" customHeight="1">
       <c r="A57" s="16"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="25"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="30"/>
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" ht="11.25" customHeight="1">
       <c r="A58" s="16"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="25"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="30"/>
       <c r="S58" s="15"/>
     </row>
     <row r="59" spans="1:19" ht="11.25" customHeight="1">
       <c r="A59" s="16"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="25"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="30"/>
       <c r="S59" s="15"/>
     </row>
     <row r="60" spans="1:19" ht="11.25" customHeight="1">
       <c r="A60" s="16"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="25"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="30"/>
       <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" ht="11.25" customHeight="1">
       <c r="A61" s="16"/>
-      <c r="B61" s="43"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="25"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="30"/>
       <c r="S61" s="15"/>
     </row>
     <row r="62" spans="1:19" ht="11.25" customHeight="1">
       <c r="A62" s="16"/>
-      <c r="B62" s="43"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="25"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="30"/>
       <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" ht="11.25" customHeight="1">
       <c r="A63" s="16"/>
-      <c r="B63" s="43"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="25"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="30"/>
       <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" ht="11.25" customHeight="1">
       <c r="A64" s="16"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="25"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="30"/>
       <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1">
       <c r="A65" s="16"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="25"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="30"/>
       <c r="S65" s="15"/>
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1">
       <c r="A66" s="16"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="25"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="30"/>
       <c r="S66" s="15"/>
     </row>
     <row r="67" spans="1:19" ht="11.25" customHeight="1">
       <c r="A67" s="16"/>
-      <c r="B67" s="43"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="25"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="30"/>
       <c r="S67" s="15"/>
     </row>
     <row r="68" spans="1:19" ht="11.25" customHeight="1">
       <c r="A68" s="16"/>
-      <c r="B68" s="43"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="25"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="30"/>
       <c r="S68" s="15"/>
     </row>
-    <row r="69" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A69" s="16"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="15"/>
-    </row>
-    <row r="70" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A70" s="16"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="I62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I64:N64"/>
-    <mergeCell ref="I65:N65"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="I67:N67"/>
-    <mergeCell ref="I68:N68"/>
-    <mergeCell ref="I69:N69"/>
-    <mergeCell ref="I70:N70"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="I54:N54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="I56:N56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:N57"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="Q48:R48"/>
+  <mergeCells count="200">
     <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="I18:N18"/>
     <mergeCell ref="I19:N19"/>
     <mergeCell ref="D18:H18"/>
@@ -3647,30 +3806,161 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="I65:N65"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="I67:N67"/>
+    <mergeCell ref="I68:N68"/>
     <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q68:R68"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmst0\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A540352-B6CE-4C99-BFAD-60BCAB412863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45185CA-669B-4FB1-AA16-70A5726C7C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="単体テスト（regist.php＆regist.js）" sheetId="166" r:id="rId1"/>
+    <sheet name="単体テスト（HTML＆PHP＆CSS＆JS）" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
   <si>
     <t>作成者</t>
   </si>
@@ -91,29 +91,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「アカウント登録」をクリックする</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録の画面に切り替わること。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>確認者</t>
     <rPh sb="0" eb="3">
       <t>カクニンシャ</t>
@@ -308,10 +285,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トップページ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -1204,6 +1177,297 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フッダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブタイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターネットを開いて「http://localhost/account/regist.html」を検索した後、インターネットのタブのところに「アカウント登録」と表示される。これを正常動作とする。</t>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="90" eb="94">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターネットを開いて「http://localhost/account/regist.html」を検索した後やアカウント登録の文字クリックをした後でも操作手順にあるような状態で確認することができる。これを正常動作とする。</t>
+    <rPh sb="61" eb="63">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="76" eb="80">
+      <t>ソウサテジュン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべてのページで表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク付け・クリック</t>
+    <rPh sb="3" eb="4">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブのタイトルを「アカウント登録」と表示させるようにする。</t>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブのタイトルを「アカウント登録画面」と表示させるようにする。</t>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページからアカウント登録を押され、http://localhost/account/regist.phpに移動した際、インターネットのタブのところに「アカウント登録画面」と表示される。これを正常動作とする。</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「http://localhost/account/regist.php」がリンク付けられ、文字に下線がついている「アカウント登録」をクリックする。</t>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「http://localhost/account/regist.html」をトップにリンク付けを行い、文字に下線ができることとクリックをしたらトップページに移動できるようにする。</t>
+    <rPh sb="46" eb="47">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク付け・クリック</t>
+    <rPh sb="3" eb="4">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からトップページに移動する。これを正常動作とする。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録の画面（http://localhost/account/regist.php）に切り替わる。これを正常動作とする。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅はページいっぱい、高さを40pxとした黒い背景に白い文字で横並びに「トップ」「プロフィール」「アカウント登録」「問い合わせ」「その他」を右からの余白20px、フォントサイズ18pxで表示させる。</t>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨコナラ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヨハク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>幅はページいっぱい、高さを60pxとした黒い背景に白い文字で「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Copyright D.I.Works| D.I.blog is the one which provides Ato Z about programming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を中央揃えで表示させる。</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1278,7 +1542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1406,28 +1670,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -1583,13 +1825,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,143 +1932,167 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2145,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2165,27 +2464,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2193,29 +2492,29 @@
         <v>7</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S1" s="4"/>
-      <c r="V1" s="65"/>
+      <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="S2" s="5"/>
-      <c r="V2" s="66"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -2255,275 +2554,285 @@
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="62"/>
+      <c r="T4" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="67"/>
+      <c r="V4" s="27" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="34"/>
-      <c r="T4" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="62"/>
-      <c r="V4" s="29" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>38</v>
+      <c r="B5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+        <v>75</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="68"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="64"/>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>19</v>
+      <c r="B6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="69"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A7" s="31">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="14"/>
+      <c r="B7" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="69"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1">
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="14"/>
+      <c r="B8" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="69"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1">
       <c r="A9" s="15">
         <v>5</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="14"/>
+      <c r="B9" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="69"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="14"/>
+      <c r="B10" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="69"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1">
       <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="C11" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -2532,10 +2841,10 @@
       <c r="O11" s="39"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="64"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" ht="11.25" customHeight="1">
@@ -2544,20 +2853,20 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -2566,32 +2875,32 @@
       <c r="O12" s="39"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="64"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="66"/>
       <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A13" s="31">
+      <c r="A13" s="15">
         <v>9</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -2600,10 +2909,10 @@
       <c r="O13" s="39"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="64"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="14"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1">
@@ -2612,20 +2921,20 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -2634,10 +2943,10 @@
       <c r="O14" s="39"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="64"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1">
@@ -2646,20 +2955,20 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
@@ -2668,32 +2977,32 @@
       <c r="O15" s="39"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="64"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A16" s="31">
+      <c r="A16" s="15">
         <v>12</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -2702,10 +3011,10 @@
       <c r="O16" s="39"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="64"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" ht="11.25" customHeight="1">
@@ -2714,20 +3023,20 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -2736,262 +3045,262 @@
       <c r="O17" s="39"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="64"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="66"/>
       <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:22" ht="11.25" customHeight="1">
       <c r="A18" s="15">
         <v>14</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>19</v>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
-      <c r="J18" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
+      <c r="J18" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="64"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="66"/>
       <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:22" ht="11.25" customHeight="1">
       <c r="A19" s="15">
         <v>15</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="21" t="s">
-        <v>20</v>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
+      <c r="J19" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="64"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="66"/>
       <c r="V19" s="14"/>
     </row>
     <row r="20" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="15">
         <v>16</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="21" t="s">
-        <v>21</v>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
+      <c r="J20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="64"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="66"/>
       <c r="V20" s="14"/>
     </row>
     <row r="21" spans="1:22" ht="11.25" customHeight="1">
       <c r="A21" s="15">
         <v>17</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="21" t="s">
-        <v>22</v>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
+      <c r="J21" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="64"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="66"/>
       <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A22" s="31">
+      <c r="A22" s="15">
         <v>18</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="21" t="s">
-        <v>23</v>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
+      <c r="J22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="64"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="66"/>
       <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="11.25" customHeight="1">
       <c r="A23" s="15">
         <v>19</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="C23" s="21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
-      <c r="J23" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
+      <c r="J23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="64"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="66"/>
       <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" ht="11.25" customHeight="1">
       <c r="A24" s="15">
         <v>20</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
+      <c r="J24" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="64"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="66"/>
       <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A25" s="31">
+      <c r="A25" s="15">
         <v>21</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>50</v>
@@ -3000,976 +3309,1026 @@
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
-      <c r="J25" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
+      <c r="J25" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="64"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="66"/>
       <c r="V25" s="14"/>
     </row>
     <row r="26" spans="1:22" ht="11.25" customHeight="1">
       <c r="A26" s="15">
         <v>22</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
-      <c r="J26" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
+      <c r="J26" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="64"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="66"/>
       <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:22" ht="11.25" customHeight="1">
       <c r="A27" s="15">
         <v>23</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
+      <c r="J27" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="64"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="66"/>
       <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:22" ht="11.25" customHeight="1">
       <c r="A28" s="15">
         <v>24</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>72</v>
+      <c r="B28" s="23"/>
+      <c r="C28" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
+        <v>32</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="64"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="66"/>
       <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
+      <c r="A29" s="15">
+        <v>25</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="64"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="66"/>
       <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
+      <c r="A30" s="15">
+        <v>26</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="64"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="66"/>
       <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
+      <c r="A31" s="15">
+        <v>27</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="64"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="66"/>
       <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
+      <c r="A32" s="15">
+        <v>28</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="64"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="66"/>
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
+      <c r="A33" s="15">
+        <v>29</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="64"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="66"/>
       <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="64"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="66"/>
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="66"/>
       <c r="V35" s="14"/>
     </row>
     <row r="36" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="64"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="66"/>
       <c r="V36" s="14"/>
     </row>
     <row r="37" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="64"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="66"/>
       <c r="V37" s="14"/>
     </row>
     <row r="38" spans="1:22" ht="11.25" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="64"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="66"/>
       <c r="V38" s="14"/>
     </row>
     <row r="39" spans="1:22" ht="11.25" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="64"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="66"/>
       <c r="V39" s="14"/>
     </row>
     <row r="40" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="64"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="66"/>
       <c r="V40" s="14"/>
     </row>
     <row r="41" spans="1:22" ht="11.25" customHeight="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="64"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="66"/>
       <c r="V41" s="14"/>
     </row>
     <row r="42" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="64"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="66"/>
       <c r="V42" s="14"/>
     </row>
     <row r="43" spans="1:22" ht="11.25" customHeight="1">
       <c r="A43" s="15"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="64"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="66"/>
       <c r="V43" s="14"/>
     </row>
     <row r="44" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="64"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="66"/>
       <c r="V44" s="14"/>
     </row>
     <row r="45" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="64"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="66"/>
       <c r="V45" s="14"/>
     </row>
     <row r="46" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="64"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="66"/>
       <c r="V46" s="14"/>
     </row>
     <row r="47" spans="1:22" ht="11.25" customHeight="1">
       <c r="A47" s="15"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="27"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="64"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="66"/>
       <c r="V47" s="14"/>
     </row>
     <row r="48" spans="1:22" ht="11.25" customHeight="1">
       <c r="A48" s="15"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="27"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="63"/>
-      <c r="U48" s="64"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="66"/>
       <c r="V48" s="14"/>
     </row>
     <row r="49" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A49" s="15"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="64"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="66"/>
       <c r="V49" s="14"/>
     </row>
     <row r="50" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="64"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="66"/>
       <c r="V50" s="14"/>
     </row>
     <row r="51" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A51" s="15"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="64"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="66"/>
       <c r="V51" s="14"/>
     </row>
     <row r="52" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="25"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="64"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="66"/>
       <c r="V52" s="14"/>
     </row>
     <row r="53" spans="1:22" ht="11.25" customHeight="1">
       <c r="A53" s="15"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="25"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="64"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="66"/>
       <c r="V53" s="14"/>
     </row>
     <row r="54" spans="1:22" ht="11.25" customHeight="1">
       <c r="A54" s="15"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="25"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="64"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="66"/>
       <c r="V54" s="14"/>
     </row>
     <row r="55" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="25"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="64"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="66"/>
       <c r="V55" s="14"/>
     </row>
     <row r="56" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="25"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="64"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="66"/>
       <c r="V56" s="14"/>
     </row>
     <row r="57" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A57" s="15"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="18"/>
-      <c r="C57" s="25"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="64"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="66"/>
       <c r="V57" s="14"/>
     </row>
     <row r="58" spans="1:22" ht="11.25" customHeight="1">
       <c r="A58" s="15"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="25"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="64"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="66"/>
       <c r="V58" s="14"/>
     </row>
     <row r="59" spans="1:22" ht="11.25" customHeight="1">
       <c r="A59" s="15"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="64"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="66"/>
       <c r="V59" s="14"/>
     </row>
     <row r="60" spans="1:22" ht="11.25" customHeight="1">
       <c r="A60" s="15"/>
       <c r="B60" s="18"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="64"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="66"/>
       <c r="V60" s="14"/>
     </row>
     <row r="61" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A61" s="15"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="64"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="66"/>
       <c r="V61" s="14"/>
     </row>
     <row r="62" spans="1:22" ht="11.25" customHeight="1">
       <c r="A62" s="15"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="63"/>
-      <c r="U62" s="64"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="66"/>
       <c r="V62" s="14"/>
     </row>
     <row r="63" spans="1:22" ht="11.25" customHeight="1">
       <c r="A63" s="15"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="63"/>
-      <c r="U63" s="64"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="66"/>
       <c r="V63" s="14"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1">
       <c r="A64" s="15"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="25"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
       <c r="J64" s="39"/>
       <c r="K64" s="39"/>
       <c r="L64" s="39"/>
@@ -3978,23 +4337,23 @@
       <c r="O64" s="39"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="64"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="66"/>
       <c r="V64" s="14"/>
     </row>
     <row r="65" spans="1:22" ht="11.25" customHeight="1">
       <c r="A65" s="15"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="25"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="39"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="40"/>
       <c r="K65" s="39"/>
       <c r="L65" s="39"/>
       <c r="M65" s="39"/>
@@ -4002,22 +4361,22 @@
       <c r="O65" s="39"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="63"/>
-      <c r="U65" s="64"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="66"/>
       <c r="V65" s="14"/>
     </row>
     <row r="66" spans="1:22" ht="11.25" customHeight="1">
       <c r="A66" s="15"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="25"/>
+      <c r="C66" s="24"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
       <c r="J66" s="39"/>
       <c r="K66" s="39"/>
       <c r="L66" s="39"/>
@@ -4026,22 +4385,22 @@
       <c r="O66" s="39"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="63"/>
-      <c r="U66" s="64"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="66"/>
       <c r="V66" s="14"/>
     </row>
     <row r="67" spans="1:22" ht="11.25" customHeight="1">
       <c r="A67" s="15"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="25"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
       <c r="J67" s="39"/>
       <c r="K67" s="39"/>
       <c r="L67" s="39"/>
@@ -4050,22 +4409,22 @@
       <c r="O67" s="39"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="63"/>
-      <c r="U67" s="64"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="66"/>
       <c r="V67" s="14"/>
     </row>
     <row r="68" spans="1:22" ht="11.25" customHeight="1">
       <c r="A68" s="15"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="25"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
       <c r="J68" s="39"/>
       <c r="K68" s="39"/>
       <c r="L68" s="39"/>
@@ -4074,228 +4433,201 @@
       <c r="O68" s="39"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="63"/>
-      <c r="U68" s="64"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="66"/>
       <c r="V68" s="14"/>
     </row>
+    <row r="69" spans="1:22" ht="11.25" customHeight="1">
+      <c r="A69" s="15"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="66"/>
+      <c r="V69" s="14"/>
+    </row>
+    <row r="70" spans="1:22" ht="11.25" customHeight="1">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="65"/>
+      <c r="U70" s="66"/>
+      <c r="V70" s="14"/>
+    </row>
+    <row r="71" spans="1:22" ht="11.25" customHeight="1">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="65"/>
+      <c r="U71" s="66"/>
+      <c r="V71" s="14"/>
+    </row>
+    <row r="72" spans="1:22" ht="11.25" customHeight="1">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="65"/>
+      <c r="U72" s="66"/>
+      <c r="V72" s="14"/>
+    </row>
+    <row r="73" spans="1:22" ht="11.25" customHeight="1">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="65"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="265">
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J59:O59"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="J62:O62"/>
-    <mergeCell ref="J63:O63"/>
-    <mergeCell ref="J64:O64"/>
-    <mergeCell ref="J65:O65"/>
-    <mergeCell ref="J66:O66"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:O57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:O53"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:O55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:O56"/>
+  <mergeCells count="285">
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R8:S8"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="R7:S7"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="R8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T5:U5"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T10:U10"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="T20:U20"/>
@@ -4305,48 +4637,215 @@
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:O56"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="J55:O55"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J53:O53"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:O57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:O59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:O60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:O62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:O63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J64:O64"/>
+    <mergeCell ref="J65:O65"/>
+    <mergeCell ref="J66:O66"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="J73:O73"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmst0\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45185CA-669B-4FB1-AA16-70A5726C7C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A42A09-BC75-41C3-9549-0DDEB46963D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>作成者</t>
   </si>
@@ -420,34 +420,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラジオボタンの初期値は「男」が選択されている状態でチェックがされているため、「男」か「女」を選択しラジオボタンを押す。</t>
-    <rPh sb="7" eb="10">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オトコ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オトコ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オンナ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プルダウンの初期値は未選択の状態で空欄のため、都道府県を選択しプルダウンの中から選ぶ。</t>
     <rPh sb="6" eb="9">
       <t>ショキチ</t>
@@ -687,423 +659,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン・全角半角スペース以外で入力、10文字より多く文字を入力する。</t>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「名前（姓）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（姓）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="0" eb="3">
-      <t>イチバンシタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="153" eb="156">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「名前（名）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（名）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="26" eb="28">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="153" eb="156">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「カナ（姓）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（姓）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="29" eb="30">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="151" eb="154">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「カナ（名）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（名）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="151" eb="154">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「メールアドレスが未入力です。」、半角英数字や半角記号（ハイフンやアットマーク）以外で入力された場合は「正しいメールアドレスを入力してください。」、100文字より多く文字が入力された場合は「メールアドレスは100字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="34" eb="37">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="168" eb="171">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「パスワードが未入力です。」、半角英数字以外で入力された場合は「パスワードは半角英数字で入力してください。」、10文字より多く文字が入力された場合は、「パスワードは10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="32" eb="35">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="40" eb="45">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="147" eb="150">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「郵便番号が未入力です。」、半角数字以外で入力された場合は「郵便番号は半角数字のみ入力してください。」、7文字より多く文字が入力された場合は「郵便番号は7文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="26" eb="30">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="43">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="140" eb="143">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、未選択の場合は「住所（都道府県）が未選択です。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="19" eb="22">
-      <t>ミセンタク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ミセンタク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「住所（市区町村）が未入力です。」、漢字・ひらがな・カタカナ・半角数字以外で入力された場合は「住所（市区町村）は漢字・ひらがな・カタカナ・半角数字で入力してください。」、10文字より多く文字が入力された場合は「住所（市区町村）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="26" eb="28">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>シクチョウソン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="179" eb="182">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すと、空欄の場合は「住所（番地）が未入力です。」、漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン以外で入力された場合は「住所（番地）は漢字・ひらがな・カタカナ・半角数字・ハイフンで入力してください。」、100文字より多く文字が入力された場合は「住所（番地）は100文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字で表示される。これをエラー動作とする。</t>
-    <rPh sb="26" eb="28">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="189" eb="192">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一番下にあるボタンの確認するを押すとエラーなく表示される。これを正常動作とする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録画面（正常動作）</t>
     <rPh sb="5" eb="9">
       <t>トウロクガメン</t>
@@ -1319,44 +874,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「http://localhost/account/regist.html」をトップにリンク付けを行い、文字に下線ができることとクリックをしたらトップページに移動できるようにする。</t>
-    <rPh sb="46" eb="47">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カセン</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リンク付け・クリック</t>
     <rPh sb="3" eb="4">
       <t>ヅ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録画面からトップページに移動する。これを正常動作とする。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>セイジョウドウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1468,6 +988,517 @@
     </rPh>
     <rPh sb="117" eb="119">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターネットのタブがアカウント登録画面の際に「http://localhost/account/regist.html」をトップにリンク付けを行い、文字に下線ができることとクリックをしたらトップページに移動できるようにする。</t>
+    <rPh sb="16" eb="20">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からトップページ（http://localhost/account/regist.html）に移動する。これを正常動作とする。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと次の画面（アカウント登録確認画面）でエラーなく表示される。これを正常動作とする。</t>
+    <rPh sb="18" eb="19">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと次の画面（アカウント登録確認画面）でエラーなく表示される。これを正常動作とする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン・全角半角スペース以外で入力、100文字より多く文字を入力する。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタンの初期値は「男」が選択されている状態のため、「男」か「女」を選択しラジオボタンを押す。</t>
+    <rPh sb="7" eb="10">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「住所（番地）が未入力です。」、漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン以外で入力された場合は「住所（番地）は漢字・ひらがな・カタカナ・半角数字・ハイフンで入力してください。」、100文字より多く文字が入力された場合は「住所（番地）は100文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="35" eb="37">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="198" eb="201">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「住所（市区町村）が未入力です。」、漢字・ひらがな・カタカナ・半角数字以外で入力された場合は「住所（市区町村）は漢字・ひらがな・カタカナ・半角数字で入力してください。」、10文字より多く文字が入力された場合は「住所（市区町村）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="35" eb="37">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="188" eb="191">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず未選択の場合は「住所（都道府県）が未選択です。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="28" eb="31">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「郵便番号が未入力です。」、半角数字以外で入力された場合は「郵便番号は半角数字のみ入力してください。」、7文字より多く文字が入力された場合は「郵便番号は7文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="35" eb="39">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="149" eb="152">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「パスワードが未入力です。」、半角英数字以外で入力された場合は「パスワードは半角英数字で入力してください。」、10文字より多く文字が入力された場合は、「パスワードは10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="41" eb="44">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="54">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="156" eb="159">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「メールアドレスが未入力です。」、半角英数字や半角記号（ハイフンやアットマーク）以外で入力された場合は「正しいメールアドレスを入力してください。」、100文字より多く文字が入力された場合は「メールアドレスは100字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="43" eb="46">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="177" eb="180">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「カナ（名）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（名）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「カナ（姓）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（姓）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「名前（名）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（名）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="162" eb="165">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「名前（姓）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（姓）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に赤文字、フォントサイズが15pxで表示される。これをエラー動作とする。</t>
+    <rPh sb="0" eb="3">
+      <t>イチバンシタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="162" eb="165">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2447,7 +2478,7 @@
   <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="J23" sqref="J23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2600,23 +2631,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
       <c r="I5" s="54"/>
       <c r="J5" s="54" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -2636,23 +2667,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="76"/>
       <c r="H6" s="76"/>
       <c r="I6" s="76"/>
       <c r="J6" s="75" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K6" s="75"/>
       <c r="L6" s="75"/>
@@ -2672,23 +2703,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
       <c r="H7" s="72"/>
       <c r="I7" s="73"/>
       <c r="J7" s="71" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K7" s="72"/>
       <c r="L7" s="72"/>
@@ -2708,23 +2739,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
       <c r="I8" s="73"/>
       <c r="J8" s="71" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
@@ -2744,23 +2775,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
       <c r="I9" s="73"/>
       <c r="J9" s="71" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K9" s="72"/>
       <c r="L9" s="72"/>
@@ -2780,23 +2811,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="73"/>
       <c r="J10" s="71" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
@@ -2816,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>17</v>
@@ -2832,7 +2863,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -2866,7 +2897,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -2893,14 +2924,14 @@
         <v>32</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -2927,14 +2958,14 @@
         <v>32</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -2968,7 +2999,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
@@ -3002,7 +3033,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -3029,14 +3060,14 @@
         <v>33</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -3070,7 +3101,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
@@ -3097,14 +3128,14 @@
         <v>33</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
@@ -3138,7 +3169,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
       <c r="J20" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -3172,7 +3203,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
       <c r="J21" s="39" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
@@ -3199,14 +3230,14 @@
         <v>33</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
@@ -3235,14 +3266,14 @@
         <v>32</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
       <c r="J23" s="38" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
@@ -3269,14 +3300,14 @@
         <v>32</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="38" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
@@ -3303,14 +3334,14 @@
         <v>32</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
       <c r="J25" s="38" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
@@ -3337,14 +3368,14 @@
         <v>32</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="38" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
@@ -3371,14 +3402,14 @@
         <v>32</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
       <c r="J27" s="38" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
@@ -3405,14 +3436,14 @@
         <v>32</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="38" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
@@ -3439,14 +3470,14 @@
         <v>32</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
       <c r="J29" s="38" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
@@ -3473,14 +3504,14 @@
         <v>32</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
       <c r="J30" s="38" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
@@ -3507,14 +3538,14 @@
         <v>32</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="38" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
@@ -3541,14 +3572,14 @@
         <v>32</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
       <c r="J32" s="38" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
@@ -3568,23 +3599,23 @@
         <v>29</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmst0\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmst0\Desktop\実佳仕事用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A42A09-BC75-41C3-9549-0DDEB46963D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7EA983-7D65-4912-B646-FC625FEAD899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2002,128 +2002,128 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2478,7 +2478,7 @@
   <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:O23"/>
+      <selection activeCell="J22" sqref="J22:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2495,27 +2495,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
       <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2529,23 +2529,23 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="55" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2593,35 +2593,35 @@
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="51" t="s">
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="62"/>
-      <c r="T4" s="67" t="s">
+      <c r="S4" s="74"/>
+      <c r="T4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="67"/>
+      <c r="U4" s="49"/>
       <c r="V4" s="27" t="s">
         <v>16</v>
       </c>
@@ -2639,34 +2639,34 @@
       <c r="D5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1">
       <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -2675,172 +2675,172 @@
       <c r="D6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="75" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="69"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="37"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1">
       <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="71" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="73"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="69"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1">
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="71" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="73"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="69"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="37"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1">
       <c r="A9" s="15">
         <v>5</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="71" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="69"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="37"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1">
       <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="71" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="73"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="69"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="37"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1">
       <c r="A11" s="15">
@@ -2855,27 +2855,27 @@
       <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="66"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="39"/>
       <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" ht="11.25" customHeight="1">
@@ -2889,27 +2889,27 @@
       <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="39"/>
       <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" ht="11.25" customHeight="1">
@@ -2923,27 +2923,27 @@
       <c r="D13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="66"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
       <c r="V13" s="14"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1">
@@ -2957,27 +2957,27 @@
       <c r="D14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="66"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="39"/>
       <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1">
@@ -2991,27 +2991,27 @@
       <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="66"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="39"/>
       <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1">
@@ -3025,27 +3025,27 @@
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="66"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="39"/>
       <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" ht="11.25" customHeight="1">
@@ -3059,27 +3059,27 @@
       <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="66"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="39"/>
       <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:22" ht="11.25" customHeight="1">
@@ -3093,27 +3093,27 @@
       <c r="D18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="66"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="39"/>
       <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:22" ht="11.25" customHeight="1">
@@ -3127,27 +3127,27 @@
       <c r="D19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="66"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="39"/>
       <c r="V19" s="14"/>
     </row>
     <row r="20" spans="1:22" ht="11.25" customHeight="1">
@@ -3161,27 +3161,27 @@
       <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="66"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="39"/>
       <c r="V20" s="14"/>
     </row>
     <row r="21" spans="1:22" ht="11.25" customHeight="1">
@@ -3195,27 +3195,27 @@
       <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="66"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="39"/>
       <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:22" ht="11.25" customHeight="1">
@@ -3229,27 +3229,27 @@
       <c r="D22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="66"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="39"/>
       <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="11.25" customHeight="1">
@@ -3265,27 +3265,27 @@
       <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="38" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="66"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="39"/>
       <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" ht="11.25" customHeight="1">
@@ -3299,27 +3299,27 @@
       <c r="D24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="38" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="66"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="39"/>
       <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:22" ht="11.25" customHeight="1">
@@ -3333,27 +3333,27 @@
       <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="66"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="39"/>
       <c r="V25" s="14"/>
     </row>
     <row r="26" spans="1:22" ht="11.25" customHeight="1">
@@ -3367,27 +3367,27 @@
       <c r="D26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="38" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="66"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="39"/>
       <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:22" ht="11.25" customHeight="1">
@@ -3401,27 +3401,27 @@
       <c r="D27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="38" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="66"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39"/>
       <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:22" ht="11.25" customHeight="1">
@@ -3435,27 +3435,27 @@
       <c r="D28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="66"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="39"/>
       <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:22" ht="11.25" customHeight="1">
@@ -3469,27 +3469,27 @@
       <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="38" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="66"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="39"/>
       <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" ht="11.25" customHeight="1">
@@ -3501,29 +3501,29 @@
         <v>25</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="38" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="66"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="39"/>
       <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:22" ht="11.25" customHeight="1">
@@ -3537,27 +3537,27 @@
       <c r="D31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="38" t="s">
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="66"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="39"/>
       <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:22" ht="11.25" customHeight="1">
@@ -3571,27 +3571,27 @@
       <c r="D32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="38" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="66"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="39"/>
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="11.25" customHeight="1">
@@ -3607,27 +3607,27 @@
       <c r="D33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38" t="s">
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="66"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="39"/>
       <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" ht="11.25" customHeight="1">
@@ -3635,23 +3635,23 @@
       <c r="B34" s="23"/>
       <c r="C34" s="25"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="66"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="39"/>
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" ht="11.25" customHeight="1">
@@ -3659,23 +3659,23 @@
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="66"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="39"/>
       <c r="V35" s="14"/>
     </row>
     <row r="36" spans="1:22" ht="11.25" customHeight="1">
@@ -3683,23 +3683,23 @@
       <c r="B36" s="23"/>
       <c r="C36" s="25"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="66"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="39"/>
       <c r="V36" s="14"/>
     </row>
     <row r="37" spans="1:22" ht="11.25" customHeight="1">
@@ -3707,23 +3707,23 @@
       <c r="B37" s="23"/>
       <c r="C37" s="25"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="66"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="39"/>
       <c r="V37" s="14"/>
     </row>
     <row r="38" spans="1:22" ht="11.25" customHeight="1">
@@ -3731,23 +3731,23 @@
       <c r="B38" s="23"/>
       <c r="C38" s="25"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="66"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="39"/>
       <c r="V38" s="14"/>
     </row>
     <row r="39" spans="1:22" ht="11.25" customHeight="1">
@@ -3755,23 +3755,23 @@
       <c r="B39" s="23"/>
       <c r="C39" s="25"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="66"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="39"/>
       <c r="V39" s="14"/>
     </row>
     <row r="40" spans="1:22" ht="11.25" customHeight="1">
@@ -3779,23 +3779,23 @@
       <c r="B40" s="23"/>
       <c r="C40" s="25"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="66"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="39"/>
       <c r="V40" s="14"/>
     </row>
     <row r="41" spans="1:22" ht="11.25" customHeight="1">
@@ -3803,23 +3803,23 @@
       <c r="B41" s="23"/>
       <c r="C41" s="25"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="66"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="39"/>
       <c r="V41" s="14"/>
     </row>
     <row r="42" spans="1:22" ht="11.25" customHeight="1">
@@ -3827,23 +3827,23 @@
       <c r="B42" s="23"/>
       <c r="C42" s="25"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="66"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="39"/>
       <c r="V42" s="14"/>
     </row>
     <row r="43" spans="1:22" ht="11.25" customHeight="1">
@@ -3851,23 +3851,23 @@
       <c r="B43" s="23"/>
       <c r="C43" s="25"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="66"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="39"/>
       <c r="V43" s="14"/>
     </row>
     <row r="44" spans="1:22" ht="11.25" customHeight="1">
@@ -3875,23 +3875,23 @@
       <c r="B44" s="23"/>
       <c r="C44" s="25"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="66"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="39"/>
       <c r="V44" s="14"/>
     </row>
     <row r="45" spans="1:22" ht="11.25" customHeight="1">
@@ -3899,23 +3899,23 @@
       <c r="B45" s="23"/>
       <c r="C45" s="25"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="66"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="39"/>
       <c r="V45" s="14"/>
     </row>
     <row r="46" spans="1:22" ht="11.25" customHeight="1">
@@ -3923,23 +3923,23 @@
       <c r="B46" s="23"/>
       <c r="C46" s="25"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="75"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="66"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="39"/>
       <c r="V46" s="14"/>
     </row>
     <row r="47" spans="1:22" ht="11.25" customHeight="1">
@@ -3947,23 +3947,23 @@
       <c r="B47" s="23"/>
       <c r="C47" s="25"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="65"/>
-      <c r="U47" s="66"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="39"/>
       <c r="V47" s="14"/>
     </row>
     <row r="48" spans="1:22" ht="11.25" customHeight="1">
@@ -3971,23 +3971,23 @@
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="66"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="39"/>
       <c r="V48" s="14"/>
     </row>
     <row r="49" spans="1:22" ht="11.25" customHeight="1">
@@ -3995,23 +3995,23 @@
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
+      <c r="O49" s="75"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="66"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="39"/>
       <c r="V49" s="14"/>
     </row>
     <row r="50" spans="1:22" ht="11.25" customHeight="1">
@@ -4019,23 +4019,23 @@
       <c r="B50" s="23"/>
       <c r="C50" s="25"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="66"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="39"/>
       <c r="V50" s="14"/>
     </row>
     <row r="51" spans="1:22" ht="11.25" customHeight="1">
@@ -4043,23 +4043,23 @@
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="66"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="39"/>
       <c r="V51" s="14"/>
     </row>
     <row r="52" spans="1:22" ht="11.25" customHeight="1">
@@ -4067,23 +4067,23 @@
       <c r="B52" s="23"/>
       <c r="C52" s="25"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
+      <c r="O52" s="75"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="66"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="39"/>
       <c r="V52" s="14"/>
     </row>
     <row r="53" spans="1:22" ht="11.25" customHeight="1">
@@ -4091,23 +4091,23 @@
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="66"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="39"/>
       <c r="V53" s="14"/>
     </row>
     <row r="54" spans="1:22" ht="11.25" customHeight="1">
@@ -4115,23 +4115,23 @@
       <c r="B54" s="23"/>
       <c r="C54" s="25"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="66"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="39"/>
       <c r="V54" s="14"/>
     </row>
     <row r="55" spans="1:22" ht="11.25" customHeight="1">
@@ -4139,23 +4139,23 @@
       <c r="B55" s="23"/>
       <c r="C55" s="25"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="66"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="39"/>
       <c r="V55" s="14"/>
     </row>
     <row r="56" spans="1:22" ht="11.25" customHeight="1">
@@ -4163,23 +4163,23 @@
       <c r="B56" s="23"/>
       <c r="C56" s="25"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="66"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="39"/>
       <c r="V56" s="14"/>
     </row>
     <row r="57" spans="1:22" ht="11.25" customHeight="1">
@@ -4187,23 +4187,23 @@
       <c r="B57" s="18"/>
       <c r="C57" s="24"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="65"/>
-      <c r="U57" s="66"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="39"/>
       <c r="V57" s="14"/>
     </row>
     <row r="58" spans="1:22" ht="11.25" customHeight="1">
@@ -4211,23 +4211,23 @@
       <c r="B58" s="18"/>
       <c r="C58" s="24"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="75"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="65"/>
-      <c r="U58" s="66"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="39"/>
       <c r="V58" s="14"/>
     </row>
     <row r="59" spans="1:22" ht="11.25" customHeight="1">
@@ -4235,23 +4235,23 @@
       <c r="B59" s="18"/>
       <c r="C59" s="24"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="75"/>
+      <c r="O59" s="75"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="66"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="39"/>
       <c r="V59" s="14"/>
     </row>
     <row r="60" spans="1:22" ht="11.25" customHeight="1">
@@ -4259,23 +4259,23 @@
       <c r="B60" s="18"/>
       <c r="C60" s="24"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="75"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="65"/>
-      <c r="U60" s="66"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="39"/>
       <c r="V60" s="14"/>
     </row>
     <row r="61" spans="1:22" ht="11.25" customHeight="1">
@@ -4283,23 +4283,23 @@
       <c r="B61" s="18"/>
       <c r="C61" s="24"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="66"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="39"/>
       <c r="V61" s="14"/>
     </row>
     <row r="62" spans="1:22" ht="11.25" customHeight="1">
@@ -4307,23 +4307,23 @@
       <c r="B62" s="18"/>
       <c r="C62" s="24"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="65"/>
-      <c r="U62" s="66"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="39"/>
       <c r="V62" s="14"/>
     </row>
     <row r="63" spans="1:22" ht="11.25" customHeight="1">
@@ -4331,23 +4331,23 @@
       <c r="B63" s="18"/>
       <c r="C63" s="24"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="66"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="39"/>
       <c r="V63" s="14"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1">
@@ -4355,23 +4355,23 @@
       <c r="B64" s="18"/>
       <c r="C64" s="24"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="65"/>
-      <c r="U64" s="66"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="39"/>
       <c r="V64" s="14"/>
     </row>
     <row r="65" spans="1:22" ht="11.25" customHeight="1">
@@ -4379,23 +4379,23 @@
       <c r="B65" s="18"/>
       <c r="C65" s="24"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="66"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="39"/>
       <c r="V65" s="14"/>
     </row>
     <row r="66" spans="1:22" ht="11.25" customHeight="1">
@@ -4403,23 +4403,23 @@
       <c r="B66" s="18"/>
       <c r="C66" s="24"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="65"/>
-      <c r="U66" s="66"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="39"/>
       <c r="V66" s="14"/>
     </row>
     <row r="67" spans="1:22" ht="11.25" customHeight="1">
@@ -4427,23 +4427,23 @@
       <c r="B67" s="18"/>
       <c r="C67" s="24"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="65"/>
-      <c r="U67" s="66"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="39"/>
       <c r="V67" s="14"/>
     </row>
     <row r="68" spans="1:22" ht="11.25" customHeight="1">
@@ -4451,23 +4451,23 @@
       <c r="B68" s="18"/>
       <c r="C68" s="24"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="65"/>
-      <c r="U68" s="66"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="39"/>
       <c r="V68" s="14"/>
     </row>
     <row r="69" spans="1:22" ht="11.25" customHeight="1">
@@ -4475,23 +4475,23 @@
       <c r="B69" s="18"/>
       <c r="C69" s="24"/>
       <c r="D69" s="15"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="65"/>
-      <c r="U69" s="66"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="39"/>
       <c r="V69" s="14"/>
     </row>
     <row r="70" spans="1:22" ht="11.25" customHeight="1">
@@ -4499,23 +4499,23 @@
       <c r="B70" s="18"/>
       <c r="C70" s="24"/>
       <c r="D70" s="15"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="65"/>
-      <c r="U70" s="66"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="39"/>
       <c r="V70" s="14"/>
     </row>
     <row r="71" spans="1:22" ht="11.25" customHeight="1">
@@ -4523,23 +4523,23 @@
       <c r="B71" s="18"/>
       <c r="C71" s="24"/>
       <c r="D71" s="15"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="65"/>
-      <c r="U71" s="66"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="39"/>
       <c r="V71" s="14"/>
     </row>
     <row r="72" spans="1:22" ht="11.25" customHeight="1">
@@ -4547,23 +4547,23 @@
       <c r="B72" s="18"/>
       <c r="C72" s="24"/>
       <c r="D72" s="15"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="65"/>
-      <c r="U72" s="66"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="39"/>
       <c r="V72" s="14"/>
     </row>
     <row r="73" spans="1:22" ht="11.25" customHeight="1">
@@ -4571,27 +4571,288 @@
       <c r="B73" s="18"/>
       <c r="C73" s="24"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="65"/>
-      <c r="U73" s="66"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="39"/>
       <c r="V73" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="285">
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J64:O64"/>
+    <mergeCell ref="J65:O65"/>
+    <mergeCell ref="J66:O66"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="J73:O73"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:O62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:O63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:O57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:O59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:O60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="J55:O55"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J53:O53"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:O56"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
     <mergeCell ref="T72:U72"/>
     <mergeCell ref="T73:U73"/>
     <mergeCell ref="E7:I7"/>
@@ -4616,267 +4877,6 @@
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:O56"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="J55:O55"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J53:O53"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:O57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:O59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:O62"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:O63"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J64:O64"/>
-    <mergeCell ref="J65:O65"/>
-    <mergeCell ref="J66:O66"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="J73:O73"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmst0\Desktop\実佳仕事用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7EA983-7D65-4912-B646-FC625FEAD899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698A2E3-F89D-4068-A136-FD2F78A9E9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,84 +577,6 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角英数字以外で入力、10文字より多く文字を入力する。</t>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="32" eb="37">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角数字以外で入力、7文字より多く文字を入力する。</t>
-    <rPh sb="23" eb="25">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字以外で入力、10文字より多く文字を入力する。</t>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1053,28 +975,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン・全角半角スペース以外で入力、100文字より多く文字を入力する。</t>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラジオボタンの初期値は「男」が選択されている状態のため、「男」か「女」を選択しラジオボタンを押す。</t>
     <rPh sb="7" eb="10">
       <t>ショキチ</t>
@@ -1499,6 +1399,106 @@
     </rPh>
     <rPh sb="191" eb="193">
       <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角英数字以外で入力、もしくは10文字より多く文字を入力する。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="37">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角数字以外で入力、もしくは7文字より多く文字を入力する。</t>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字以外で入力、もしくは10文字より多く文字を入力する。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン・全角半角スペース以外で入力、もしくは100文字より多く文字を入力する。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンカク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2008,12 +2008,108 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2028,102 +2124,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2478,7 +2478,7 @@
   <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:O22"/>
+      <selection activeCell="E13" sqref="E13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2495,27 +2495,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="67" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="72"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
       <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2529,23 +2529,23 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="67" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2593,35 +2593,35 @@
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="63" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="49" t="s">
+      <c r="S4" s="64"/>
+      <c r="T4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="71"/>
       <c r="V4" s="27" t="s">
         <v>16</v>
       </c>
@@ -2631,35 +2631,35 @@
         <v>1</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
+        <v>59</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="68"/>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1">
@@ -2667,35 +2667,35 @@
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
+        <v>72</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="70"/>
       <c r="V6" s="37"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1">
@@ -2703,35 +2703,35 @@
         <v>3</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="39"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="37"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1">
@@ -2739,35 +2739,35 @@
         <v>4</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="39"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="37"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1">
@@ -2775,35 +2775,35 @@
         <v>5</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
+        <v>59</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="39"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="37"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1">
@@ -2811,35 +2811,35 @@
         <v>6</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
+        <v>67</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="39"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="37"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1">
@@ -2847,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>17</v>
@@ -2855,27 +2855,27 @@
       <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="39"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" ht="11.25" customHeight="1">
@@ -2889,27 +2889,27 @@
       <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="39"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="70"/>
       <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" ht="11.25" customHeight="1">
@@ -2923,27 +2923,27 @@
       <c r="D13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="14"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1">
@@ -2957,27 +2957,27 @@
       <c r="D14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="39"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1">
@@ -2991,27 +2991,27 @@
       <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="39"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1">
@@ -3025,27 +3025,27 @@
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="39"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" ht="11.25" customHeight="1">
@@ -3059,27 +3059,27 @@
       <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="E17" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="39"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="70"/>
       <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:22" ht="11.25" customHeight="1">
@@ -3093,27 +3093,27 @@
       <c r="D18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="39"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="70"/>
       <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:22" ht="11.25" customHeight="1">
@@ -3127,27 +3127,27 @@
       <c r="D19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="70"/>
       <c r="V19" s="14"/>
     </row>
     <row r="20" spans="1:22" ht="11.25" customHeight="1">
@@ -3161,27 +3161,27 @@
       <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="39"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="70"/>
       <c r="V20" s="14"/>
     </row>
     <row r="21" spans="1:22" ht="11.25" customHeight="1">
@@ -3195,27 +3195,27 @@
       <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="70"/>
       <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:22" ht="11.25" customHeight="1">
@@ -3229,27 +3229,27 @@
       <c r="D22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="39"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="70"/>
       <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="11.25" customHeight="1">
@@ -3265,27 +3265,27 @@
       <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="39"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="70"/>
       <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" ht="11.25" customHeight="1">
@@ -3299,27 +3299,27 @@
       <c r="D24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="39"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="70"/>
       <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:22" ht="11.25" customHeight="1">
@@ -3333,27 +3333,27 @@
       <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="39"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="70"/>
       <c r="V25" s="14"/>
     </row>
     <row r="26" spans="1:22" ht="11.25" customHeight="1">
@@ -3367,27 +3367,27 @@
       <c r="D26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="39"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="70"/>
       <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:22" ht="11.25" customHeight="1">
@@ -3401,27 +3401,27 @@
       <c r="D27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="39"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="70"/>
       <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:22" ht="11.25" customHeight="1">
@@ -3435,27 +3435,27 @@
       <c r="D28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
+      <c r="E28" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="39"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="70"/>
       <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:22" ht="11.25" customHeight="1">
@@ -3469,27 +3469,27 @@
       <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
+      <c r="E29" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="39"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="70"/>
       <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" ht="11.25" customHeight="1">
@@ -3503,27 +3503,27 @@
       <c r="D30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="39"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="70"/>
       <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:22" ht="11.25" customHeight="1">
@@ -3537,27 +3537,27 @@
       <c r="D31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
+      <c r="E31" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="39"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="70"/>
       <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:22" ht="11.25" customHeight="1">
@@ -3571,27 +3571,27 @@
       <c r="D32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
+      <c r="E32" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="39"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="70"/>
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="11.25" customHeight="1">
@@ -3599,35 +3599,35 @@
         <v>29</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
+      <c r="E33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="39"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="70"/>
       <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" ht="11.25" customHeight="1">
@@ -3635,23 +3635,23 @@
       <c r="B34" s="23"/>
       <c r="C34" s="25"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="39"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="70"/>
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" ht="11.25" customHeight="1">
@@ -3659,23 +3659,23 @@
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="39"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="70"/>
       <c r="V35" s="14"/>
     </row>
     <row r="36" spans="1:22" ht="11.25" customHeight="1">
@@ -3683,23 +3683,23 @@
       <c r="B36" s="23"/>
       <c r="C36" s="25"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="39"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="70"/>
       <c r="V36" s="14"/>
     </row>
     <row r="37" spans="1:22" ht="11.25" customHeight="1">
@@ -3707,23 +3707,23 @@
       <c r="B37" s="23"/>
       <c r="C37" s="25"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="39"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="70"/>
       <c r="V37" s="14"/>
     </row>
     <row r="38" spans="1:22" ht="11.25" customHeight="1">
@@ -3731,23 +3731,23 @@
       <c r="B38" s="23"/>
       <c r="C38" s="25"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="39"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="70"/>
       <c r="V38" s="14"/>
     </row>
     <row r="39" spans="1:22" ht="11.25" customHeight="1">
@@ -3755,23 +3755,23 @@
       <c r="B39" s="23"/>
       <c r="C39" s="25"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="39"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="70"/>
       <c r="V39" s="14"/>
     </row>
     <row r="40" spans="1:22" ht="11.25" customHeight="1">
@@ -3779,23 +3779,23 @@
       <c r="B40" s="23"/>
       <c r="C40" s="25"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="39"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="70"/>
       <c r="V40" s="14"/>
     </row>
     <row r="41" spans="1:22" ht="11.25" customHeight="1">
@@ -3803,23 +3803,23 @@
       <c r="B41" s="23"/>
       <c r="C41" s="25"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="39"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="70"/>
       <c r="V41" s="14"/>
     </row>
     <row r="42" spans="1:22" ht="11.25" customHeight="1">
@@ -3827,23 +3827,23 @@
       <c r="B42" s="23"/>
       <c r="C42" s="25"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="39"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="70"/>
       <c r="V42" s="14"/>
     </row>
     <row r="43" spans="1:22" ht="11.25" customHeight="1">
@@ -3851,23 +3851,23 @@
       <c r="B43" s="23"/>
       <c r="C43" s="25"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="39"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="70"/>
       <c r="V43" s="14"/>
     </row>
     <row r="44" spans="1:22" ht="11.25" customHeight="1">
@@ -3875,23 +3875,23 @@
       <c r="B44" s="23"/>
       <c r="C44" s="25"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="39"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="70"/>
       <c r="V44" s="14"/>
     </row>
     <row r="45" spans="1:22" ht="11.25" customHeight="1">
@@ -3899,23 +3899,23 @@
       <c r="B45" s="23"/>
       <c r="C45" s="25"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="39"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="70"/>
       <c r="V45" s="14"/>
     </row>
     <row r="46" spans="1:22" ht="11.25" customHeight="1">
@@ -3923,23 +3923,23 @@
       <c r="B46" s="23"/>
       <c r="C46" s="25"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="39"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="70"/>
       <c r="V46" s="14"/>
     </row>
     <row r="47" spans="1:22" ht="11.25" customHeight="1">
@@ -3947,23 +3947,23 @@
       <c r="B47" s="23"/>
       <c r="C47" s="25"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="39"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="70"/>
       <c r="V47" s="14"/>
     </row>
     <row r="48" spans="1:22" ht="11.25" customHeight="1">
@@ -3971,23 +3971,23 @@
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="39"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="70"/>
       <c r="V48" s="14"/>
     </row>
     <row r="49" spans="1:22" ht="11.25" customHeight="1">
@@ -3995,23 +3995,23 @@
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="39"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="70"/>
       <c r="V49" s="14"/>
     </row>
     <row r="50" spans="1:22" ht="11.25" customHeight="1">
@@ -4019,23 +4019,23 @@
       <c r="B50" s="23"/>
       <c r="C50" s="25"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="39"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="70"/>
       <c r="V50" s="14"/>
     </row>
     <row r="51" spans="1:22" ht="11.25" customHeight="1">
@@ -4043,23 +4043,23 @@
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="39"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="70"/>
       <c r="V51" s="14"/>
     </row>
     <row r="52" spans="1:22" ht="11.25" customHeight="1">
@@ -4067,23 +4067,23 @@
       <c r="B52" s="23"/>
       <c r="C52" s="25"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="39"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="70"/>
       <c r="V52" s="14"/>
     </row>
     <row r="53" spans="1:22" ht="11.25" customHeight="1">
@@ -4091,23 +4091,23 @@
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="39"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="70"/>
       <c r="V53" s="14"/>
     </row>
     <row r="54" spans="1:22" ht="11.25" customHeight="1">
@@ -4115,23 +4115,23 @@
       <c r="B54" s="23"/>
       <c r="C54" s="25"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="39"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="70"/>
       <c r="V54" s="14"/>
     </row>
     <row r="55" spans="1:22" ht="11.25" customHeight="1">
@@ -4139,23 +4139,23 @@
       <c r="B55" s="23"/>
       <c r="C55" s="25"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="39"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="70"/>
       <c r="V55" s="14"/>
     </row>
     <row r="56" spans="1:22" ht="11.25" customHeight="1">
@@ -4163,23 +4163,23 @@
       <c r="B56" s="23"/>
       <c r="C56" s="25"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="39"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="70"/>
       <c r="V56" s="14"/>
     </row>
     <row r="57" spans="1:22" ht="11.25" customHeight="1">
@@ -4187,23 +4187,23 @@
       <c r="B57" s="18"/>
       <c r="C57" s="24"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="39"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="70"/>
       <c r="V57" s="14"/>
     </row>
     <row r="58" spans="1:22" ht="11.25" customHeight="1">
@@ -4211,23 +4211,23 @@
       <c r="B58" s="18"/>
       <c r="C58" s="24"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="39"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="70"/>
       <c r="V58" s="14"/>
     </row>
     <row r="59" spans="1:22" ht="11.25" customHeight="1">
@@ -4235,23 +4235,23 @@
       <c r="B59" s="18"/>
       <c r="C59" s="24"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="39"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="70"/>
       <c r="V59" s="14"/>
     </row>
     <row r="60" spans="1:22" ht="11.25" customHeight="1">
@@ -4259,23 +4259,23 @@
       <c r="B60" s="18"/>
       <c r="C60" s="24"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="39"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="70"/>
       <c r="V60" s="14"/>
     </row>
     <row r="61" spans="1:22" ht="11.25" customHeight="1">
@@ -4283,23 +4283,23 @@
       <c r="B61" s="18"/>
       <c r="C61" s="24"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="39"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="69"/>
+      <c r="U61" s="70"/>
       <c r="V61" s="14"/>
     </row>
     <row r="62" spans="1:22" ht="11.25" customHeight="1">
@@ -4307,23 +4307,23 @@
       <c r="B62" s="18"/>
       <c r="C62" s="24"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="39"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="69"/>
+      <c r="U62" s="70"/>
       <c r="V62" s="14"/>
     </row>
     <row r="63" spans="1:22" ht="11.25" customHeight="1">
@@ -4331,23 +4331,23 @@
       <c r="B63" s="18"/>
       <c r="C63" s="24"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="39"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="70"/>
       <c r="V63" s="14"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1">
@@ -4355,23 +4355,23 @@
       <c r="B64" s="18"/>
       <c r="C64" s="24"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="39"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="69"/>
+      <c r="U64" s="70"/>
       <c r="V64" s="14"/>
     </row>
     <row r="65" spans="1:22" ht="11.25" customHeight="1">
@@ -4379,23 +4379,23 @@
       <c r="B65" s="18"/>
       <c r="C65" s="24"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="39"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="70"/>
       <c r="V65" s="14"/>
     </row>
     <row r="66" spans="1:22" ht="11.25" customHeight="1">
@@ -4403,23 +4403,23 @@
       <c r="B66" s="18"/>
       <c r="C66" s="24"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="39"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="69"/>
+      <c r="U66" s="70"/>
       <c r="V66" s="14"/>
     </row>
     <row r="67" spans="1:22" ht="11.25" customHeight="1">
@@ -4427,23 +4427,23 @@
       <c r="B67" s="18"/>
       <c r="C67" s="24"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="39"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="70"/>
       <c r="V67" s="14"/>
     </row>
     <row r="68" spans="1:22" ht="11.25" customHeight="1">
@@ -4451,23 +4451,23 @@
       <c r="B68" s="18"/>
       <c r="C68" s="24"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
-      <c r="R68" s="51"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="39"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="69"/>
+      <c r="U68" s="70"/>
       <c r="V68" s="14"/>
     </row>
     <row r="69" spans="1:22" ht="11.25" customHeight="1">
@@ -4475,23 +4475,23 @@
       <c r="B69" s="18"/>
       <c r="C69" s="24"/>
       <c r="D69" s="15"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="39"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="70"/>
       <c r="V69" s="14"/>
     </row>
     <row r="70" spans="1:22" ht="11.25" customHeight="1">
@@ -4499,23 +4499,23 @@
       <c r="B70" s="18"/>
       <c r="C70" s="24"/>
       <c r="D70" s="15"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="39"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="69"/>
+      <c r="U70" s="70"/>
       <c r="V70" s="14"/>
     </row>
     <row r="71" spans="1:22" ht="11.25" customHeight="1">
@@ -4523,23 +4523,23 @@
       <c r="B71" s="18"/>
       <c r="C71" s="24"/>
       <c r="D71" s="15"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
-      <c r="R71" s="51"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="39"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="70"/>
       <c r="V71" s="14"/>
     </row>
     <row r="72" spans="1:22" ht="11.25" customHeight="1">
@@ -4547,23 +4547,23 @@
       <c r="B72" s="18"/>
       <c r="C72" s="24"/>
       <c r="D72" s="15"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
-      <c r="R72" s="51"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="39"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="69"/>
+      <c r="U72" s="70"/>
       <c r="V72" s="14"/>
     </row>
     <row r="73" spans="1:22" ht="11.25" customHeight="1">
@@ -4571,78 +4571,237 @@
       <c r="B73" s="18"/>
       <c r="C73" s="24"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
-      <c r="R73" s="51"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="39"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="70"/>
       <c r="V73" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="285">
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J64:O64"/>
-    <mergeCell ref="J65:O65"/>
-    <mergeCell ref="J66:O66"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="J73:O73"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:O62"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:O63"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:O57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:O59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:O56"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
@@ -4667,216 +4826,57 @@
     <mergeCell ref="J42:O42"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:O56"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:O57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:O59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:O60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:O62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:O63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J64:O64"/>
+    <mergeCell ref="J65:O65"/>
+    <mergeCell ref="J66:O66"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="J73:O73"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{851BCE5D-0AF5-4A75-B6E5-7AE3CD1AA990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E678E113-5490-40D4-8E64-64955EC854FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,11 @@
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="137">
   <si>
     <t>作成者</t>
   </si>
@@ -1678,6 +1677,561 @@
   </si>
   <si>
     <t>入力された内容がエラーなく表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「名前（姓）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「名前（名）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容がそのまま表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「パスワード」を表示。1回改行し、その下に入力された文字数分「●」で表示させるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「カナ（姓）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「カナ（名）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「メールアドレス」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「性別」を表示。1回改行し、その下に選択された「男性」か「女性」を表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「アカウント権限」を表示。1回改行し、その下に選択された「一般」か「管理者」を表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「名前（姓）」を表示。1回改行し、その下に選択された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字数分「●」で表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタンで選択された際の、文字が表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンで選択された内容が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻って修正する</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このボタンが押された際、入力された内容を引き継いだ状態でアカウント登録画面に戻る。</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に戻り、入力された内容が引き継がれた状態で表示され、さらに編集することができるようになっている。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このボタンが押された際、入力された内容をDB登録するように次の画面（アカウント登録完了画面）へ移行する。</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面へ移行する。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「http://localhost/account/regist_complete.php」へ切り替わりインターネットのタブのところに「アカウント登録完了画面」と表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブのタイトルを「アカウント登録完了画面」と表示させるようにする。</t>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録完了」と見出しとして表示させる。文字の色や文字の大きさは指定なし。</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページのヘッダーの下に「アカウント登録完了」と表示される。</t>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページに戻る</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2550,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3482,224 +4036,360 @@
       <c r="K37" s="48"/>
       <c r="L37" s="12"/>
     </row>
-    <row r="38" spans="1:12" ht="11.25" customHeight="1">
+    <row r="38" spans="1:12" ht="45">
       <c r="A38" s="13"/>
       <c r="B38" s="57"/>
       <c r="C38" s="42"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="D38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="45"/>
       <c r="K38" s="48"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="1:12" ht="11.25" customHeight="1">
+    <row r="39" spans="1:12" ht="45">
       <c r="A39" s="13"/>
       <c r="B39" s="57"/>
       <c r="C39" s="42"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
+      <c r="D39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="45"/>
       <c r="K39" s="48"/>
       <c r="L39" s="12"/>
     </row>
-    <row r="40" spans="1:12" ht="11.25" customHeight="1">
+    <row r="40" spans="1:12" ht="45">
       <c r="A40" s="13"/>
       <c r="B40" s="57"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="D40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="32"/>
       <c r="K40" s="48"/>
       <c r="L40" s="12"/>
     </row>
-    <row r="41" spans="1:12" ht="11.25" customHeight="1">
+    <row r="41" spans="1:12" ht="45">
       <c r="A41" s="22"/>
       <c r="B41" s="56"/>
       <c r="C41" s="42"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="D41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="45"/>
       <c r="K41" s="48"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" ht="11.25" customHeight="1">
+    <row r="42" spans="1:12" ht="45">
       <c r="A42" s="13"/>
       <c r="B42" s="57"/>
       <c r="C42" s="42"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="D42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="45"/>
       <c r="K42" s="48"/>
       <c r="L42" s="12"/>
     </row>
-    <row r="43" spans="1:12" ht="11.25" customHeight="1">
+    <row r="43" spans="1:12" ht="45">
       <c r="A43" s="21"/>
       <c r="B43" s="58"/>
       <c r="C43" s="42"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="D43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>120</v>
+      </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="45"/>
       <c r="K43" s="48"/>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" spans="1:12" ht="11.25" customHeight="1">
+    <row r="44" spans="1:12" ht="45">
       <c r="A44" s="13"/>
       <c r="B44" s="57"/>
       <c r="C44" s="42"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="D44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>121</v>
+      </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="32"/>
       <c r="K44" s="48"/>
       <c r="L44" s="12"/>
     </row>
-    <row r="45" spans="1:12" ht="11.25" customHeight="1">
+    <row r="45" spans="1:12" ht="45">
       <c r="A45" s="13"/>
       <c r="B45" s="57"/>
       <c r="C45" s="42"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="D45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="45"/>
       <c r="K45" s="48"/>
       <c r="L45" s="12"/>
     </row>
-    <row r="46" spans="1:12" ht="11.25" customHeight="1">
+    <row r="46" spans="1:12" ht="45">
       <c r="A46" s="21"/>
       <c r="B46" s="58"/>
       <c r="C46" s="42"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
+      <c r="D46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>122</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="45"/>
       <c r="K46" s="48"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:12" ht="11.25" customHeight="1">
+    <row r="47" spans="1:12" ht="45">
       <c r="A47" s="13"/>
       <c r="B47" s="57"/>
       <c r="C47" s="42"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="D47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="32"/>
       <c r="K47" s="48"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="1:12" ht="11.25" customHeight="1">
+    <row r="48" spans="1:12" ht="45">
       <c r="A48" s="13"/>
       <c r="B48" s="57"/>
       <c r="C48" s="42"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="36"/>
+      <c r="D48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="44"/>
       <c r="K48" s="48"/>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="1:12" ht="11.25" customHeight="1">
+    <row r="49" spans="1:12" ht="45">
       <c r="A49" s="13"/>
       <c r="B49" s="57"/>
       <c r="C49" s="42"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="36"/>
+      <c r="D49" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>122</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="32"/>
       <c r="K49" s="48"/>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="1:12" ht="11.25" customHeight="1">
+    <row r="50" spans="1:12" ht="45">
       <c r="A50" s="22"/>
       <c r="B50" s="56"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="36"/>
+      <c r="D50" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="32"/>
       <c r="K50" s="48"/>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" ht="11.25" customHeight="1">
+    <row r="51" spans="1:12" ht="45">
       <c r="A51" s="13"/>
       <c r="B51" s="57"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="36"/>
+      <c r="C51" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>130</v>
+      </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="32"/>
       <c r="K51" s="48"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="1:12" ht="11.25" customHeight="1">
+    <row r="52" spans="1:12" ht="75">
       <c r="A52" s="21"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="36"/>
+      <c r="B52" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>132</v>
+      </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="32"/>
       <c r="K52" s="48"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="1:12" ht="11.25" customHeight="1">
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="13"/>
       <c r="B53" s="57"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>135</v>
+      </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="44"/>
@@ -3724,8 +4414,12 @@
       <c r="A55" s="13"/>
       <c r="B55" s="57"/>
       <c r="C55" s="42"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="18"/>
+      <c r="D55" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="F55" s="42"/>
       <c r="G55" s="36"/>
       <c r="H55" s="11"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E678E113-5490-40D4-8E64-64955EC854FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAB1FA-CD6A-4B7A-86F3-BBAE0A28326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="単体テスト（HTML＆PHP＆CSS＆JS）" sheetId="166" r:id="rId1"/>
+    <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
   <si>
     <t>作成者</t>
   </si>
@@ -1012,34 +1012,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「http://localhost/account/regist_comfirm.php」へ切り替わりインターネットのタブのところに「アカウント登録確認画面」と表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>見出し</t>
     <rPh sb="0" eb="2">
       <t>ミダ</t>
@@ -1676,10 +1648,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力された内容がエラーなく表示される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>見出しで「名前（姓）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
     <rPh sb="0" eb="2">
       <t>ミダ</t>
@@ -2143,37 +2111,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「http://localhost/account/regist_complete.php」へ切り替わりインターネットのタブのところに「アカウント登録完了画面」と表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タブのタイトルを「アカウント登録完了画面」と表示させるようにする。</t>
     <rPh sb="16" eb="18">
       <t>カンリョウ</t>
@@ -2215,22 +2152,164 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>TOPページに戻る</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ページのヘッダーの下に「アカウント登録完了」と表示される。</t>
     <rPh sb="9" eb="10">
       <t>シタ</t>
     </rPh>
-    <rPh sb="17" eb="21">
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録完了しました。」と文字のサイズは30pxでページの真ん中に表示させるようにする。</t>
+    <rPh sb="6" eb="10">
       <t>トウロクカンリョウ</t>
     </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページの真ん中に「アカウント登録完了しました。」と表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページの真ん中の下部にボタン形式で「TOPページに戻る」と表示され、そのボタンを押す。</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「regist_comfirm.php」へ切り替わりインターネットのタブのところに「アカウント登録確認画面」と表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「regist_complete.php」へ切り替わりインターネットのタブのところに「アカウント登録完了画面」と表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンを押されると「regist.html」が表示されるようになる。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TOPページに戻る</t>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2305,7 +2384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2531,13 +2610,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2751,6 +2841,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3104,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3242,7 +3350,7 @@
         <v>61</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -3268,7 +3376,7 @@
         <v>63</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -3294,7 +3402,7 @@
         <v>65</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -3320,7 +3428,7 @@
         <v>66</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -3348,7 +3456,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -3374,7 +3482,7 @@
         <v>67</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -3386,19 +3494,19 @@
       <c r="A11" s="13"/>
       <c r="B11" s="56"/>
       <c r="C11" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -3412,7 +3520,7 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>16</v>
@@ -3423,8 +3531,8 @@
       <c r="F12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>108</v>
+      <c r="G12" s="72" t="s">
+        <v>107</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -3447,9 +3555,7 @@
       <c r="F13" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G13" s="73"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="45"/>
@@ -3471,9 +3577,7 @@
       <c r="F14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G14" s="73"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="32"/>
@@ -3495,9 +3599,7 @@
       <c r="F15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G15" s="73"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="45"/>
@@ -3519,9 +3621,7 @@
       <c r="F16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G16" s="73"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="32"/>
@@ -3543,9 +3643,7 @@
       <c r="F17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G17" s="73"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="44"/>
@@ -3567,9 +3665,7 @@
       <c r="F18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G18" s="73"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="45"/>
@@ -3591,9 +3687,7 @@
       <c r="F19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G19" s="73"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="45"/>
@@ -3615,9 +3709,7 @@
       <c r="F20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G20" s="73"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="45"/>
@@ -3639,9 +3731,7 @@
       <c r="F21" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G21" s="73"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="32"/>
@@ -3663,9 +3753,7 @@
       <c r="F22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G22" s="73"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="44"/>
@@ -3687,9 +3775,7 @@
       <c r="F23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>108</v>
-      </c>
+      <c r="G23" s="74"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="32"/>
@@ -3702,7 +3788,7 @@
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>16</v>
@@ -3714,7 +3800,7 @@
         <v>44</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -3738,7 +3824,7 @@
         <v>45</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -3762,7 +3848,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -3786,7 +3872,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -3810,7 +3896,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -3834,7 +3920,7 @@
         <v>69</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -3858,7 +3944,7 @@
         <v>70</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -3882,7 +3968,7 @@
         <v>43</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3906,7 +3992,7 @@
         <v>71</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3930,7 +4016,7 @@
         <v>72</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3964,8 +4050,10 @@
       <c r="K34" s="48"/>
       <c r="L34" s="12"/>
     </row>
-    <row r="35" spans="1:12" ht="75">
-      <c r="A35" s="22"/>
+    <row r="35" spans="1:12" ht="60">
+      <c r="A35" s="13">
+        <v>30</v>
+      </c>
       <c r="B35" s="56" t="s">
         <v>77</v>
       </c>
@@ -3982,7 +4070,7 @@
         <v>80</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3991,22 +4079,24 @@
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" ht="45">
-      <c r="A36" s="13"/>
+      <c r="A36" s="13">
+        <v>31</v>
+      </c>
       <c r="B36" s="57"/>
       <c r="C36" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F36" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -4015,20 +4105,22 @@
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" ht="75">
-      <c r="A37" s="21"/>
+      <c r="A37" s="13">
+        <v>32</v>
+      </c>
       <c r="B37" s="58"/>
       <c r="C37" s="42"/>
       <c r="D37" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F37" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>98</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -4037,7 +4129,9 @@
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" ht="45">
-      <c r="A38" s="13"/>
+      <c r="A38" s="13">
+        <v>33</v>
+      </c>
       <c r="B38" s="57"/>
       <c r="C38" s="42"/>
       <c r="D38" s="12" t="s">
@@ -4047,10 +4141,10 @@
         <v>55</v>
       </c>
       <c r="F38" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="75" t="s">
         <v>110</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>112</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -4059,7 +4153,9 @@
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" ht="45">
-      <c r="A39" s="13"/>
+      <c r="A39" s="13">
+        <v>34</v>
+      </c>
       <c r="B39" s="57"/>
       <c r="C39" s="42"/>
       <c r="D39" s="12" t="s">
@@ -4069,11 +4165,9 @@
         <v>55</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>112</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G39" s="76"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="45"/>
@@ -4081,7 +4175,9 @@
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" ht="45">
-      <c r="A40" s="13"/>
+      <c r="A40" s="13">
+        <v>35</v>
+      </c>
       <c r="B40" s="57"/>
       <c r="C40" s="42"/>
       <c r="D40" s="12" t="s">
@@ -4091,11 +4187,9 @@
         <v>55</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="36" t="s">
         <v>112</v>
       </c>
+      <c r="G40" s="76"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="32"/>
@@ -4103,7 +4197,9 @@
       <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" ht="45">
-      <c r="A41" s="22"/>
+      <c r="A41" s="13">
+        <v>36</v>
+      </c>
       <c r="B41" s="56"/>
       <c r="C41" s="42"/>
       <c r="D41" s="12" t="s">
@@ -4113,11 +4209,9 @@
         <v>55</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>112</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G41" s="76"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="45"/>
@@ -4125,7 +4219,9 @@
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="13"/>
+      <c r="A42" s="13">
+        <v>37</v>
+      </c>
       <c r="B42" s="57"/>
       <c r="C42" s="42"/>
       <c r="D42" s="12" t="s">
@@ -4135,11 +4231,9 @@
         <v>55</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>112</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G42" s="77"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="45"/>
@@ -4147,7 +4241,9 @@
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" ht="45">
-      <c r="A43" s="21"/>
+      <c r="A43" s="13">
+        <v>38</v>
+      </c>
       <c r="B43" s="58"/>
       <c r="C43" s="42"/>
       <c r="D43" s="12" t="s">
@@ -4157,10 +4253,10 @@
         <v>55</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -4169,7 +4265,9 @@
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" ht="45">
-      <c r="A44" s="13"/>
+      <c r="A44" s="13">
+        <v>39</v>
+      </c>
       <c r="B44" s="57"/>
       <c r="C44" s="42"/>
       <c r="D44" s="12" t="s">
@@ -4179,10 +4277,10 @@
         <v>55</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -4191,7 +4289,9 @@
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" ht="45">
-      <c r="A45" s="13"/>
+      <c r="A45" s="13">
+        <v>40</v>
+      </c>
       <c r="B45" s="57"/>
       <c r="C45" s="42"/>
       <c r="D45" s="12" t="s">
@@ -4201,10 +4301,10 @@
         <v>55</v>
       </c>
       <c r="F45" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="36" t="s">
         <v>110</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>112</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -4213,7 +4313,9 @@
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" ht="45">
-      <c r="A46" s="21"/>
+      <c r="A46" s="13">
+        <v>41</v>
+      </c>
       <c r="B46" s="58"/>
       <c r="C46" s="42"/>
       <c r="D46" s="12" t="s">
@@ -4223,10 +4325,10 @@
         <v>55</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -4235,7 +4337,9 @@
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" ht="45">
-      <c r="A47" s="13"/>
+      <c r="A47" s="13">
+        <v>42</v>
+      </c>
       <c r="B47" s="57"/>
       <c r="C47" s="42"/>
       <c r="D47" s="12" t="s">
@@ -4245,10 +4349,10 @@
         <v>55</v>
       </c>
       <c r="F47" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="75" t="s">
         <v>110</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>112</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -4257,7 +4361,9 @@
       <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" ht="45">
-      <c r="A48" s="13"/>
+      <c r="A48" s="13">
+        <v>43</v>
+      </c>
       <c r="B48" s="57"/>
       <c r="C48" s="42"/>
       <c r="D48" s="12" t="s">
@@ -4267,11 +4373,9 @@
         <v>55</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G48" s="77"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="44"/>
@@ -4279,7 +4383,9 @@
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" ht="45">
-      <c r="A49" s="13"/>
+      <c r="A49" s="13">
+        <v>44</v>
+      </c>
       <c r="B49" s="57"/>
       <c r="C49" s="42"/>
       <c r="D49" s="12" t="s">
@@ -4289,10 +4395,10 @@
         <v>55</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -4301,20 +4407,22 @@
       <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" ht="45">
-      <c r="A50" s="22"/>
+      <c r="A50" s="13">
+        <v>45</v>
+      </c>
       <c r="B50" s="56"/>
       <c r="C50" s="42"/>
       <c r="D50" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>127</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -4323,22 +4431,24 @@
       <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" ht="45">
-      <c r="A51" s="13"/>
+      <c r="A51" s="13">
+        <v>46</v>
+      </c>
       <c r="B51" s="57"/>
       <c r="C51" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="36" t="s">
         <v>128</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>130</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -4346,10 +4456,12 @@
       <c r="K51" s="48"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="1:12" ht="75">
-      <c r="A52" s="21"/>
+    <row r="52" spans="1:12" ht="60">
+      <c r="A52" s="13">
+        <v>47</v>
+      </c>
       <c r="B52" s="58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>78</v>
@@ -4361,10 +4473,10 @@
         <v>55</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -4373,22 +4485,24 @@
       <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" ht="30">
-      <c r="A53" s="13"/>
+      <c r="A53" s="13">
+        <v>48</v>
+      </c>
       <c r="B53" s="57"/>
       <c r="C53" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -4396,32 +4510,48 @@
       <c r="K53" s="48"/>
       <c r="L53" s="12"/>
     </row>
-    <row r="54" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A54" s="13"/>
+    <row r="54" spans="1:12" ht="45">
+      <c r="A54" s="13">
+        <v>49</v>
+      </c>
       <c r="B54" s="57"/>
       <c r="C54" s="42"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="36"/>
+      <c r="D54" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>135</v>
+      </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="32"/>
       <c r="K54" s="48"/>
       <c r="L54" s="12"/>
     </row>
-    <row r="55" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A55" s="13"/>
+    <row r="55" spans="1:12" ht="45">
+      <c r="A55" s="13">
+        <v>50</v>
+      </c>
       <c r="B55" s="57"/>
       <c r="C55" s="42"/>
       <c r="D55" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="36"/>
+        <v>32</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>140</v>
+      </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="44"/>
@@ -4695,8 +4825,11 @@
       <c r="L74" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAB1FA-CD6A-4B7A-86F3-BBAE0A28326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E977EECF-3C2F-47F7-B5DB-94ADB8F91AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
   <si>
     <t>作成者</t>
   </si>
@@ -2310,6 +2310,61 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際にエラーが発生する場合、「エラーが発生したためアカウント登録できません。」とエラーメッセージを赤字で表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したためアカウント登録できません。」と表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面（エラー動作）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面（正常動作）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>セイジョウドウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3212,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47:G48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -4490,7 +4545,7 @@
       </c>
       <c r="B53" s="57"/>
       <c r="C53" s="42" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>81</v>
@@ -4558,14 +4613,26 @@
       <c r="K55" s="48"/>
       <c r="L55" s="12"/>
     </row>
-    <row r="56" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A56" s="22"/>
+    <row r="56" spans="1:12" ht="60">
+      <c r="A56" s="13">
+        <v>51</v>
+      </c>
       <c r="B56" s="56"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="36"/>
+      <c r="C56" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>142</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="32"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E977EECF-3C2F-47F7-B5DB-94ADB8F91AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C986504C-3B62-4F7D-B800-DAFE678761B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
   <si>
     <t>作成者</t>
   </si>
@@ -2365,6 +2365,57 @@
     </rPh>
     <rPh sb="12" eb="16">
       <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1文字多く●が表示されたので、きちんと入力された文字数分だけ表示されるようにする。（完了）</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>モジスウブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先頭が「0」の際、消えてしまうので消えないように表示させる。（完了）</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2635,19 +2686,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -2676,13 +2714,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2691,9 +2740,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2777,9 +2823,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2792,9 +2835,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2813,107 +2853,125 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3267,40 +3325,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="59" customWidth="1"/>
-    <col min="3" max="3" width="17" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="43" customWidth="1"/>
-    <col min="8" max="10" width="10.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="7" style="5"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="17" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="40" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="52" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="62" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -3309,64 +3368,64 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="62" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="64" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>44298</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="L3" s="15"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="45" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -3375,1521 +3434,1747 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="10"/>
+      <c r="H5" s="71">
+        <v>44354</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="25"/>
+      <c r="H6" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="78"/>
+      <c r="K6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="75">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="25"/>
+      <c r="H7" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="74.400000000000006">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="25"/>
+      <c r="H8" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="K8" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="60">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="25"/>
+      <c r="H9" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="78"/>
+      <c r="K9" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" ht="75">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="25"/>
+      <c r="H10" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="78"/>
+      <c r="K10" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="13"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="25"/>
+      <c r="H11" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="45">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="12"/>
+      <c r="H12" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="77"/>
+      <c r="K12" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="12"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="77"/>
+      <c r="K13" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J14" s="32"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="30">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="12"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="77"/>
+      <c r="K15" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="45">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J16" s="32"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="30">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>12</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="12" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="12"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="45">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>13</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="12"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="77"/>
+      <c r="K18" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>14</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="12" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="12"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="77"/>
+      <c r="K19" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="45">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>15</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="12" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="12"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="77"/>
+      <c r="K20" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="45">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>16</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="12" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J21" s="32"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="45">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>17</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="12"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="45">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>18</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J23" s="32"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="12"/>
+      <c r="K23" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="105">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>19</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="12"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12" ht="105">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>20</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="12"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" ht="105">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>21</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="12"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="105">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>22</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="12"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="120">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>23</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="90">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>24</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="18" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="12"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="90">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>25</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="18" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="32"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="45">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>26</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="12"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="120">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>27</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="32"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="120">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>28</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="18" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="12"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="30">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>29</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="12"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="60">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>30</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="12"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" ht="45">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>31</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="12"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" ht="75">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>32</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="26" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="12"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="45">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>33</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="12" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="75" t="s">
+      <c r="G38" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="12"/>
+      <c r="H38" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" ht="45">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>34</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="12" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="76"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="12"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="77"/>
+      <c r="K39" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" ht="45">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>35</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="12" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="76"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J40" s="32"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="45">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>36</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="12" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="12"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="77"/>
+      <c r="K41" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>37</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="12" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="12"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" s="11"/>
     </row>
     <row r="43" spans="1:12" ht="45">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>38</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="12" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="12"/>
+      <c r="H43" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" ht="45">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>39</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="12" t="s">
+      <c r="B44" s="50"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="H44" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J44" s="32"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="12"/>
+      <c r="K44" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12" ht="45">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>40</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="12" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="12"/>
+      <c r="H45" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="45">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>41</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="12" t="s">
+      <c r="B46" s="51"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="12"/>
+      <c r="H46" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="77"/>
+      <c r="K46" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12" ht="45">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>42</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="12" t="s">
+      <c r="B47" s="50"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="75" t="s">
+      <c r="G47" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="H47" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J47" s="32"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="12"/>
+      <c r="K47" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:12" ht="45">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>43</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="12" t="s">
+      <c r="B48" s="50"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="12"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="79"/>
+      <c r="K48" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12" ht="45">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>44</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="12" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="H49" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J49" s="32"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="12"/>
+      <c r="K49" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12" ht="45">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>45</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="26" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="H50" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J50" s="32"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="12"/>
+      <c r="K50" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="1:12" ht="45">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>46</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="42" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="H51" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J51" s="32"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="12"/>
+      <c r="K51" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" ht="60">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>47</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="H52" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J52" s="32"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="12"/>
+      <c r="K52" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L52" s="11"/>
     </row>
     <row r="53" spans="1:12" ht="30">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>48</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="42" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="12"/>
+      <c r="H53" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="79"/>
+      <c r="K53" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L53" s="11"/>
     </row>
     <row r="54" spans="1:12" ht="45">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>49</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="26" t="s">
+      <c r="B54" s="50"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="H54" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J54" s="32"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="12"/>
+      <c r="K54" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L54" s="11"/>
     </row>
     <row r="55" spans="1:12" ht="45">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>50</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="26" t="s">
+      <c r="B55" s="50"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="12"/>
+      <c r="H55" s="80">
+        <v>44354</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="79"/>
+      <c r="K55" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12" ht="60">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>51</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="32"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="12"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="32"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="12"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
       <c r="J58" s="32"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="12"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A59" s="13"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="32"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="12"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A60" s="13"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
       <c r="J60" s="32"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="12"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A61" s="13"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
       <c r="J61" s="32"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="12"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A62" s="22"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
       <c r="J62" s="32"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="12"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="11"/>
     </row>
     <row r="63" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A63" s="13"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="32"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="12"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="11"/>
     </row>
     <row r="64" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A64" s="13"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
       <c r="J64" s="32"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="12"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="11"/>
     </row>
     <row r="65" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A65" s="13"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="32"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="12"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="11"/>
     </row>
     <row r="66" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A66" s="13"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
       <c r="J66" s="32"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="12"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="11"/>
     </row>
     <row r="67" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A67" s="13"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
       <c r="J67" s="32"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="12"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A68" s="13"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
       <c r="J68" s="32"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="12"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A69" s="13"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
       <c r="J69" s="32"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="12"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A70" s="13"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
       <c r="J70" s="32"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="12"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="11"/>
     </row>
     <row r="71" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A71" s="13"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
       <c r="J71" s="32"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="12"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A72" s="13"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
       <c r="J72" s="32"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="12"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
       <c r="J73" s="32"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="12"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="11"/>
     </row>
     <row r="74" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A74" s="13"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
       <c r="J74" s="32"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="12"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C986504C-3B62-4F7D-B800-DAFE678761B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825199E2-6DDD-456E-86A0-5195E06B3C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="168" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="153">
   <si>
     <t>作成者</t>
   </si>
@@ -2416,6 +2418,47 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べて確認が必要。</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面推移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンスイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2731,7 +2774,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2913,6 +2956,42 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2942,36 +3021,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3325,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3346,12 +3395,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -3372,10 +3421,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -3466,14 +3515,14 @@
       <c r="G5" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="63">
         <v>44354</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="76" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="68" t="s">
         <v>145</v>
       </c>
       <c r="L5" s="9"/>
@@ -3498,13 +3547,13 @@
       <c r="G6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="64">
         <v>44354</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="17" t="s">
         <v>145</v>
       </c>
@@ -3530,14 +3579,14 @@
       <c r="G7" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="64">
         <v>44354</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="75" t="s">
+      <c r="J7" s="70"/>
+      <c r="K7" s="67" t="s">
         <v>145</v>
       </c>
       <c r="L7" s="24"/>
@@ -3562,14 +3611,14 @@
       <c r="G8" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="64">
         <v>44354</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="74" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L8" s="24"/>
@@ -3596,14 +3645,14 @@
       <c r="G9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="64">
         <v>44354</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="74" t="s">
+      <c r="J9" s="70"/>
+      <c r="K9" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L9" s="24"/>
@@ -3628,14 +3677,14 @@
       <c r="G10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="64">
         <v>44354</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="74" t="s">
+      <c r="J10" s="70"/>
+      <c r="K10" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L10" s="24"/>
@@ -3658,14 +3707,14 @@
       <c r="G11" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="64">
         <v>44354</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="74" t="s">
+      <c r="J11" s="71"/>
+      <c r="K11" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L11" s="24"/>
@@ -3687,17 +3736,17 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="72">
         <v>44354</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="74" t="s">
+      <c r="J12" s="69"/>
+      <c r="K12" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L12" s="11"/>
@@ -3717,15 +3766,15 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="72">
+      <c r="G13" s="78"/>
+      <c r="H13" s="64">
         <v>44354</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="74" t="s">
+      <c r="J13" s="69"/>
+      <c r="K13" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L13" s="11"/>
@@ -3745,15 +3794,15 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="72">
+      <c r="G14" s="78"/>
+      <c r="H14" s="64">
         <v>44354</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="32"/>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L14" s="11"/>
@@ -3773,15 +3822,15 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="80">
+      <c r="G15" s="78"/>
+      <c r="H15" s="72">
         <v>44354</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="69"/>
+      <c r="K15" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L15" s="11"/>
@@ -3801,15 +3850,15 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="72">
+      <c r="G16" s="78"/>
+      <c r="H16" s="64">
         <v>44354</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="32"/>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L16" s="11"/>
@@ -3829,15 +3878,15 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="72">
+      <c r="G17" s="78"/>
+      <c r="H17" s="64">
         <v>44354</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="74" t="s">
+      <c r="J17" s="71"/>
+      <c r="K17" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L17" s="11"/>
@@ -3857,15 +3906,15 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="80">
+      <c r="G18" s="78"/>
+      <c r="H18" s="72">
         <v>44354</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="74" t="s">
+      <c r="J18" s="69"/>
+      <c r="K18" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L18" s="11"/>
@@ -3885,15 +3934,15 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="72">
+      <c r="G19" s="78"/>
+      <c r="H19" s="64">
         <v>44354</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="74" t="s">
+      <c r="J19" s="69"/>
+      <c r="K19" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L19" s="11"/>
@@ -3913,15 +3962,15 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="72">
+      <c r="G20" s="78"/>
+      <c r="H20" s="64">
         <v>44354</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="74" t="s">
+      <c r="J20" s="69"/>
+      <c r="K20" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L20" s="11"/>
@@ -3941,15 +3990,15 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="80">
+      <c r="G21" s="78"/>
+      <c r="H21" s="72">
         <v>44354</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="32"/>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L21" s="11"/>
@@ -3969,15 +4018,15 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="72">
+      <c r="G22" s="78"/>
+      <c r="H22" s="64">
         <v>44354</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="74" t="s">
+      <c r="J22" s="71"/>
+      <c r="K22" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L22" s="11"/>
@@ -3997,15 +4046,15 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="72">
+      <c r="G23" s="79"/>
+      <c r="H23" s="64">
         <v>44354</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J23" s="32"/>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L23" s="11"/>
@@ -4030,10 +4079,16 @@
       <c r="G24" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="41"/>
+      <c r="H24" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="69"/>
+      <c r="K24" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12" ht="105">
@@ -4054,10 +4109,16 @@
       <c r="G25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="41"/>
+      <c r="H25" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="69"/>
+      <c r="K25" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" ht="105">
@@ -4078,10 +4139,16 @@
       <c r="G26" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="41"/>
+      <c r="H26" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="69"/>
+      <c r="K26" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="105">
@@ -4102,10 +4169,16 @@
       <c r="G27" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="41"/>
+      <c r="H27" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="69"/>
+      <c r="K27" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="120">
@@ -4126,10 +4199,16 @@
       <c r="G28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J28" s="32"/>
-      <c r="K28" s="41"/>
+      <c r="K28" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="90">
@@ -4150,10 +4229,16 @@
       <c r="G29" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="41"/>
+      <c r="H29" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="71"/>
+      <c r="K29" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="90">
@@ -4174,10 +4259,16 @@
       <c r="G30" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J30" s="32"/>
-      <c r="K30" s="41"/>
+      <c r="K30" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="45">
@@ -4198,10 +4289,16 @@
       <c r="G31" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="41"/>
+      <c r="H31" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="71"/>
+      <c r="K31" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="120">
@@ -4222,10 +4319,16 @@
       <c r="G32" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J32" s="32"/>
-      <c r="K32" s="41"/>
+      <c r="K32" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="120">
@@ -4246,10 +4349,16 @@
       <c r="G33" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="41"/>
+      <c r="H33" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="69"/>
+      <c r="K33" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="30">
@@ -4272,10 +4381,16 @@
       <c r="G34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="41"/>
+      <c r="H34" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="69"/>
+      <c r="K34" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="60">
@@ -4300,10 +4415,16 @@
       <c r="G35" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="41"/>
+      <c r="H35" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="69"/>
+      <c r="K35" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" ht="45">
@@ -4326,10 +4447,16 @@
       <c r="G36" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="41"/>
+      <c r="H36" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="69"/>
+      <c r="K36" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" ht="75">
@@ -4350,10 +4477,16 @@
       <c r="G37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="41"/>
+      <c r="H37" s="72">
+        <v>44354</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="69"/>
+      <c r="K37" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="45">
@@ -4371,16 +4504,16 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="80">
+      <c r="H38" s="72">
         <v>44354</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="77"/>
+      <c r="J38" s="69"/>
       <c r="K38" s="41" t="s">
         <v>145</v>
       </c>
@@ -4401,14 +4534,14 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="80">
+      <c r="G39" s="81"/>
+      <c r="H39" s="72">
         <v>44354</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="77"/>
+      <c r="J39" s="69"/>
       <c r="K39" s="41" t="s">
         <v>145</v>
       </c>
@@ -4429,8 +4562,8 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="80">
+      <c r="G40" s="81"/>
+      <c r="H40" s="72">
         <v>44354</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -4457,14 +4590,14 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="80">
+      <c r="G41" s="81"/>
+      <c r="H41" s="72">
         <v>44354</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="77"/>
+      <c r="J41" s="69"/>
       <c r="K41" s="41" t="s">
         <v>145</v>
       </c>
@@ -4485,14 +4618,14 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="80">
+      <c r="G42" s="82"/>
+      <c r="H42" s="72">
         <v>44354</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="77"/>
+      <c r="J42" s="69"/>
       <c r="K42" s="41" t="s">
         <v>145</v>
       </c>
@@ -4516,13 +4649,13 @@
       <c r="G43" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="80">
+      <c r="H43" s="72">
         <v>44354</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="77" t="s">
+      <c r="J43" s="69" t="s">
         <v>146</v>
       </c>
       <c r="K43" s="41" t="s">
@@ -4548,7 +4681,7 @@
       <c r="G44" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="80">
+      <c r="H44" s="72">
         <v>44354</v>
       </c>
       <c r="I44" s="12" t="s">
@@ -4578,13 +4711,13 @@
       <c r="G45" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="80">
+      <c r="H45" s="72">
         <v>44354</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="77" t="s">
+      <c r="J45" s="69" t="s">
         <v>147</v>
       </c>
       <c r="K45" s="41" t="s">
@@ -4610,13 +4743,13 @@
       <c r="G46" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="80">
+      <c r="H46" s="72">
         <v>44354</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="77"/>
+      <c r="J46" s="69"/>
       <c r="K46" s="41" t="s">
         <v>145</v>
       </c>
@@ -4637,10 +4770,10 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="80">
+      <c r="H47" s="72">
         <v>44354</v>
       </c>
       <c r="I47" s="12" t="s">
@@ -4667,14 +4800,14 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="80">
+      <c r="G48" s="82"/>
+      <c r="H48" s="72">
         <v>44354</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="79"/>
+      <c r="J48" s="71"/>
       <c r="K48" s="41" t="s">
         <v>145</v>
       </c>
@@ -4698,7 +4831,7 @@
       <c r="G49" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="80">
+      <c r="H49" s="72">
         <v>44354</v>
       </c>
       <c r="I49" s="12" t="s">
@@ -4728,7 +4861,7 @@
       <c r="G50" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="80">
+      <c r="H50" s="72">
         <v>44354</v>
       </c>
       <c r="I50" s="12" t="s">
@@ -4760,7 +4893,7 @@
       <c r="G51" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="80">
+      <c r="H51" s="72">
         <v>44354</v>
       </c>
       <c r="I51" s="12" t="s">
@@ -4794,7 +4927,7 @@
       <c r="G52" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="80">
+      <c r="H52" s="72">
         <v>44354</v>
       </c>
       <c r="I52" s="12" t="s">
@@ -4826,13 +4959,13 @@
       <c r="G53" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="80">
+      <c r="H53" s="72">
         <v>44354</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="79"/>
+      <c r="J53" s="71"/>
       <c r="K53" s="41" t="s">
         <v>145</v>
       </c>
@@ -4856,7 +4989,7 @@
       <c r="G54" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="80">
+      <c r="H54" s="72">
         <v>44354</v>
       </c>
       <c r="I54" s="12" t="s">
@@ -4886,13 +5019,13 @@
       <c r="G55" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="80">
+      <c r="H55" s="72">
         <v>44354</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="79"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="41" t="s">
         <v>145</v>
       </c>
@@ -4918,10 +5051,18 @@
       <c r="G56" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="41"/>
+      <c r="H56" s="72">
+        <v>44355</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>149</v>
+      </c>
       <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12" ht="11.25" customHeight="1">
@@ -5188,4 +5329,968 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
+  <dimension ref="A1:K74"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="40" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" style="52" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="7" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>44355</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="46"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" ht="15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" ht="15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" ht="15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" ht="15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" ht="15">
+      <c r="A51" s="12"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="15">
+      <c r="A52" s="12"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="15">
+      <c r="A53" s="12"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" ht="15">
+      <c r="A54" s="12"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" ht="15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="15">
+      <c r="A56" s="12"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A57" s="12"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A58" s="20"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A60" s="12"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A61" s="12"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A62" s="21"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A64" s="12"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A65" s="12"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A66" s="12"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A67" s="12"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A68" s="12"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A69" s="12"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A70" s="12"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A72" s="12"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A73" s="12"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A74" s="12"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825199E2-6DDD-456E-86A0-5195E06B3C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB977964-FB3C-4FBB-A0F2-C60414F6723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,12 @@
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="155">
   <si>
     <t>作成者</t>
   </si>
@@ -2449,16 +2449,36 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面推移</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンスイイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>分類</t>
+    <t>大分類</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小分類</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
     <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2774,7 +2794,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2992,6 +3012,18 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3020,6 +3052,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3374,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3395,12 +3433,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -3421,10 +3459,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -3736,7 +3774,7 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="81" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="72">
@@ -3766,7 +3804,7 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="78"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="64">
         <v>44354</v>
       </c>
@@ -3794,7 +3832,7 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="64">
         <v>44354</v>
       </c>
@@ -3822,7 +3860,7 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="72">
         <v>44354</v>
       </c>
@@ -3850,7 +3888,7 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="64">
         <v>44354</v>
       </c>
@@ -3878,7 +3916,7 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="82"/>
       <c r="H17" s="64">
         <v>44354</v>
       </c>
@@ -3906,7 +3944,7 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="72">
         <v>44354</v>
       </c>
@@ -3934,7 +3972,7 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="78"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="64">
         <v>44354</v>
       </c>
@@ -3962,7 +4000,7 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="64">
         <v>44354</v>
       </c>
@@ -3990,7 +4028,7 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="78"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="72">
         <v>44354</v>
       </c>
@@ -4018,7 +4056,7 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="64">
         <v>44354</v>
       </c>
@@ -4046,7 +4084,7 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="79"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="64">
         <v>44354</v>
       </c>
@@ -4504,7 +4542,7 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="84" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="72">
@@ -4534,7 +4572,7 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="81"/>
+      <c r="G39" s="85"/>
       <c r="H39" s="72">
         <v>44354</v>
       </c>
@@ -4562,7 +4600,7 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="81"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="72">
         <v>44354</v>
       </c>
@@ -4590,7 +4628,7 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="81"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="72">
         <v>44354</v>
       </c>
@@ -4618,7 +4656,7 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="82"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="72">
         <v>44354</v>
       </c>
@@ -4770,7 +4808,7 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="80" t="s">
+      <c r="G47" s="84" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="72">
@@ -4800,7 +4838,7 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="82"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="72">
         <v>44354</v>
       </c>
@@ -5333,956 +5371,1132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="40" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" style="52" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="7" style="4"/>
+    <col min="2" max="3" width="11.88671875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="40" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="52" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="55" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="I2" s="7">
         <v>44355</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="11.25" customHeight="1">
+      <c r="K2" s="53"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="46"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="46"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="F4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="G4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="J4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="K4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="8"/>
       <c r="B5" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
+        <v>50</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="62"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
+      <c r="C6" s="50"/>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="62"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
+      <c r="C7" s="50"/>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="12"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="62"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" ht="15">
+      <c r="C9" s="50"/>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="62"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
+      <c r="C10" s="50"/>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="12"/>
       <c r="B11" s="62"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" ht="15">
+      <c r="C11" s="50"/>
+      <c r="D11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="12"/>
       <c r="B12" s="50"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="15">
+      <c r="C12" s="50"/>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="12"/>
       <c r="B13" s="50"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="15">
+      <c r="C13" s="50"/>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="12"/>
       <c r="B14" s="50"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
+      <c r="C14" s="50"/>
+      <c r="D14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="12"/>
       <c r="B15" s="50"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
+      <c r="C15" s="50"/>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="12"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" ht="15">
+      <c r="C16" s="50"/>
+      <c r="D16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="12"/>
       <c r="B17" s="50"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="15">
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="12"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" ht="15">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="12"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="15">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="12"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="15">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="12"/>
       <c r="B21" s="50"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" ht="15">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="12"/>
       <c r="B22" s="50"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="12"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" ht="15">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15">
       <c r="A24" s="12"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15">
       <c r="A25" s="12"/>
       <c r="B25" s="50"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="15">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15">
       <c r="A26" s="12"/>
       <c r="B26" s="50"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" ht="15">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15">
       <c r="A27" s="12"/>
       <c r="B27" s="50"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" ht="15">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="12"/>
       <c r="B28" s="50"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" ht="15">
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15">
       <c r="A29" s="12"/>
       <c r="B29" s="50"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="15">
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15">
       <c r="A30" s="12"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="15">
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="15">
       <c r="A31" s="12"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" ht="15">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="15">
       <c r="A32" s="12"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="15">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="15">
       <c r="A33" s="12"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="15">
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="15">
       <c r="A34" s="12"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="15">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="15">
       <c r="A35" s="12"/>
       <c r="B35" s="62"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="15">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="15">
       <c r="A36" s="12"/>
       <c r="B36" s="50"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" ht="15">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="15">
       <c r="A37" s="12"/>
       <c r="B37" s="61"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" ht="15">
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="15">
       <c r="A38" s="12"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="15">
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="15">
       <c r="A39" s="12"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" ht="15">
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="15">
       <c r="A40" s="12"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" ht="15">
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="12"/>
       <c r="B41" s="62"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" ht="15">
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="15">
       <c r="A42" s="12"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" ht="15">
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="15">
       <c r="A43" s="12"/>
       <c r="B43" s="61"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" ht="15">
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="15">
       <c r="A44" s="12"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" ht="15">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="15">
       <c r="A45" s="12"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" ht="15">
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="15">
       <c r="A46" s="12"/>
       <c r="B46" s="61"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" ht="15">
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="15">
       <c r="A47" s="12"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" ht="15">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="15">
       <c r="A48" s="12"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" ht="15">
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="15">
       <c r="A49" s="12"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" ht="15">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="15">
       <c r="A50" s="12"/>
       <c r="B50" s="62"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="1:10" ht="15">
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" ht="15">
       <c r="A51" s="12"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" ht="15">
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="15">
       <c r="A52" s="12"/>
       <c r="B52" s="61"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" ht="15">
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="15">
       <c r="A53" s="12"/>
       <c r="B53" s="50"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" ht="15">
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" ht="15">
       <c r="A54" s="12"/>
       <c r="B54" s="50"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" ht="15">
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="15">
       <c r="A55" s="12"/>
       <c r="B55" s="50"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" ht="15">
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="15">
       <c r="A56" s="12"/>
       <c r="B56" s="62"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="11.25" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="50"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="11.25" customHeight="1">
       <c r="A58" s="20"/>
       <c r="B58" s="61"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" ht="11.25" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="50"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="11.25" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="50"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" ht="11.25" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="50"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" ht="11.25" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="62"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" ht="11.25" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="50"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" ht="11.25" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="50"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" ht="11.25" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="50"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="11.25" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="50"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" ht="11.25" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="50"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="11.25" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="50"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" ht="11.25" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="50"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" ht="11.25" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="50"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" ht="11.25" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="50"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="11.25" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="50"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" ht="11.25" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="50"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" ht="11.25" customHeight="1">
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" ht="11.25" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="50"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="11"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB977964-FB3C-4FBB-A0F2-C60414F6723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AB977964-FB3C-4FBB-A0F2-C60414F6723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D68343-D75D-4B09-AB12-3102361A607C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="193">
   <si>
     <t>作成者</t>
   </si>
@@ -2479,6 +2479,605 @@
     <t>入力フォーム</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力保持</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（family_name）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（last_name）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（family_name_kana）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（last_name_kana）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（mail）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（password）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタンで選択されたパラメータを変数（gender）にint型で代入。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻って修正するボタンを押されても、エラー動作になった場合でも入力・選択された文字が保持され表示される。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（postal_code）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンで選択された文字を変数（prefecture）に代入。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（address_1）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を変数（address_2）に代入。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンで選択されたパラメータを変数（authority）に代入。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ保持</t>
+    <rPh sb="3" eb="5">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーム形成</t>
+    <rPh sb="4" eb="6">
+      <t>ケイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規入力</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録する」ボタンの下にhiddenタイプを使用してDB登録のためのカラム名の変数（delete_flag）に削除フラグをint型で削除されていないのを表す「0」を代入する。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示としては見えないが次の画面でDB登録を行うための変数にきちんとそれぞれが代入される。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録する」ボタンの下にhiddenタイプを使用してDB登録のためのカラム名の変数にデータ、パラメータを代入する。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動採番</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ取得、入力</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルを新規で作る際に自動的に番号を取得するようにする。</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録先のテーブルの中で自動的に番号が取得される。</t>
+    <rPh sb="2" eb="5">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で保持されたデータをハッシュ化をしてDB登録先のカラム名に登録する。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で保持されたデータをDB登録先のカラム名に登録する。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で新規入力されたデータをDB登録先のカラム名に登録する。</t>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ登録、ハッシュ化</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録を行う時間を取得し、変数「registered_time」に代入しDB登録先のカラム名に登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新を行う時間を取得し、変数「update_time」に代入しDB登録先のカラム名に登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録先のテーブルの中に入力されてきたデータが登録されている。</t>
+    <rPh sb="2" eb="5">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2553,7 +3152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2788,13 +3387,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3024,6 +3636,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3054,10 +3681,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3433,12 +4066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -3459,10 +4092,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -3774,7 +4407,7 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="86" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="72">
@@ -3804,7 +4437,7 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="82"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="64">
         <v>44354</v>
       </c>
@@ -3832,7 +4465,7 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="82"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="64">
         <v>44354</v>
       </c>
@@ -3860,7 +4493,7 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="82"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="72">
         <v>44354</v>
       </c>
@@ -3888,7 +4521,7 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="82"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="64">
         <v>44354</v>
       </c>
@@ -3916,7 +4549,7 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="64">
         <v>44354</v>
       </c>
@@ -3944,7 +4577,7 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="82"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="72">
         <v>44354</v>
       </c>
@@ -3972,7 +4605,7 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="82"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="64">
         <v>44354</v>
       </c>
@@ -4000,7 +4633,7 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="82"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="64">
         <v>44354</v>
       </c>
@@ -4028,7 +4661,7 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="82"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="72">
         <v>44354</v>
       </c>
@@ -4056,7 +4689,7 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="82"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="64">
         <v>44354</v>
       </c>
@@ -4084,7 +4717,7 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="83"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="64">
         <v>44354</v>
       </c>
@@ -4542,7 +5175,7 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="89" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="72">
@@ -4572,7 +5205,7 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="85"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="72">
         <v>44354</v>
       </c>
@@ -4600,7 +5233,7 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="85"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="72">
         <v>44354</v>
       </c>
@@ -4628,7 +5261,7 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="85"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="72">
         <v>44354</v>
       </c>
@@ -4656,7 +5289,7 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="86"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="72">
         <v>44354</v>
       </c>
@@ -4808,7 +5441,7 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="84" t="s">
+      <c r="G47" s="89" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="72">
@@ -4838,7 +5471,7 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="86"/>
+      <c r="G48" s="91"/>
       <c r="H48" s="72">
         <v>44354</v>
       </c>
@@ -5374,14 +6007,15 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.88671875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="95" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" style="40" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" style="40" customWidth="1"/>
@@ -5393,12 +6027,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -5419,10 +6053,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -5443,8 +6077,8 @@
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="46"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="54"/>
       <c r="F3" s="36"/>
       <c r="G3" s="58"/>
@@ -5460,10 +6094,10 @@
       <c r="B4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="92" t="s">
         <v>152</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -5492,208 +6126,297 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
       <c r="B5" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>163</v>
+      </c>
       <c r="H5" s="63"/>
       <c r="I5" s="8"/>
       <c r="J5" s="70"/>
       <c r="K5" s="68"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:12" ht="30">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
       <c r="B6" s="62"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="E6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="87"/>
       <c r="H6" s="64"/>
       <c r="I6" s="12"/>
       <c r="J6" s="70"/>
       <c r="K6" s="17"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:12" ht="30">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
       <c r="B7" s="62"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="87"/>
       <c r="H7" s="64"/>
       <c r="I7" s="65"/>
       <c r="J7" s="70"/>
       <c r="K7" s="67"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:12" ht="30">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
       <c r="B8" s="76"/>
       <c r="C8" s="50"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="G8" s="32"/>
+      <c r="E8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="87"/>
       <c r="H8" s="64"/>
       <c r="I8" s="12"/>
       <c r="J8" s="70"/>
       <c r="K8" s="66"/>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:12" ht="30">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
       <c r="B9" s="62"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="E9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="87"/>
       <c r="H9" s="64"/>
       <c r="I9" s="12"/>
       <c r="J9" s="70"/>
       <c r="K9" s="66"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:12" ht="30">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
       <c r="B10" s="62"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="E10" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="87"/>
       <c r="H10" s="64"/>
       <c r="I10" s="12"/>
       <c r="J10" s="70"/>
       <c r="K10" s="66"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:12" ht="30">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
       <c r="B11" s="62"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="E11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="87"/>
       <c r="H11" s="64"/>
       <c r="I11" s="12"/>
       <c r="J11" s="71"/>
       <c r="K11" s="66"/>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:12" ht="30">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
+      <c r="E12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="87"/>
       <c r="H12" s="72"/>
       <c r="I12" s="12"/>
       <c r="J12" s="69"/>
       <c r="K12" s="66"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:12" ht="30">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
+      <c r="E13" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="87"/>
       <c r="H13" s="64"/>
       <c r="I13" s="12"/>
       <c r="J13" s="69"/>
       <c r="K13" s="66"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
+      <c r="E14" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="87"/>
       <c r="H14" s="64"/>
       <c r="I14" s="12"/>
       <c r="J14" s="32"/>
       <c r="K14" s="66"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:12" ht="30">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="32"/>
+      <c r="E15" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="87"/>
       <c r="H15" s="72"/>
       <c r="I15" s="12"/>
       <c r="J15" s="69"/>
       <c r="K15" s="66"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:12" ht="30">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
+      <c r="E16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="88"/>
       <c r="H16" s="64"/>
       <c r="I16" s="12"/>
       <c r="J16" s="32"/>
       <c r="K16" s="66"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" ht="15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
+    <row r="17" spans="1:12" ht="45" customHeight="1">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>174</v>
+      </c>
       <c r="H17" s="64"/>
       <c r="I17" s="12"/>
       <c r="J17" s="71"/>
@@ -5701,13 +6424,19 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="72"/>
       <c r="I18" s="12"/>
       <c r="J18" s="69"/>
@@ -5715,13 +6444,19 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="15">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>15</v>
+      </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="64"/>
       <c r="I19" s="12"/>
       <c r="J19" s="69"/>
@@ -5729,13 +6464,19 @@
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
+      <c r="D20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="64"/>
       <c r="I20" s="12"/>
       <c r="J20" s="69"/>
@@ -5743,13 +6484,19 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>17</v>
+      </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="32"/>
+      <c r="D21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="72"/>
       <c r="I21" s="12"/>
       <c r="J21" s="32"/>
@@ -5757,13 +6504,19 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="32"/>
+      <c r="D22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="64"/>
       <c r="I22" s="12"/>
       <c r="J22" s="71"/>
@@ -5771,13 +6524,19 @@
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>19</v>
+      </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="32"/>
+      <c r="D23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="64"/>
       <c r="I23" s="12"/>
       <c r="J23" s="32"/>
@@ -5785,13 +6544,19 @@
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="15">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="D24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="72"/>
       <c r="I24" s="12"/>
       <c r="J24" s="69"/>
@@ -5799,13 +6564,19 @@
       <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12" ht="15">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>21</v>
+      </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
+      <c r="D25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="72"/>
       <c r="I25" s="12"/>
       <c r="J25" s="69"/>
@@ -5813,13 +6584,19 @@
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" ht="15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>22</v>
+      </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
+      <c r="D26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="72"/>
       <c r="I26" s="12"/>
       <c r="J26" s="69"/>
@@ -5827,13 +6604,19 @@
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>23</v>
+      </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
+      <c r="D27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="72"/>
       <c r="I27" s="12"/>
       <c r="J27" s="69"/>
@@ -5841,55 +6624,93 @@
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="15">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>24</v>
+      </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="D28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="72"/>
       <c r="I28" s="12"/>
       <c r="J28" s="32"/>
       <c r="K28" s="66"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="15">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:12" ht="60">
+      <c r="A29" s="12">
+        <v>25</v>
+      </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
+      <c r="D29" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="88"/>
       <c r="H29" s="72"/>
       <c r="I29" s="12"/>
       <c r="J29" s="71"/>
       <c r="K29" s="66"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
+    <row r="30" spans="1:12" ht="30">
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>184</v>
+      </c>
       <c r="H30" s="72"/>
       <c r="I30" s="12"/>
       <c r="J30" s="32"/>
       <c r="K30" s="66"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="15">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:12" ht="30" customHeight="1">
+      <c r="A31" s="12">
+        <v>27</v>
+      </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="D31" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>192</v>
+      </c>
       <c r="H31" s="72"/>
       <c r="I31" s="12"/>
       <c r="J31" s="71"/>
@@ -5897,13 +6718,19 @@
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+      <c r="D32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="87"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="72"/>
       <c r="I32" s="12"/>
       <c r="J32" s="32"/>
@@ -5911,13 +6738,19 @@
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="12">
+        <v>29</v>
+      </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
+      <c r="D33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="87"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="72"/>
       <c r="I33" s="12"/>
       <c r="J33" s="69"/>
@@ -5925,13 +6758,19 @@
       <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="12">
+        <v>30</v>
+      </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="D34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="87"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="72"/>
       <c r="I34" s="12"/>
       <c r="J34" s="69"/>
@@ -5939,55 +6778,83 @@
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="12">
+        <v>31</v>
+      </c>
       <c r="B35" s="62"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="88"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="72"/>
       <c r="I35" s="12"/>
       <c r="J35" s="69"/>
       <c r="K35" s="66"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" ht="15">
-      <c r="A36" s="12"/>
+    <row r="36" spans="1:12" ht="45">
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="D36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="90"/>
       <c r="H36" s="72"/>
       <c r="I36" s="12"/>
       <c r="J36" s="69"/>
       <c r="K36" s="66"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="15">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:12" ht="30" customHeight="1">
+      <c r="A37" s="12">
+        <v>33</v>
+      </c>
       <c r="B37" s="61"/>
       <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="D37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="90"/>
       <c r="H37" s="72"/>
       <c r="I37" s="12"/>
       <c r="J37" s="69"/>
       <c r="K37" s="66"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="15">
-      <c r="A38" s="12"/>
+    <row r="38" spans="1:12" ht="30" customHeight="1">
+      <c r="A38" s="12">
+        <v>34</v>
+      </c>
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="D38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="72"/>
       <c r="I38" s="12"/>
       <c r="J38" s="69"/>
@@ -5995,13 +6862,19 @@
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" ht="15">
-      <c r="A39" s="12"/>
+      <c r="A39" s="12">
+        <v>35</v>
+      </c>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="D39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="72"/>
       <c r="I39" s="12"/>
       <c r="J39" s="69"/>
@@ -6009,13 +6882,19 @@
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" ht="15">
-      <c r="A40" s="12"/>
+      <c r="A40" s="12">
+        <v>36</v>
+      </c>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
+      <c r="D40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="72"/>
       <c r="I40" s="12"/>
       <c r="J40" s="32"/>
@@ -6023,13 +6902,19 @@
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="12">
+        <v>37</v>
+      </c>
       <c r="B41" s="62"/>
       <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
+      <c r="D41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="72"/>
       <c r="I41" s="12"/>
       <c r="J41" s="69"/>
@@ -6037,55 +6922,85 @@
       <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="15">
-      <c r="A42" s="12"/>
+      <c r="A42" s="12">
+        <v>38</v>
+      </c>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="D42" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="91"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="72"/>
       <c r="I42" s="12"/>
       <c r="J42" s="69"/>
       <c r="K42" s="41"/>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" ht="15">
-      <c r="A43" s="12"/>
+    <row r="43" spans="1:12" ht="30">
+      <c r="A43" s="12">
+        <v>39</v>
+      </c>
       <c r="B43" s="61"/>
       <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
+      <c r="D43" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="90"/>
       <c r="H43" s="72"/>
       <c r="I43" s="12"/>
       <c r="J43" s="69"/>
       <c r="K43" s="41"/>
       <c r="L43" s="11"/>
     </row>
-    <row r="44" spans="1:12" ht="15">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:12" ht="45">
+      <c r="A44" s="12">
+        <v>40</v>
+      </c>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="D44" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="90"/>
       <c r="H44" s="72"/>
       <c r="I44" s="12"/>
       <c r="J44" s="32"/>
       <c r="K44" s="41"/>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" ht="15">
-      <c r="A45" s="12"/>
+    <row r="45" spans="1:12" ht="45">
+      <c r="A45" s="12">
+        <v>41</v>
+      </c>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
+      <c r="D45" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="91"/>
       <c r="H45" s="72"/>
       <c r="I45" s="12"/>
       <c r="J45" s="69"/>
@@ -6096,7 +7011,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="61"/>
       <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="17"/>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -6152,7 +7067,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="62"/>
       <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
+      <c r="D50" s="80"/>
       <c r="E50" s="17"/>
       <c r="F50" s="39"/>
       <c r="G50" s="34"/>
@@ -6180,7 +7095,7 @@
       <c r="A52" s="12"/>
       <c r="B52" s="61"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="11"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
@@ -6236,7 +7151,7 @@
       <c r="A56" s="12"/>
       <c r="B56" s="62"/>
       <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="17"/>
       <c r="F56" s="39"/>
       <c r="G56" s="34"/>
@@ -6264,7 +7179,7 @@
       <c r="A58" s="20"/>
       <c r="B58" s="61"/>
       <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="17"/>
       <c r="F58" s="39"/>
       <c r="G58" s="34"/>
@@ -6320,7 +7235,7 @@
       <c r="A62" s="21"/>
       <c r="B62" s="62"/>
       <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
+      <c r="D62" s="80"/>
       <c r="E62" s="17"/>
       <c r="F62" s="39"/>
       <c r="G62" s="34"/>
@@ -6499,8 +7414,14 @@
       <c r="L74" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G31:G45"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="G5:G16"/>
+    <mergeCell ref="F17:F28"/>
+    <mergeCell ref="G17:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AB977964-FB3C-4FBB-A0F2-C60414F6723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D68343-D75D-4B09-AB12-3102361A607C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8001A3B-FD6D-45B1-A798-F858D26366EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="183">
   <si>
     <t>作成者</t>
   </si>
@@ -2476,13 +2476,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力フォーム</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力保持</t>
     <rPh sb="0" eb="4">
       <t>ニュウリョクホジ</t>
@@ -2490,229 +2483,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テキストボックスに入力された文字を変数（family_name）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（last_name）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（family_name_kana）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（last_name_kana）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（mail）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（password）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラジオボタンで選択されたパラメータを変数（gender）にint型で代入。</t>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻って修正するボタンを押されても、エラー動作になった場合でも入力・選択された文字が保持され表示される。</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（postal_code）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プルダウンで選択された文字を変数（prefecture）に代入。</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（address_1）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された文字を変数（address_2）に代入。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プルダウンで選択されたパラメータを変数（authority）に代入。</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データ保持</t>
     <rPh sb="3" eb="5">
       <t>ホジ</t>
@@ -2720,23 +2490,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フォーム形成</t>
-    <rPh sb="4" eb="6">
-      <t>ケイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規入力</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除フラグ</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -2744,78 +2497,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「登録する」ボタンの下にhiddenタイプを使用してDB登録のためのカラム名の変数（delete_flag）に削除フラグをint型で削除されていないのを表す「0」を代入する。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>表示としては見えないが次の画面でDB登録を行うための変数にきちんとそれぞれが代入される。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録完了画面</t>
-    <rPh sb="5" eb="11">
-      <t>トウロクカンリョウガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DB登録</t>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -2823,170 +2504,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「登録する」ボタンの下にhiddenタイプを使用してDB登録のためのカラム名の変数にデータ、パラメータを代入する。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録日時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>更新日時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自動採番</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイバン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ取得、入力</t>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テーブルを新規で作る際に自動的に番号を取得するようにする。</t>
-    <rPh sb="5" eb="7">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DB登録先のテーブルの中で自動的に番号が取得される。</t>
-    <rPh sb="2" eb="5">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面で保持されたデータをハッシュ化をしてDB登録先のカラム名に登録する。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面で保持されたデータをDB登録先のカラム名に登録する。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面で新規入力されたデータをDB登録先のカラム名に登録する。</t>
-    <rPh sb="12" eb="14">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データ登録</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -2994,90 +2511,449 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データ登録、ハッシュ化</t>
-    <rPh sb="3" eb="5">
+    <t>テキストボックスに単体テストで書かれている正しい内容の文字を入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタンで男性か女性を選択する。</t>
+    <rPh sb="7" eb="9">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに単体テストで書かれている正しい内容の文字を入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンで都道府県を選択する。</t>
+    <rPh sb="6" eb="10">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンで「管理者」か「一般」を選択する。</t>
+    <rPh sb="7" eb="10">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+    <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で入力されたデータが保持されたまま表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力フォーム（エラー動作）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力フォーム（正常動作）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに単体テストで書かれているエラー動作が起こる内容の文字を入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録を行う時間を取得し、変数「registered_time」に代入しDB登録先のカラム名に登録する。</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で「戻って修正する」を選択された場合でも入力が保持される。</t>
+    <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力保持、データ取得</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクホジ</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー動作が起こった場合でもテキストボックスに入力された文字が保持される。また、エラー文が取得されその下に表示される。</t>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存されてきたデータがDB登録先の各テーブル項目に保存される。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
       <t>トウロクサキ</t>
     </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存されてきたデータがハッシュ化され、DB登録先のテーブル項目の中にあるパスワードの項目に保存される。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存されてきたデータをint型（0か1）でDB登録先のテーブル項目の中にある性別の項目の中に保存される。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
     <rPh sb="44" eb="45">
-      <t>メイ</t>
+      <t>ナカ</t>
     </rPh>
     <rPh sb="46" eb="48">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存されてきたデータがDB登録先の各テーブル項目に保存される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除されていないという表示を表す「0」がDB登録先のテーブル項目の中にある削除フラグの項目の中に保存される。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で画面下にある「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>更新を行う時間を取得し、変数「update_time」に代入しDB登録先のカラム名に登録する。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で画面下にある「確認する」ボタンを押す。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間のデータを取得し、DB登録先のテーブル項目の中にある登録日時の項目の中に保存される。</t>
     <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間のデータを取得し、DB登録先のテーブル項目の中にある更新日時の項目の中に保存される。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>トウロクサキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DB登録先のテーブルの中に入力されてきたデータが登録されている。</t>
-    <rPh sb="2" eb="5">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="30" eb="32">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
       <t>ナカ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
+    <rPh sb="38" eb="40">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3152,7 +3028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3400,13 +3276,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3624,54 +3546,54 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3681,17 +3603,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4045,7 +4006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -6004,18 +5965,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="52" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="81" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" style="40" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" style="40" customWidth="1"/>
@@ -6031,8 +5992,8 @@
         <v>150</v>
       </c>
       <c r="B1" s="83"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -6055,8 +6016,8 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -6077,8 +6038,8 @@
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="46"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="54"/>
       <c r="F3" s="36"/>
       <c r="G3" s="58"/>
@@ -6094,10 +6055,10 @@
       <c r="B4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="79" t="s">
         <v>152</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -6106,7 +6067,7 @@
       <c r="F4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="95" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -6125,27 +6086,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="80" t="s">
-        <v>154</v>
+      <c r="C5" s="75" t="s">
+        <v>167</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>163</v>
+      <c r="E5" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>169</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="8"/>
@@ -6153,7 +6114,7 @@
       <c r="K5" s="68"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -6162,12 +6123,8 @@
       <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>157</v>
-      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="87"/>
       <c r="H6" s="64"/>
       <c r="I6" s="12"/>
@@ -6175,7 +6132,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -6184,12 +6141,8 @@
       <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>158</v>
-      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="87"/>
       <c r="H7" s="64"/>
       <c r="I7" s="65"/>
@@ -6197,21 +6150,17 @@
       <c r="K7" s="67"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="50"/>
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>159</v>
-      </c>
+      <c r="E8" s="106"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="87"/>
       <c r="H8" s="64"/>
       <c r="I8" s="12"/>
@@ -6219,7 +6168,7 @@
       <c r="K8" s="66"/>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -6228,12 +6177,8 @@
       <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>160</v>
-      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="87"/>
       <c r="H9" s="64"/>
       <c r="I9" s="12"/>
@@ -6241,7 +6186,7 @@
       <c r="K9" s="66"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -6250,12 +6195,8 @@
       <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>161</v>
-      </c>
+      <c r="E10" s="106"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="87"/>
       <c r="H10" s="64"/>
       <c r="I10" s="12"/>
@@ -6263,7 +6204,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -6272,11 +6213,9 @@
       <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>162</v>
+      <c r="E11" s="106"/>
+      <c r="F11" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="G11" s="87"/>
       <c r="H11" s="64"/>
@@ -6294,11 +6233,9 @@
       <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>164</v>
+      <c r="E12" s="106"/>
+      <c r="F12" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="G12" s="87"/>
       <c r="H12" s="72"/>
@@ -6307,7 +6244,7 @@
       <c r="K12" s="66"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="30">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -6316,11 +6253,9 @@
       <c r="D13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>165</v>
+      <c r="E13" s="106"/>
+      <c r="F13" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="64"/>
@@ -6329,7 +6264,7 @@
       <c r="K13" s="66"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" ht="30">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -6338,11 +6273,9 @@
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>166</v>
+      <c r="E14" s="106"/>
+      <c r="F14" s="102" t="s">
+        <v>161</v>
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="64"/>
@@ -6351,7 +6284,7 @@
       <c r="K14" s="66"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -6360,12 +6293,8 @@
       <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>167</v>
-      </c>
+      <c r="E15" s="106"/>
+      <c r="F15" s="103"/>
       <c r="G15" s="87"/>
       <c r="H15" s="72"/>
       <c r="I15" s="12"/>
@@ -6382,11 +6311,9 @@
       <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>168</v>
+      <c r="E16" s="107"/>
+      <c r="F16" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="64"/>
@@ -6395,29 +6322,29 @@
       <c r="K16" s="66"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" ht="45" customHeight="1">
+    <row r="17" spans="1:12" ht="30">
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="64"/>
+      <c r="F17" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="104"/>
       <c r="I17" s="12"/>
       <c r="J17" s="71"/>
       <c r="K17" s="66"/>
@@ -6427,17 +6354,15 @@
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="72"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="12"/>
       <c r="J18" s="69"/>
       <c r="K18" s="66"/>
@@ -6447,17 +6372,15 @@
       <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="64"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="104"/>
       <c r="I19" s="12"/>
       <c r="J19" s="69"/>
       <c r="K19" s="66"/>
@@ -6467,17 +6390,15 @@
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="64"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="12"/>
       <c r="J20" s="69"/>
       <c r="K20" s="66"/>
@@ -6487,17 +6408,15 @@
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="72"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="12"/>
       <c r="J21" s="32"/>
       <c r="K21" s="66"/>
@@ -6507,17 +6426,15 @@
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="64"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="104"/>
       <c r="I22" s="12"/>
       <c r="J22" s="71"/>
       <c r="K22" s="66"/>
@@ -6527,17 +6444,15 @@
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="64"/>
+        <v>23</v>
+      </c>
+      <c r="E23" s="106"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="104"/>
       <c r="I23" s="12"/>
       <c r="J23" s="32"/>
       <c r="K23" s="66"/>
@@ -6547,17 +6462,15 @@
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="72"/>
+        <v>25</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="12"/>
       <c r="J24" s="69"/>
       <c r="K24" s="66"/>
@@ -6567,39 +6480,45 @@
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="72"/>
+        <v>26</v>
+      </c>
+      <c r="E25" s="107"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="69"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="66"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="15">
+    <row r="26" spans="1:12" ht="30">
       <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="72"/>
+      <c r="B26" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="96"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="69"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="66"/>
       <c r="L26" s="11"/>
     </row>
@@ -6610,16 +6529,14 @@
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="72"/>
+        <v>17</v>
+      </c>
+      <c r="E27" s="106"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="69"/>
+      <c r="J27" s="71"/>
       <c r="K27" s="66"/>
       <c r="L27" s="11"/>
     </row>
@@ -6630,90 +6547,68 @@
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
       <c r="D28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="72"/>
+        <v>18</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="12"/>
       <c r="J28" s="32"/>
       <c r="K28" s="66"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="60">
+    <row r="29" spans="1:12" ht="15">
       <c r="A29" s="12">
         <v>25</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="72"/>
+      <c r="D29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="106"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="71"/>
+      <c r="J29" s="69"/>
       <c r="K29" s="66"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="15">
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H30" s="72"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="106"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="32"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="66"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
+    <row r="31" spans="1:12" ht="15">
       <c r="A31" s="12">
         <v>27</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" s="72"/>
+      <c r="D31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="106"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="71"/>
+      <c r="J31" s="69"/>
       <c r="K31" s="66"/>
       <c r="L31" s="11"/>
     </row>
@@ -6724,16 +6619,14 @@
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
       <c r="D32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="87"/>
+        <v>22</v>
+      </c>
+      <c r="E32" s="106"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="90"/>
-      <c r="H32" s="72"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="32"/>
+      <c r="J32" s="69"/>
       <c r="K32" s="66"/>
       <c r="L32" s="11"/>
     </row>
@@ -6744,14 +6637,12 @@
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
       <c r="D33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="87"/>
+        <v>23</v>
+      </c>
+      <c r="E33" s="106"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="90"/>
-      <c r="H33" s="72"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="12"/>
       <c r="J33" s="69"/>
       <c r="K33" s="66"/>
@@ -6764,116 +6655,110 @@
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
       <c r="D34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="87"/>
+        <v>24</v>
+      </c>
+      <c r="E34" s="106"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="90"/>
-      <c r="H34" s="72"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="12"/>
       <c r="J34" s="69"/>
-      <c r="K34" s="66"/>
+      <c r="K34" s="41"/>
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="15">
       <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" s="88"/>
+        <v>25</v>
+      </c>
+      <c r="E35" s="106"/>
+      <c r="F35" s="90"/>
       <c r="G35" s="90"/>
-      <c r="H35" s="72"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="12"/>
       <c r="J35" s="69"/>
-      <c r="K35" s="66"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:12" ht="15">
       <c r="A36" s="12">
         <v>32</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
       <c r="D36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E36" s="106"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="90"/>
-      <c r="H36" s="72"/>
+      <c r="H36" s="96"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="66"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="41"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1">
+    <row r="37" spans="1:12" ht="15">
       <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="75"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" s="90"/>
-      <c r="H37" s="72"/>
+        <v>27</v>
+      </c>
+      <c r="E37" s="107"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="12"/>
       <c r="J37" s="69"/>
-      <c r="K37" s="66"/>
+      <c r="K37" s="41"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1">
+    <row r="38" spans="1:12" ht="30">
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
+      <c r="B38" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>174</v>
+      </c>
       <c r="H38" s="72"/>
       <c r="I38" s="12"/>
       <c r="J38" s="69"/>
       <c r="K38" s="41"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="15">
+    <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="12">
         <v>35</v>
       </c>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
       <c r="D39" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="90"/>
+        <v>17</v>
+      </c>
+      <c r="E39" s="106"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="90"/>
       <c r="H39" s="72"/>
       <c r="I39" s="12"/>
@@ -6885,15 +6770,13 @@
       <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="90"/>
+        <v>18</v>
+      </c>
+      <c r="E40" s="106"/>
+      <c r="F40" s="87"/>
       <c r="G40" s="90"/>
       <c r="H40" s="72"/>
       <c r="I40" s="12"/>
@@ -6905,15 +6788,13 @@
       <c r="A41" s="12">
         <v>37</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="76"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" s="90"/>
+        <v>19</v>
+      </c>
+      <c r="E41" s="106"/>
+      <c r="F41" s="87"/>
       <c r="G41" s="90"/>
       <c r="H41" s="72"/>
       <c r="I41" s="12"/>
@@ -6925,15 +6806,13 @@
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="91"/>
+        <v>20</v>
+      </c>
+      <c r="E42" s="106"/>
+      <c r="F42" s="87"/>
       <c r="G42" s="90"/>
       <c r="H42" s="72"/>
       <c r="I42" s="12"/>
@@ -6941,94 +6820,96 @@
       <c r="K42" s="41"/>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" ht="30">
+    <row r="43" spans="1:12" ht="45">
       <c r="A43" s="12">
         <v>39</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G43" s="90"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="106"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H43" s="72"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="69"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="41"/>
       <c r="L43" s="11"/>
     </row>
-    <row r="44" spans="1:12" ht="45">
+    <row r="44" spans="1:12" ht="30">
       <c r="A44" s="12">
         <v>40</v>
       </c>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
-      <c r="D44" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="90"/>
+      <c r="D44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="106"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="H44" s="72"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="41"/>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" ht="45">
+    <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="G45" s="91"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="106"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="90" t="s">
+        <v>177</v>
+      </c>
       <c r="H45" s="72"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="69"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="41"/>
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="15">
-      <c r="A46" s="12"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
+      <c r="A46" s="12">
+        <v>42</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="106"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="72"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="69"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="41"/>
       <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12" ht="15">
-      <c r="A47" s="12"/>
+      <c r="A47" s="12">
+        <v>43</v>
+      </c>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
+      <c r="D47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="106"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="72"/>
       <c r="I47" s="12"/>
       <c r="J47" s="32"/>
@@ -7036,69 +6917,97 @@
       <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:12" ht="15">
-      <c r="A48" s="12"/>
+      <c r="A48" s="12">
+        <v>44</v>
+      </c>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="D48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="106"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="72"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="71"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="41"/>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:12" ht="15">
-      <c r="A49" s="12"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+    <row r="49" spans="1:12" ht="30">
+      <c r="A49" s="12">
+        <v>45</v>
+      </c>
+      <c r="B49" s="62"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="106"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="H49" s="72"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="32"/>
+      <c r="J49" s="71"/>
       <c r="K49" s="41"/>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" ht="15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="34"/>
+    <row r="50" spans="1:12" ht="45">
+      <c r="A50" s="12">
+        <v>46</v>
+      </c>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="106"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="34" t="s">
+        <v>178</v>
+      </c>
       <c r="H50" s="72"/>
       <c r="I50" s="12"/>
       <c r="J50" s="32"/>
       <c r="K50" s="41"/>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" spans="1:12" ht="15">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:12" ht="30">
+      <c r="A51" s="12">
+        <v>47</v>
+      </c>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="34"/>
+      <c r="D51" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="106"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="34" t="s">
+        <v>181</v>
+      </c>
       <c r="H51" s="72"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="32"/>
+      <c r="J51" s="71"/>
       <c r="K51" s="41"/>
       <c r="L51" s="11"/>
     </row>
-    <row r="52" spans="1:12" ht="15">
-      <c r="A52" s="12"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+    <row r="52" spans="1:12" ht="30">
+      <c r="A52" s="12">
+        <v>48</v>
+      </c>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="107"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="34" t="s">
+        <v>182</v>
+      </c>
       <c r="H52" s="72"/>
       <c r="I52" s="12"/>
       <c r="J52" s="32"/>
@@ -7110,52 +7019,52 @@
       <c r="B53" s="50"/>
       <c r="C53" s="50"/>
       <c r="D53" s="50"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="39"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="34"/>
       <c r="G53" s="34"/>
-      <c r="H53" s="72"/>
+      <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="71"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="41"/>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="1:12" ht="15">
-      <c r="A54" s="12"/>
+    <row r="54" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A54" s="20"/>
       <c r="B54" s="50"/>
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="39"/>
       <c r="G54" s="34"/>
-      <c r="H54" s="72"/>
+      <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="32"/>
       <c r="K54" s="41"/>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" spans="1:12" ht="15">
+    <row r="55" spans="1:12" ht="11.25" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
-      <c r="E55" s="17"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="39"/>
       <c r="G55" s="34"/>
-      <c r="H55" s="72"/>
+      <c r="H55" s="12"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="71"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="41"/>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" ht="15">
+    <row r="56" spans="1:12" ht="11.25" customHeight="1">
       <c r="A56" s="12"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="17"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="39"/>
       <c r="G56" s="34"/>
-      <c r="H56" s="72"/>
+      <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="32"/>
       <c r="K56" s="41"/>
@@ -7166,7 +7075,7 @@
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
-      <c r="E57" s="17"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="39"/>
       <c r="G57" s="34"/>
       <c r="H57" s="12"/>
@@ -7176,11 +7085,11 @@
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="17"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="39"/>
       <c r="G58" s="34"/>
       <c r="H58" s="12"/>
@@ -7194,7 +7103,7 @@
       <c r="B59" s="50"/>
       <c r="C59" s="50"/>
       <c r="D59" s="50"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="39"/>
       <c r="G59" s="34"/>
       <c r="H59" s="12"/>
@@ -7208,7 +7117,7 @@
       <c r="B60" s="50"/>
       <c r="C60" s="50"/>
       <c r="D60" s="50"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="39"/>
       <c r="G60" s="34"/>
       <c r="H60" s="12"/>
@@ -7222,9 +7131,9 @@
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
       <c r="D61" s="50"/>
-      <c r="E61" s="17"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="39"/>
-      <c r="G61" s="34"/>
+      <c r="G61" s="33"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="32"/>
@@ -7232,13 +7141,13 @@
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="17"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="94"/>
       <c r="F62" s="39"/>
-      <c r="G62" s="34"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="32"/>
@@ -7247,12 +7156,12 @@
     </row>
     <row r="63" spans="1:12" ht="11.25" customHeight="1">
       <c r="A63" s="12"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="17"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="94"/>
       <c r="F63" s="39"/>
-      <c r="G63" s="34"/>
+      <c r="G63" s="33"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="32"/>
@@ -7261,12 +7170,12 @@
     </row>
     <row r="64" spans="1:12" ht="11.25" customHeight="1">
       <c r="A64" s="12"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="17"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="94"/>
       <c r="F64" s="39"/>
-      <c r="G64" s="34"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="32"/>
@@ -7275,10 +7184,10 @@
     </row>
     <row r="65" spans="1:12" ht="11.25" customHeight="1">
       <c r="A65" s="12"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="94"/>
       <c r="F65" s="39"/>
       <c r="G65" s="33"/>
       <c r="H65" s="12"/>
@@ -7289,10 +7198,10 @@
     </row>
     <row r="66" spans="1:12" ht="11.25" customHeight="1">
       <c r="A66" s="12"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="94"/>
       <c r="F66" s="39"/>
       <c r="G66" s="33"/>
       <c r="H66" s="12"/>
@@ -7303,10 +7212,10 @@
     </row>
     <row r="67" spans="1:12" ht="11.25" customHeight="1">
       <c r="A67" s="12"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="94"/>
       <c r="F67" s="39"/>
       <c r="G67" s="33"/>
       <c r="H67" s="12"/>
@@ -7317,10 +7226,10 @@
     </row>
     <row r="68" spans="1:12" ht="11.25" customHeight="1">
       <c r="A68" s="12"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="94"/>
       <c r="F68" s="39"/>
       <c r="G68" s="33"/>
       <c r="H68" s="12"/>
@@ -7331,10 +7240,10 @@
     </row>
     <row r="69" spans="1:12" ht="11.25" customHeight="1">
       <c r="A69" s="12"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="94"/>
       <c r="F69" s="39"/>
       <c r="G69" s="33"/>
       <c r="H69" s="12"/>
@@ -7345,10 +7254,10 @@
     </row>
     <row r="70" spans="1:12" ht="11.25" customHeight="1">
       <c r="A70" s="12"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="94"/>
       <c r="F70" s="39"/>
       <c r="G70" s="33"/>
       <c r="H70" s="12"/>
@@ -7357,71 +7266,23 @@
       <c r="K70" s="41"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A72" s="12"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="11"/>
-    </row>
-    <row r="74" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A74" s="12"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G31:G45"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="15">
+    <mergeCell ref="E38:E52"/>
+    <mergeCell ref="F38:F52"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="E5:E16"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="E26:E37"/>
+    <mergeCell ref="G26:G37"/>
     <mergeCell ref="G5:G16"/>
-    <mergeCell ref="F17:F28"/>
-    <mergeCell ref="G17:G29"/>
+    <mergeCell ref="F26:F37"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8001A3B-FD6D-45B1-A798-F858D26366EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E8001A3B-FD6D-45B1-A798-F858D26366EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5A6912-E9F7-48A5-8B36-FF1161EBF7A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="180">
   <si>
     <t>作成者</t>
   </si>
@@ -2469,27 +2469,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>中分類</t>
-    <rPh sb="0" eb="3">
-      <t>チュウブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力保持</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ保持</t>
-    <rPh sb="3" eb="5">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除フラグ</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -2497,237 +2476,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DB登録</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ登録</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに単体テストで書かれている正しい内容の文字を入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラジオボタンで男性か女性を選択する。</t>
-    <rPh sb="7" eb="9">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに単体テストで書かれている正しい内容の文字を入力する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プルダウンで都道府県を選択する。</t>
-    <rPh sb="6" eb="10">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プルダウンで「管理者」か「一般」を選択する。</t>
-    <rPh sb="7" eb="10">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面で入力されたデータが保持されたまま表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力フォーム（エラー動作）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力フォーム（正常動作）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>セイジョウドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックスに単体テストで書かれているエラー動作が起こる内容の文字を入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面で「戻って修正する」を選択された場合でも入力が保持される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力保持、データ取得</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクホジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー動作が起こった場合でもテキストボックスに入力された文字が保持される。また、エラー文が取得されその下に表示される。</t>
-    <rPh sb="3" eb="5">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>登録日時</t>
     <rPh sb="0" eb="4">
       <t>トウロクニチジ</t>
@@ -2742,131 +2490,254 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>保存されてきたデータがDB登録先の各テーブル項目に保存される。</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保存されてきたデータがハッシュ化され、DB登録先のテーブル項目の中にあるパスワードの項目に保存される。</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保存されてきたデータをint型（0か1）でDB登録先のテーブル項目の中にある性別の項目の中に保存される。</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保存されてきたデータがDB登録先の各テーブル項目に保存される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除されていないという表示を表す「0」がDB登録先のテーブル項目の中にある削除フラグの項目の中に保存される。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面で画面下にある「登録する」ボタンを押す。</t>
+    <t>初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターネットを開いて「http://localhost/account/regist.html」を検索する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ画面に遷移されること。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+アカウント登録画面</t>
+    <rPh sb="12" eb="16">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ画面からアカウント登録画面へ遷移されること。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク「アカウント登録」をクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面
+トップページ</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク「トップ」をクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からトップページ画面へ遷移されること。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、漢字やひらがなを10文字以内で入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面
+アカウント登録確認画面
+（正常動作）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面
+（エラー動作）</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面
+アカウント登録画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>カクニン</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="12" eb="15">
-      <t>ガメンシタ</t>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の画面下にある「戻って修正する」ボタンを押す</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面
+アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面
+（エラー動作）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面
+PHP MyAdmin</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>トウロク</t>
@@ -2877,83 +2748,72 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面で画面下にある「確認する」ボタンを押す。</t>
-    <rPh sb="5" eb="9">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ガメンシタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <t>アカウント登録確認画面からアカウント登録完了画面へ遷移すること。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページに戻る」ボタンを押す。</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>時間のデータを取得し、DB登録先のテーブル項目の中にある登録日時の項目の中に保存される。</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
+    <t>アカウント登録完了画面からトップページ画面へ遷移されること。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>時間のデータを取得し、DB登録先のテーブル項目の中にある更新日時の項目の中に保存される。</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>トウロクサキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ホゾン</t>
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録に失敗した場合に「エラーが発生したためアカウント登録できません。」とエラーメッセージが表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3328,7 +3188,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3510,149 +3370,122 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4006,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -4027,12 +3860,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -4053,10 +3886,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -4147,14 +3980,14 @@
       <c r="G5" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="61">
         <v>44354</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="68" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="66" t="s">
         <v>145</v>
       </c>
       <c r="L5" s="9"/>
@@ -4179,13 +4012,13 @@
       <c r="G6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="62">
         <v>44354</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="17" t="s">
         <v>145</v>
       </c>
@@ -4211,14 +4044,14 @@
       <c r="G7" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="62">
         <v>44354</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="67" t="s">
+      <c r="J7" s="68"/>
+      <c r="K7" s="65" t="s">
         <v>145</v>
       </c>
       <c r="L7" s="24"/>
@@ -4243,14 +4076,14 @@
       <c r="G8" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="62">
         <v>44354</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="66" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L8" s="24"/>
@@ -4277,14 +4110,14 @@
       <c r="G9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="62">
         <v>44354</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="66" t="s">
+      <c r="J9" s="68"/>
+      <c r="K9" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L9" s="24"/>
@@ -4309,14 +4142,14 @@
       <c r="G10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="62">
         <v>44354</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="66" t="s">
+      <c r="J10" s="68"/>
+      <c r="K10" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L10" s="24"/>
@@ -4339,14 +4172,14 @@
       <c r="G11" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="62">
         <v>44354</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="66" t="s">
+      <c r="J11" s="69"/>
+      <c r="K11" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L11" s="24"/>
@@ -4368,17 +4201,17 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="70">
         <v>44354</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="66" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L12" s="11"/>
@@ -4398,15 +4231,15 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="64">
+      <c r="G13" s="86"/>
+      <c r="H13" s="62">
         <v>44354</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="69"/>
-      <c r="K13" s="66" t="s">
+      <c r="J13" s="67"/>
+      <c r="K13" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L13" s="11"/>
@@ -4426,15 +4259,15 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="64">
+      <c r="G14" s="86"/>
+      <c r="H14" s="62">
         <v>44354</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="32"/>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L14" s="11"/>
@@ -4454,15 +4287,15 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="72">
+      <c r="G15" s="86"/>
+      <c r="H15" s="70">
         <v>44354</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="66" t="s">
+      <c r="J15" s="67"/>
+      <c r="K15" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L15" s="11"/>
@@ -4482,15 +4315,15 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="64">
+      <c r="G16" s="86"/>
+      <c r="H16" s="62">
         <v>44354</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="32"/>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L16" s="11"/>
@@ -4510,15 +4343,15 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="64">
+      <c r="G17" s="86"/>
+      <c r="H17" s="62">
         <v>44354</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="66" t="s">
+      <c r="J17" s="69"/>
+      <c r="K17" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L17" s="11"/>
@@ -4538,15 +4371,15 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="72">
+      <c r="G18" s="86"/>
+      <c r="H18" s="70">
         <v>44354</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="66" t="s">
+      <c r="J18" s="67"/>
+      <c r="K18" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L18" s="11"/>
@@ -4566,15 +4399,15 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="64">
+      <c r="G19" s="86"/>
+      <c r="H19" s="62">
         <v>44354</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="66" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L19" s="11"/>
@@ -4594,15 +4427,15 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="64">
+      <c r="G20" s="86"/>
+      <c r="H20" s="62">
         <v>44354</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="69"/>
-      <c r="K20" s="66" t="s">
+      <c r="J20" s="67"/>
+      <c r="K20" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L20" s="11"/>
@@ -4622,15 +4455,15 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="72">
+      <c r="G21" s="86"/>
+      <c r="H21" s="70">
         <v>44354</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="32"/>
-      <c r="K21" s="66" t="s">
+      <c r="K21" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L21" s="11"/>
@@ -4650,15 +4483,15 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="64">
+      <c r="G22" s="86"/>
+      <c r="H22" s="62">
         <v>44354</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="66" t="s">
+      <c r="J22" s="69"/>
+      <c r="K22" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L22" s="11"/>
@@ -4678,15 +4511,15 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="64">
+      <c r="G23" s="87"/>
+      <c r="H23" s="62">
         <v>44354</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J23" s="32"/>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L23" s="11"/>
@@ -4711,14 +4544,14 @@
       <c r="G24" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="70">
         <v>44355</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="66" t="s">
+      <c r="J24" s="67"/>
+      <c r="K24" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L24" s="11"/>
@@ -4741,14 +4574,14 @@
       <c r="G25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="70">
         <v>44355</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="69"/>
-      <c r="K25" s="66" t="s">
+      <c r="J25" s="67"/>
+      <c r="K25" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L25" s="11"/>
@@ -4771,14 +4604,14 @@
       <c r="G26" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="72">
+      <c r="H26" s="70">
         <v>44355</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="69"/>
-      <c r="K26" s="66" t="s">
+      <c r="J26" s="67"/>
+      <c r="K26" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L26" s="11"/>
@@ -4801,14 +4634,14 @@
       <c r="G27" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="70">
         <v>44355</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="69"/>
-      <c r="K27" s="66" t="s">
+      <c r="J27" s="67"/>
+      <c r="K27" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L27" s="11"/>
@@ -4831,14 +4664,14 @@
       <c r="G28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28" s="70">
         <v>44355</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J28" s="32"/>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L28" s="11"/>
@@ -4861,14 +4694,14 @@
       <c r="G29" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="72">
+      <c r="H29" s="70">
         <v>44355</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="66" t="s">
+      <c r="J29" s="69"/>
+      <c r="K29" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L29" s="11"/>
@@ -4891,14 +4724,14 @@
       <c r="G30" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="72">
+      <c r="H30" s="70">
         <v>44355</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="32"/>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L30" s="11"/>
@@ -4921,14 +4754,14 @@
       <c r="G31" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="72">
+      <c r="H31" s="70">
         <v>44355</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="66" t="s">
+      <c r="J31" s="69"/>
+      <c r="K31" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L31" s="11"/>
@@ -4951,14 +4784,14 @@
       <c r="G32" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="70">
         <v>44355</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="32"/>
-      <c r="K32" s="66" t="s">
+      <c r="K32" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L32" s="11"/>
@@ -4981,14 +4814,14 @@
       <c r="G33" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="70">
         <v>44355</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="66" t="s">
+      <c r="J33" s="67"/>
+      <c r="K33" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L33" s="11"/>
@@ -5013,14 +4846,14 @@
       <c r="G34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="72">
+      <c r="H34" s="70">
         <v>44354</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="69"/>
-      <c r="K34" s="66" t="s">
+      <c r="J34" s="67"/>
+      <c r="K34" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L34" s="11"/>
@@ -5047,14 +4880,14 @@
       <c r="G35" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="72">
+      <c r="H35" s="70">
         <v>44354</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="69"/>
-      <c r="K35" s="66" t="s">
+      <c r="J35" s="67"/>
+      <c r="K35" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L35" s="11"/>
@@ -5079,14 +4912,14 @@
       <c r="G36" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="72">
+      <c r="H36" s="70">
         <v>44354</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="66" t="s">
+      <c r="J36" s="67"/>
+      <c r="K36" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L36" s="11"/>
@@ -5109,14 +4942,14 @@
       <c r="G37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="72">
+      <c r="H37" s="70">
         <v>44354</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="69"/>
-      <c r="K37" s="66" t="s">
+      <c r="J37" s="67"/>
+      <c r="K37" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L37" s="11"/>
@@ -5136,16 +4969,16 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="89" t="s">
+      <c r="G38" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="72">
+      <c r="H38" s="70">
         <v>44354</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="69"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="41" t="s">
         <v>145</v>
       </c>
@@ -5166,14 +4999,14 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="90"/>
-      <c r="H39" s="72">
+      <c r="G39" s="89"/>
+      <c r="H39" s="70">
         <v>44354</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="69"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="41" t="s">
         <v>145</v>
       </c>
@@ -5194,8 +5027,8 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="72">
+      <c r="G40" s="89"/>
+      <c r="H40" s="70">
         <v>44354</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -5222,14 +5055,14 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="72">
+      <c r="G41" s="89"/>
+      <c r="H41" s="70">
         <v>44354</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="69"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="41" t="s">
         <v>145</v>
       </c>
@@ -5250,14 +5083,14 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="91"/>
-      <c r="H42" s="72">
+      <c r="G42" s="90"/>
+      <c r="H42" s="70">
         <v>44354</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="69"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="41" t="s">
         <v>145</v>
       </c>
@@ -5281,13 +5114,13 @@
       <c r="G43" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="72">
+      <c r="H43" s="70">
         <v>44354</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="69" t="s">
+      <c r="J43" s="67" t="s">
         <v>146</v>
       </c>
       <c r="K43" s="41" t="s">
@@ -5313,7 +5146,7 @@
       <c r="G44" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="72">
+      <c r="H44" s="70">
         <v>44354</v>
       </c>
       <c r="I44" s="12" t="s">
@@ -5343,13 +5176,13 @@
       <c r="G45" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="70">
         <v>44354</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="69" t="s">
+      <c r="J45" s="67" t="s">
         <v>147</v>
       </c>
       <c r="K45" s="41" t="s">
@@ -5375,13 +5208,13 @@
       <c r="G46" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="72">
+      <c r="H46" s="70">
         <v>44354</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="69"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="41" t="s">
         <v>145</v>
       </c>
@@ -5402,10 +5235,10 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="89" t="s">
+      <c r="G47" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="72">
+      <c r="H47" s="70">
         <v>44354</v>
       </c>
       <c r="I47" s="12" t="s">
@@ -5432,14 +5265,14 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="91"/>
-      <c r="H48" s="72">
+      <c r="G48" s="90"/>
+      <c r="H48" s="70">
         <v>44354</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="71"/>
+      <c r="J48" s="69"/>
       <c r="K48" s="41" t="s">
         <v>145</v>
       </c>
@@ -5463,7 +5296,7 @@
       <c r="G49" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="72">
+      <c r="H49" s="70">
         <v>44354</v>
       </c>
       <c r="I49" s="12" t="s">
@@ -5493,7 +5326,7 @@
       <c r="G50" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="72">
+      <c r="H50" s="70">
         <v>44354</v>
       </c>
       <c r="I50" s="12" t="s">
@@ -5525,7 +5358,7 @@
       <c r="G51" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="72">
+      <c r="H51" s="70">
         <v>44354</v>
       </c>
       <c r="I51" s="12" t="s">
@@ -5559,7 +5392,7 @@
       <c r="G52" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="72">
+      <c r="H52" s="70">
         <v>44354</v>
       </c>
       <c r="I52" s="12" t="s">
@@ -5591,13 +5424,13 @@
       <c r="G53" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="72">
+      <c r="H53" s="70">
         <v>44354</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="71"/>
+      <c r="J53" s="69"/>
       <c r="K53" s="41" t="s">
         <v>145</v>
       </c>
@@ -5621,7 +5454,7 @@
       <c r="G54" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="72">
+      <c r="H54" s="70">
         <v>44354</v>
       </c>
       <c r="I54" s="12" t="s">
@@ -5651,13 +5484,13 @@
       <c r="G55" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="72">
+      <c r="H55" s="70">
         <v>44354</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="71"/>
+      <c r="J55" s="69"/>
       <c r="K55" s="41" t="s">
         <v>145</v>
       </c>
@@ -5683,7 +5516,7 @@
       <c r="G56" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="72">
+      <c r="H56" s="70">
         <v>44355</v>
       </c>
       <c r="I56" s="12" t="s">
@@ -5965,1324 +5798,1411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="40" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" style="52" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="7" style="4"/>
+    <col min="2" max="2" width="13.44140625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="40" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="56" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="55" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="57" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="H2" s="7">
         <v>44355</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" ht="11.25" customHeight="1">
+      <c r="J2" s="53"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="46"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="I3" s="46"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="79" t="s">
+      <c r="C4" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="76" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="J4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="15">
+      <c r="B5" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="B6" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="B7" s="50"/>
+      <c r="C7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="B8" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" ht="15">
+      <c r="B9" s="50"/>
+      <c r="C9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" ht="15">
+      <c r="B10" s="50"/>
+      <c r="C10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="30">
+      <c r="B11" s="50"/>
+      <c r="C11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="C12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="30">
       <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="15">
+      <c r="C13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="86"/>
+      <c r="E13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" ht="15">
+      <c r="C14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="86"/>
+      <c r="E14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="12">
         <v>11</v>
       </c>
       <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="30">
+      <c r="C15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="86"/>
+      <c r="E15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" ht="45">
       <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="30">
+      <c r="C16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="108" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="15">
+      <c r="B17" s="80"/>
+      <c r="C17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="45">
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="15">
+      <c r="B18" s="74"/>
+      <c r="C18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="45">
       <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="15">
+      <c r="B19" s="74"/>
+      <c r="C19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="60">
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="15">
+      <c r="B20" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="60">
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15">
+      <c r="B21" s="74"/>
+      <c r="C21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="45">
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="15">
+      <c r="B22" s="74"/>
+      <c r="C22" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="45">
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="15">
+      <c r="B23" s="74"/>
+      <c r="C23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="60">
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" ht="15">
+      <c r="B24" s="74"/>
+      <c r="C24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="86"/>
+      <c r="E24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="45">
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="30">
+      <c r="B25" s="74"/>
+      <c r="C25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="45">
       <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="96"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="15">
+      <c r="B26" s="80"/>
+      <c r="C26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="15">
+      <c r="C27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="86"/>
+      <c r="E27" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" ht="60">
       <c r="A28" s="12">
         <v>24</v>
       </c>
       <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="15">
+      <c r="C28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="86"/>
+      <c r="E28" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="75">
       <c r="A29" s="12">
         <v>25</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="15">
+      <c r="C29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="15">
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="15">
+      <c r="B30" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" s="12">
         <v>27</v>
       </c>
       <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="15">
+      <c r="C31" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="93"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" s="12">
         <v>28</v>
       </c>
       <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="15">
+      <c r="C32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="93"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" ht="15">
       <c r="A33" s="12">
         <v>29</v>
       </c>
       <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="15">
+      <c r="C33" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="93"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" ht="15">
       <c r="A34" s="12">
         <v>30</v>
       </c>
       <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="15">
+      <c r="C34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="93"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" ht="15">
       <c r="A35" s="12">
         <v>31</v>
       </c>
       <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="15">
+      <c r="C35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="93"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" ht="15">
       <c r="A36" s="12">
         <v>32</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="15">
+      <c r="C36" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="93"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" ht="15">
       <c r="A37" s="12">
         <v>33</v>
       </c>
       <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="30">
+      <c r="C37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="93"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" ht="15">
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="H38" s="72"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
+      <c r="B38" s="50"/>
+      <c r="C38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="93"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" ht="15">
       <c r="A39" s="12">
         <v>35</v>
       </c>
       <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="15">
+      <c r="C39" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="93"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" ht="15">
       <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" ht="15">
+      <c r="B40" s="80"/>
+      <c r="C40" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="93"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" ht="15">
       <c r="A41" s="12">
         <v>37</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="15">
+      <c r="C41" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="106"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" ht="45">
+      <c r="B42" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="70"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" ht="15">
       <c r="A43" s="12">
         <v>39</v>
       </c>
       <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="106"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="30">
+      <c r="C43" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="93"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" ht="15">
       <c r="A44" s="12">
         <v>40</v>
       </c>
       <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="106"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
+      <c r="C44" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" ht="15">
       <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="106"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" s="72"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="15">
+      <c r="B45" s="79"/>
+      <c r="C45" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" ht="15">
       <c r="A46" s="12">
         <v>42</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="106"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" ht="15">
+      <c r="C46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="93"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" ht="15">
       <c r="A47" s="12">
         <v>43</v>
       </c>
       <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="106"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="15">
+      <c r="C47" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="93"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" ht="15">
       <c r="A48" s="12">
         <v>44</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="30">
+      <c r="C48" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="93"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" ht="15">
       <c r="A49" s="12">
         <v>45</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="106"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="72"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" ht="45">
+      <c r="B49" s="80"/>
+      <c r="C49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="93"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" ht="15">
       <c r="A50" s="12">
         <v>46</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="106"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="H50" s="72"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12" ht="30">
+      <c r="C50" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="93"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" ht="15">
       <c r="A51" s="12">
         <v>47</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="106"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H51" s="72"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12" ht="30">
+      <c r="C51" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="93"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" ht="15">
       <c r="A52" s="12">
         <v>48</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" ht="15">
+      <c r="A53" s="12">
+        <v>49</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="94"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" ht="45">
+      <c r="A54" s="12">
+        <v>50</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="86"/>
+      <c r="F54" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A55" s="12">
+        <v>51</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="H52" s="72"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" ht="15">
-      <c r="A53" s="12"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="34"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A56" s="12"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A56" s="12">
+        <v>52</v>
+      </c>
       <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="34"/>
+      <c r="C56" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="93"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A57" s="12"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A57" s="12">
+        <v>53</v>
+      </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="34"/>
+      <c r="C57" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="93"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A58" s="21"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A58" s="12">
+        <v>54</v>
+      </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="34"/>
+      <c r="C58" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="93"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A59" s="12"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A59" s="12">
+        <v>55</v>
+      </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="34"/>
+      <c r="C59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="93"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A60" s="12"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A60" s="12">
+        <v>56</v>
+      </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="34"/>
+      <c r="C60" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="93"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A61" s="12"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A61" s="12">
+        <v>57</v>
+      </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="33"/>
+      <c r="C61" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="93"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A62" s="12"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A62" s="12">
+        <v>58</v>
+      </c>
+      <c r="B62" s="74"/>
+      <c r="C62" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="33"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A63" s="12"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A63" s="12">
+        <v>59</v>
+      </c>
+      <c r="B63" s="74"/>
+      <c r="C63" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="D63" s="93"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="33"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A64" s="12">
+        <v>60</v>
+      </c>
+      <c r="B64" s="74"/>
+      <c r="C64" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="D64" s="93"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="33"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A65" s="12">
+        <v>61</v>
+      </c>
+      <c r="B65" s="74"/>
+      <c r="C65" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="D65" s="93"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="33"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A66" s="12">
+        <v>62</v>
+      </c>
+      <c r="B66" s="74"/>
+      <c r="C66" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="D66" s="93"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="33"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A67" s="12">
+        <v>63</v>
+      </c>
+      <c r="B67" s="74"/>
+      <c r="C67" s="39" t="s">
+        <v>153</v>
+      </c>
       <c r="D67" s="93"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="33"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A68" s="12">
+        <v>64</v>
+      </c>
+      <c r="B68" s="74"/>
+      <c r="C68" s="39" t="s">
+        <v>154</v>
+      </c>
       <c r="D68" s="93"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="33"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A69" s="12"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="33"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A69" s="12">
+        <v>65</v>
+      </c>
+      <c r="B69" s="74"/>
+      <c r="C69" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="94"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="33"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" ht="30">
+      <c r="A70" s="12">
+        <v>66</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="11"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A71" s="17"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A72" s="17"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A73" s="17"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A74" s="17"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E38:E52"/>
-    <mergeCell ref="F38:F52"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="G17:G25"/>
-    <mergeCell ref="E5:E16"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="E26:E37"/>
-    <mergeCell ref="G26:G37"/>
-    <mergeCell ref="G5:G16"/>
-    <mergeCell ref="F26:F37"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="F14:F15"/>
+  <mergeCells count="9">
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="D55:D69"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="E42:E69"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="D20:D29"/>
+    <mergeCell ref="D30:D41"/>
+    <mergeCell ref="E30:E41"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E8001A3B-FD6D-45B1-A798-F858D26366EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5A6912-E9F7-48A5-8B36-FF1161EBF7A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="230">
   <si>
     <t>作成者</t>
   </si>
@@ -2511,14 +2511,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トップページ
-アカウント登録画面</t>
-    <rPh sb="12" eb="16">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -2543,14 +2535,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面
-トップページ</t>
-    <rPh sb="5" eb="9">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リンク「トップ」をクリックする。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2572,61 +2556,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面
-アカウント登録確認画面
-（正常動作）</t>
-    <rPh sb="5" eb="9">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>セイジョウドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録画面
-（エラー動作）</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面
-アカウント登録画面</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録確認画面の画面下にある「戻って修正する」ボタンを押す</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -2651,29 +2580,6 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面
-アカウント登録完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2695,7 +2601,465 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録完了画面
+    <t>アカウント登録確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録完了画面へ遷移すること。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページに戻る」ボタンを押す。</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面からトップページ画面へ遷移されること。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録に失敗した場合に「エラーが発生したためアカウント登録できません。」とエラーメッセージが表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字とひらがな以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字とひらがな以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか全角カタカナ以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="32" eb="34">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、空欄のままにするか半角英数字や半角記号（ハイフンやアットマーク）以外で入力、もしくは100文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="19" eb="21">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="28" eb="33">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ハンカクキゴウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角英数字以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="37">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角数字以外で入力、もしくは7文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンの初期値は未選択の状態で空欄だがそのままにし、画面下の「確認する」を押す。</t>
+    <rPh sb="6" eb="9">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン・全角半角スペース以外で入力、もしくは100文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「パスワードが未入力です。」、半角英数字以外で入力された場合は「パスワードは半角英数字で入力してください。」、10文字より多く文字が入力された場合は、「パスワードは10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示される。</t>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未選択の場合は「住所（都道府県）が未選択です。」というエラーメッセージがテキストボックスの下に表示される。</t>
+    <rPh sb="0" eb="3">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にテキストボックスに入力された文字が維持されたまま表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にラジオボタンで選択した内容が維持され、表示される。</t>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にプルダウンで選択した内容が維持され、表示される。</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にプルダウンで選択した内容が維持され、表示される。</t>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にテキストボックスに入力された文字が維持されたまま表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページから
+アカウント登録画面</t>
+    <rPh sb="14" eb="18">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から
+トップページ</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から
+アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面から
 PHP MyAdmin</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -2709,7 +3073,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録完了画面
+    <t>アカウント登録完了画面から
 トップページ</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -2723,7 +3087,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <t>アカウント登録確認画面では、パスワードの桁数分「●」で表示される。</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
@@ -2733,22 +3097,563 @@
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="20" eb="22">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面では、アカウント登録画面で入力された内容が表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面では、アカウント登録画面で入力された内容が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="19" eb="23">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に削除フラグで無効の意味を示す「0」がPHP MyAdminのlesson01のacountというテーブルの中のカラム名「delete_flag」で表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「registered_time」で表示される。</t>
+    <rPh sb="9" eb="12">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「update_time」で表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録の際に、自動的に番号を取得しPHP MyAdminのlesson01のacountというテーブルの中のカラム名「id」で表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「family_name」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「名前（姓）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（姓）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
       <t>シタ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「名前（名）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（名）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「カナ（姓）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（姓）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「カナ（名）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（名）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「メールアドレスが未入力です。」、半角英数字や半角記号（ハイフンやアットマーク）以外で入力された場合は「正しいメールアドレスを入力してください。」、100文字より多く文字が入力された場合は「メールアドレスは100字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="43" eb="46">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「郵便番号が未入力です。」、半角数字以外で入力された場合は「郵便番号は半角数字のみ入力してください。」、7文字より多く文字が入力された場合は「郵便番号は7文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="11">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「住所（市区町村）が未入力です。」、漢字・ひらがな・カタカナ・半角数字以外で入力された場合は「住所（市区町村）は漢字・ひらがな・カタカナ・半角数字で入力してください。」、10文字より多く文字が入力された場合は「住所（市区町村）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「住所（番地）が未入力です。」、漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン以外で入力された場合は「住所（番地）は漢字・ひらがな・カタカナ・半角数字・ハイフンで入力してください。」、100文字より多く文字が入力された場合は「住所（番地）は100文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面下の「確認する」を押す。</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からアカウント登録確認画面に遷移されること。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から
+アカウント登録確認画面
+（正常動作：データ受信の確認）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から
+アカウント登録確認画面
+（データ送信の確認）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から
+アカウント登録画面
+（データ受信の確認）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面からアカウント登録完了画面へ遷移すること。</t>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面へ遷移される。</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
@@ -2762,58 +3667,362 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="20" eb="22">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="23" eb="25">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TOPページに戻る」ボタンを押す。</t>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録完了画面からトップページ画面へ遷移されること。</t>
+    <t>アカウント登録確認画面から
+アカウント登録画面
+（データ送信の確認）</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
+      <t>カクニン</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
     <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DB登録に失敗した場合に「エラーが発生したためアカウント登録できません。」とエラーメッセージが表示される。</t>
-    <rPh sb="2" eb="4">
+    <rPh sb="28" eb="30">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「last_name」に表示される。</t>
+    <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「family_name_kana」に表示される。</t>
     <rPh sb="5" eb="7">
-      <t>シッパイ</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「last_name_kana」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「mail」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「password」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「gender」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「postal_code」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「prefecture」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「address_1」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「address_2」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「authority」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面
+（エラー動作：画面遷移なし）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ガメンセンイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3188,7 +4397,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3430,6 +4639,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3460,32 +4687,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3839,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F33"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3860,12 +5090,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -3886,10 +5116,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -4201,7 +5431,7 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="91" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="70">
@@ -4231,7 +5461,7 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="86"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="62">
         <v>44354</v>
       </c>
@@ -4259,7 +5489,7 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="86"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="62">
         <v>44354</v>
       </c>
@@ -4287,7 +5517,7 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="86"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="70">
         <v>44354</v>
       </c>
@@ -4315,7 +5545,7 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="62">
         <v>44354</v>
       </c>
@@ -4343,7 +5573,7 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="86"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="62">
         <v>44354</v>
       </c>
@@ -4371,7 +5601,7 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="70">
         <v>44354</v>
       </c>
@@ -4399,7 +5629,7 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="86"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="62">
         <v>44354</v>
       </c>
@@ -4427,7 +5657,7 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="86"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="62">
         <v>44354</v>
       </c>
@@ -4455,7 +5685,7 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="86"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="70">
         <v>44354</v>
       </c>
@@ -4483,7 +5713,7 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="86"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="62">
         <v>44354</v>
       </c>
@@ -4511,7 +5741,7 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="62">
         <v>44354</v>
       </c>
@@ -4969,7 +6199,7 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="88" t="s">
+      <c r="G38" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="70">
@@ -4999,7 +6229,7 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="89"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="70">
         <v>44354</v>
       </c>
@@ -5027,7 +6257,7 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="89"/>
+      <c r="G40" s="95"/>
       <c r="H40" s="70">
         <v>44354</v>
       </c>
@@ -5055,7 +6285,7 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="89"/>
+      <c r="G41" s="95"/>
       <c r="H41" s="70">
         <v>44354</v>
       </c>
@@ -5083,7 +6313,7 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="90"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="70">
         <v>44354</v>
       </c>
@@ -5235,7 +6465,7 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="88" t="s">
+      <c r="G47" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="70">
@@ -5265,7 +6495,7 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="90"/>
+      <c r="G48" s="96"/>
       <c r="H48" s="70">
         <v>44354</v>
       </c>
@@ -5798,10 +7028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E42" sqref="E42:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -5820,11 +7050,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
@@ -5845,9 +7075,9 @@
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="92"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
@@ -5884,7 +7114,7 @@
       <c r="B4" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="86" t="s">
         <v>152</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -5922,13 +7152,13 @@
       <c r="C5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="83" t="s">
         <v>158</v>
       </c>
       <c r="G5" s="61"/>
@@ -5942,19 +7172,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>162</v>
+        <v>188</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="62"/>
       <c r="H6" s="12"/>
@@ -5971,13 +7201,13 @@
         <v>59</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>165</v>
       </c>
       <c r="G7" s="62"/>
       <c r="H7" s="63"/>
@@ -5985,429 +7215,348 @@
       <c r="J7" s="65"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
+    <row r="8" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>160</v>
+      <c r="B8" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="30">
+      <c r="D8" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="50"/>
       <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" ht="30">
+        <v>164</v>
+      </c>
+      <c r="F9" s="92"/>
+    </row>
+    <row r="10" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="50"/>
       <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="86"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="30">
+      <c r="F10" s="92"/>
+    </row>
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
       <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" ht="45">
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="50"/>
       <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="30">
+      <c r="F12" s="92"/>
+    </row>
+    <row r="13" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="50"/>
       <c r="C13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="86"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="45">
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="50"/>
       <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="30">
+      <c r="F14" s="92"/>
+    </row>
+    <row r="15" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="50"/>
       <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="86"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="45">
+      <c r="F15" s="92"/>
+    </row>
+    <row r="16" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="50"/>
       <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="F16" s="92"/>
+    </row>
+    <row r="17" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="80"/>
       <c r="C17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="45">
+      <c r="F17" s="92"/>
+    </row>
+    <row r="18" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="74"/>
       <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="45">
+      <c r="F18" s="92"/>
+    </row>
+    <row r="19" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="74"/>
       <c r="C19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="87"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" ht="60">
+      <c r="F19" s="93"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="74" t="s">
-        <v>55</v>
+      <c r="B20" s="50" t="s">
+        <v>210</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="78"/>
+      <c r="D20" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="62"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="64"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" ht="60">
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="77"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="32"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="64"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" ht="45">
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="78"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="68"/>
       <c r="J22" s="64"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" ht="45">
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" ht="15">
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="78"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="32"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="64"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" ht="60">
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="77"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="12"/>
       <c r="I24" s="67"/>
       <c r="J24" s="64"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="45">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="74"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="77"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="62"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="33"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="64"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="45">
+    <row r="26" spans="1:11" ht="15">
       <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="77"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="92"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="62"/>
       <c r="H26" s="12"/>
       <c r="I26" s="32"/>
       <c r="J26" s="64"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="15">
       <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="77"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="92"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="69"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="64"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" ht="60">
+    <row r="28" spans="1:11" ht="15">
       <c r="A28" s="12">
         <v>24</v>
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="77"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="92"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="12"/>
       <c r="I28" s="32"/>
       <c r="J28" s="64"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="75">
+    <row r="29" spans="1:11" ht="15">
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="77"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="92"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="67"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="64"/>
       <c r="K29" s="11"/>
     </row>
@@ -6415,19 +7564,13 @@
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="50" t="s">
-        <v>160</v>
-      </c>
+      <c r="B30" s="74"/>
       <c r="C30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="77"/>
       <c r="H30" s="12"/>
       <c r="I30" s="67"/>
@@ -6438,212 +7581,256 @@
       <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="26" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D31" s="93"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="77"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="12"/>
       <c r="I31" s="67"/>
       <c r="J31" s="64"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" ht="15">
+    <row r="32" spans="1:11" ht="105">
       <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="74" t="s">
+        <v>55</v>
+      </c>
       <c r="C32" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="93"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="77"/>
+        <v>16</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="78"/>
       <c r="H32" s="12"/>
       <c r="I32" s="67"/>
       <c r="J32" s="64"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" ht="15">
+    <row r="33" spans="1:11" ht="105">
       <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>203</v>
+      </c>
       <c r="G33" s="77"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="67"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="64"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="15">
+    <row r="34" spans="1:11" ht="105">
       <c r="A34" s="12">
         <v>30</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="77"/>
+        <v>18</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="78"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="41"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="15">
+    <row r="35" spans="1:11" ht="105">
       <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="77"/>
+        <v>19</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="78"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="41"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" ht="15">
+    <row r="36" spans="1:11" ht="135">
       <c r="A36" s="12">
         <v>32</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="34"/>
+        <v>20</v>
+      </c>
+      <c r="D36" s="92"/>
+      <c r="E36" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>206</v>
+      </c>
       <c r="G36" s="77"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="41"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="64"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" ht="15">
+    <row r="37" spans="1:11" ht="90">
       <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="D37" s="92"/>
+      <c r="E37" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>181</v>
+      </c>
       <c r="G37" s="77"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="41"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="64"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" ht="15">
+    <row r="38" spans="1:11" ht="105">
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="70"/>
+        <v>23</v>
+      </c>
+      <c r="D38" s="92"/>
+      <c r="E38" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="77"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="41"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="64"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" ht="15">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="12">
         <v>35</v>
       </c>
       <c r="B39" s="50"/>
       <c r="C39" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="70"/>
+        <v>24</v>
+      </c>
+      <c r="D39" s="92"/>
+      <c r="E39" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="77"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="41"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="64"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" ht="15">
+    <row r="40" spans="1:11" ht="120">
       <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="77"/>
       <c r="H40" s="12"/>
       <c r="I40" s="32"/>
-      <c r="J40" s="41"/>
+      <c r="J40" s="64"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" ht="15">
+    <row r="41" spans="1:11" ht="135">
       <c r="A41" s="12">
         <v>37</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="70"/>
+        <v>26</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="77"/>
       <c r="H41" s="12"/>
       <c r="I41" s="67"/>
-      <c r="J41" s="41"/>
+      <c r="J41" s="64"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
+    <row r="42" spans="1:11" ht="30" customHeight="1">
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="79" t="s">
-        <v>160</v>
+      <c r="B42" s="50" t="s">
+        <v>159</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" s="70"/>
+      <c r="D42" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="77"/>
       <c r="H42" s="12"/>
       <c r="I42" s="67"/>
-      <c r="J42" s="41"/>
+      <c r="J42" s="64"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" ht="15">
@@ -6654,13 +7841,13 @@
       <c r="C43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="70"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="41"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="64"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" ht="15">
@@ -6671,30 +7858,30 @@
       <c r="C44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="70"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="41"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="64"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" ht="15">
       <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="79"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="70"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="77"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="41"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" ht="15">
@@ -6705,12 +7892,12 @@
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="70"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="32"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="41"/>
       <c r="K46" s="11"/>
     </row>
@@ -6722,12 +7909,12 @@
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="70"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="77"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="32"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="41"/>
       <c r="K47" s="11"/>
     </row>
@@ -6739,10 +7926,10 @@
       <c r="C48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="93"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="70"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="77"/>
       <c r="H48" s="12"/>
       <c r="I48" s="32"/>
       <c r="J48" s="41"/>
@@ -6752,16 +7939,16 @@
       <c r="A49" s="12">
         <v>45</v>
       </c>
-      <c r="B49" s="80"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="70"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="69"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="41"/>
       <c r="K49" s="11"/>
     </row>
@@ -6773,12 +7960,12 @@
       <c r="C50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="89"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="70"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="32"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="41"/>
       <c r="K50" s="11"/>
     </row>
@@ -6790,26 +7977,26 @@
       <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="89"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
       <c r="G51" s="70"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="69"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="41"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="15">
+    <row r="52" spans="1:11" ht="29.4" customHeight="1">
       <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="50"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="89"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="70"/>
       <c r="H52" s="12"/>
       <c r="I52" s="32"/>
@@ -6824,385 +8011,878 @@
       <c r="C53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="94"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="12"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="32"/>
+      <c r="I53" s="67"/>
       <c r="J53" s="41"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" ht="45">
+    <row r="54" spans="1:11" ht="30" customHeight="1">
       <c r="A54" s="12">
         <v>50</v>
       </c>
       <c r="B54" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="86"/>
-      <c r="F54" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="G54" s="12"/>
+      <c r="C54" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="77"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="41"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="64"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="11.25" customHeight="1">
+    <row r="55" spans="1:11" ht="15">
       <c r="A55" s="12">
         <v>51</v>
       </c>
-      <c r="B55" s="50" t="s">
-        <v>55</v>
-      </c>
+      <c r="B55" s="50"/>
       <c r="C55" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="86"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="D55" s="97"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="41"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="64"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="11.25" customHeight="1">
+    <row r="56" spans="1:11" ht="15">
       <c r="A56" s="12">
         <v>52</v>
       </c>
       <c r="B56" s="50"/>
       <c r="C56" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="93"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D56" s="97"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="77"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="41"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="64"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" ht="11.25" customHeight="1">
+    <row r="57" spans="1:11" ht="15">
       <c r="A57" s="12">
         <v>53</v>
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="93"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="D57" s="97"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="77"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="41"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="64"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" ht="11.25" customHeight="1">
+    <row r="58" spans="1:11" ht="15">
       <c r="A58" s="12">
         <v>54</v>
       </c>
       <c r="B58" s="50"/>
       <c r="C58" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="93"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="D58" s="97"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="77"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="32"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="41"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" ht="11.25" customHeight="1">
+    <row r="59" spans="1:11" ht="15">
       <c r="A59" s="12">
         <v>55</v>
       </c>
       <c r="B59" s="50"/>
       <c r="C59" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="93"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D59" s="97"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="77"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="32"/>
+      <c r="I59" s="67"/>
       <c r="J59" s="41"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" ht="11.25" customHeight="1">
+    <row r="60" spans="1:11" ht="45">
       <c r="A60" s="12">
         <v>56</v>
       </c>
       <c r="B60" s="50"/>
       <c r="C60" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="93"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="D60" s="97"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="77"/>
       <c r="H60" s="12"/>
       <c r="I60" s="32"/>
       <c r="J60" s="41"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" ht="11.25" customHeight="1">
+    <row r="61" spans="1:11" ht="45">
       <c r="A61" s="12">
         <v>57</v>
       </c>
       <c r="B61" s="50"/>
       <c r="C61" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="93"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D61" s="97"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61" s="77"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="32"/>
+      <c r="I61" s="67"/>
       <c r="J61" s="41"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" ht="11.25" customHeight="1">
+    <row r="62" spans="1:11" ht="45">
       <c r="A62" s="12">
         <v>58</v>
       </c>
-      <c r="B62" s="74"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="93"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="D62" s="97"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="70"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="32"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="41"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" ht="11.25" customHeight="1">
+    <row r="63" spans="1:11" ht="15">
       <c r="A63" s="12">
         <v>59</v>
       </c>
-      <c r="B63" s="74"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="93"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="D63" s="97"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="70"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="32"/>
+      <c r="I63" s="67"/>
       <c r="J63" s="41"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" ht="11.25" customHeight="1">
+    <row r="64" spans="1:11" ht="29.4" customHeight="1">
       <c r="A64" s="12">
         <v>60</v>
       </c>
-      <c r="B64" s="74"/>
+      <c r="B64" s="80"/>
       <c r="C64" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="93"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="D64" s="97"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="70"/>
       <c r="H64" s="12"/>
       <c r="I64" s="32"/>
       <c r="J64" s="41"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" ht="11.25" customHeight="1">
+    <row r="65" spans="1:11" ht="45">
       <c r="A65" s="12">
         <v>61</v>
       </c>
-      <c r="B65" s="74"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="93"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="D65" s="98"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" s="70"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="32"/>
+      <c r="I65" s="67"/>
       <c r="J65" s="41"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" ht="11.25" customHeight="1">
+    <row r="66" spans="1:11" ht="15" customHeight="1">
       <c r="A66" s="12">
         <v>62</v>
       </c>
-      <c r="B66" s="74"/>
+      <c r="B66" s="79" t="s">
+        <v>159</v>
+      </c>
       <c r="C66" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="93"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="70"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="32"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="41"/>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" ht="11.25" customHeight="1">
+    <row r="67" spans="1:11" ht="15">
       <c r="A67" s="12">
         <v>63</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="93"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="12"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="97"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="70"/>
       <c r="H67" s="12"/>
       <c r="I67" s="32"/>
       <c r="J67" s="41"/>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" ht="11.25" customHeight="1">
+    <row r="68" spans="1:11" ht="15">
       <c r="A68" s="12">
         <v>64</v>
       </c>
-      <c r="B68" s="74"/>
-      <c r="C68" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" s="93"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="12"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="97"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="70"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="32"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="41"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" ht="11.25" customHeight="1">
+    <row r="69" spans="1:11" ht="15">
       <c r="A69" s="12">
         <v>65</v>
       </c>
-      <c r="B69" s="74"/>
-      <c r="C69" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="94"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="12"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="97"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="70"/>
       <c r="H69" s="12"/>
       <c r="I69" s="32"/>
       <c r="J69" s="41"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:11" ht="15">
       <c r="A70" s="12">
         <v>66</v>
       </c>
-      <c r="B70" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="G70" s="12"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="97"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="70"/>
       <c r="H70" s="12"/>
       <c r="I70" s="32"/>
       <c r="J70" s="41"/>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A72" s="17"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A73" s="17"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A74" s="17"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
+    <row r="71" spans="1:11" ht="15">
+      <c r="A71" s="12">
+        <v>67</v>
+      </c>
+      <c r="B71" s="50"/>
+      <c r="C71" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="97"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" ht="15">
+      <c r="A72" s="12">
+        <v>68</v>
+      </c>
+      <c r="B72" s="50"/>
+      <c r="C72" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="97"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" ht="15">
+      <c r="A73" s="12">
+        <v>69</v>
+      </c>
+      <c r="B73" s="80"/>
+      <c r="C73" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="97"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" ht="15">
+      <c r="A74" s="12">
+        <v>70</v>
+      </c>
+      <c r="B74" s="50"/>
+      <c r="C74" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="97"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" ht="15">
+      <c r="A75" s="12">
+        <v>71</v>
+      </c>
+      <c r="B75" s="50"/>
+      <c r="C75" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="97"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" ht="15">
+      <c r="A76" s="12">
+        <v>72</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="97"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" ht="15">
+      <c r="A77" s="12">
+        <v>73</v>
+      </c>
+      <c r="B77" s="50"/>
+      <c r="C77" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="98"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" ht="45">
+      <c r="A78" s="12">
+        <v>74</v>
+      </c>
+      <c r="B78" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="92"/>
+      <c r="F78" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="1:11" ht="45" customHeight="1">
+      <c r="A79" s="12">
+        <v>75</v>
+      </c>
+      <c r="B79" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="92"/>
+      <c r="F79" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="1:11" ht="45">
+      <c r="A80" s="12">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="1:11" ht="45">
+      <c r="A81" s="12">
+        <v>77</v>
+      </c>
+      <c r="B81" s="50"/>
+      <c r="C81" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="1:11" ht="45">
+      <c r="A82" s="12">
+        <v>78</v>
+      </c>
+      <c r="B82" s="50"/>
+      <c r="C82" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" ht="45">
+      <c r="A83" s="12">
+        <v>79</v>
+      </c>
+      <c r="B83" s="50"/>
+      <c r="C83" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="1:11" ht="45">
+      <c r="A84" s="12">
+        <v>80</v>
+      </c>
+      <c r="B84" s="50"/>
+      <c r="C84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11" ht="45">
+      <c r="A85" s="12">
+        <v>81</v>
+      </c>
+      <c r="B85" s="50"/>
+      <c r="C85" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11" ht="45">
+      <c r="A86" s="12">
+        <v>82</v>
+      </c>
+      <c r="B86" s="50"/>
+      <c r="C86" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11" ht="45">
+      <c r="A87" s="12">
+        <v>83</v>
+      </c>
+      <c r="B87" s="74"/>
+      <c r="C87" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11" ht="45">
+      <c r="A88" s="12">
+        <v>84</v>
+      </c>
+      <c r="B88" s="74"/>
+      <c r="C88" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11" ht="45">
+      <c r="A89" s="12">
+        <v>85</v>
+      </c>
+      <c r="B89" s="74"/>
+      <c r="C89" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11" ht="45">
+      <c r="A90" s="12">
+        <v>86</v>
+      </c>
+      <c r="B90" s="74"/>
+      <c r="C90" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="1:11" ht="45">
+      <c r="A91" s="12">
+        <v>87</v>
+      </c>
+      <c r="B91" s="74"/>
+      <c r="C91" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11" ht="45">
+      <c r="A92" s="12">
+        <v>88</v>
+      </c>
+      <c r="B92" s="74"/>
+      <c r="C92" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" ht="45">
+      <c r="A93" s="12">
+        <v>89</v>
+      </c>
+      <c r="B93" s="74"/>
+      <c r="C93" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="1:11" ht="45">
+      <c r="A94" s="12">
+        <v>90</v>
+      </c>
+      <c r="B94" s="74"/>
+      <c r="C94" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="1:11" ht="45">
+      <c r="A95" s="12">
+        <v>91</v>
+      </c>
+      <c r="B95" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A96" s="17"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A97" s="17"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A98" s="17"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A99" s="17"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="19">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="E66:E94"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="D79:D94"/>
     <mergeCell ref="D42:D53"/>
-    <mergeCell ref="D55:D69"/>
+    <mergeCell ref="E42:E53"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="E42:E69"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="D20:D29"/>
-    <mergeCell ref="D30:D41"/>
-    <mergeCell ref="E30:E41"/>
-    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085632C2-B75B-44CC-8E03-FDE3EA72D638}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="231">
   <si>
     <t>作成者</t>
   </si>
@@ -3036,43 +3036,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録確認画面から
-アカウント登録完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録完了画面から
-PHP MyAdmin</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録完了画面から
 トップページ</t>
     <rPh sb="5" eb="7">
@@ -4023,6 +3986,61 @@
     </rPh>
     <rPh sb="17" eb="21">
       <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から
+アカウント登録完了画面
+（データ送信の確認）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面から
+PHP MyAdmin
+（データ受信の確認）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4397,7 +4415,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4687,34 +4705,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7030,8 +7051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -7054,7 +7075,7 @@
         <v>150</v>
       </c>
       <c r="B1" s="88"/>
-      <c r="C1" s="99"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
@@ -7077,7 +7098,7 @@
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="89"/>
       <c r="B2" s="90"/>
-      <c r="C2" s="100"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
@@ -7226,13 +7247,13 @@
         <v>16</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>164</v>
       </c>
       <c r="F8" s="91" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="26" customFormat="1" ht="30">
@@ -7383,19 +7404,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="104" t="s">
         <v>211</v>
       </c>
+      <c r="E20" s="102" t="s">
+        <v>209</v>
+      </c>
       <c r="F20" s="91" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G20" s="62"/>
       <c r="H20" s="12"/>
@@ -7412,7 +7433,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="92"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="103"/>
       <c r="F21" s="92"/>
       <c r="G21" s="62"/>
       <c r="H21" s="12"/>
@@ -7429,7 +7450,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="92"/>
-      <c r="E22" s="105"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="92"/>
       <c r="G22" s="62"/>
       <c r="H22" s="12"/>
@@ -7446,7 +7467,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="92"/>
-      <c r="E23" s="105"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="92"/>
       <c r="G23" s="62"/>
       <c r="H23" s="12"/>
@@ -7463,7 +7484,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="92"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="93"/>
       <c r="G24" s="70"/>
       <c r="H24" s="12"/>
@@ -7480,9 +7501,9 @@
         <v>21</v>
       </c>
       <c r="D25" s="92"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="12"/>
@@ -7499,9 +7520,9 @@
         <v>22</v>
       </c>
       <c r="D26" s="92"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="103"/>
       <c r="F26" s="91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G26" s="62"/>
       <c r="H26" s="12"/>
@@ -7518,7 +7539,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="92"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="92"/>
       <c r="G27" s="70"/>
       <c r="H27" s="12"/>
@@ -7535,7 +7556,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="92"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="92"/>
       <c r="G28" s="62"/>
       <c r="H28" s="12"/>
@@ -7552,7 +7573,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="92"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="92"/>
       <c r="G29" s="78"/>
       <c r="H29" s="12"/>
@@ -7569,7 +7590,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="92"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="92"/>
       <c r="G30" s="77"/>
       <c r="H30" s="12"/>
@@ -7586,7 +7607,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="93"/>
-      <c r="E31" s="106"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="93"/>
       <c r="G31" s="78"/>
       <c r="H31" s="12"/>
@@ -7605,13 +7626,13 @@
         <v>16</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>172</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G32" s="78"/>
       <c r="H32" s="12"/>
@@ -7632,7 +7653,7 @@
         <v>173</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G33" s="77"/>
       <c r="H33" s="12"/>
@@ -7653,7 +7674,7 @@
         <v>174</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G34" s="78"/>
       <c r="H34" s="12"/>
@@ -7674,7 +7695,7 @@
         <v>174</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G35" s="78"/>
       <c r="H35" s="12"/>
@@ -7695,7 +7716,7 @@
         <v>175</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G36" s="77"/>
       <c r="H36" s="12"/>
@@ -7737,7 +7758,7 @@
         <v>177</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G38" s="77"/>
       <c r="H38" s="12"/>
@@ -7779,7 +7800,7 @@
         <v>179</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G40" s="77"/>
       <c r="H40" s="12"/>
@@ -7800,7 +7821,7 @@
         <v>180</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G41" s="77"/>
       <c r="H41" s="12"/>
@@ -7819,13 +7840,13 @@
         <v>16</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E42" s="94" t="s">
         <v>165</v>
       </c>
       <c r="F42" s="94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G42" s="77"/>
       <c r="H42" s="12"/>
@@ -7841,7 +7862,7 @@
       <c r="C43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="97"/>
+      <c r="D43" s="105"/>
       <c r="E43" s="95"/>
       <c r="F43" s="95"/>
       <c r="G43" s="77"/>
@@ -7858,7 +7879,7 @@
       <c r="C44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="97"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="95"/>
       <c r="F44" s="95"/>
       <c r="G44" s="77"/>
@@ -7875,7 +7896,7 @@
       <c r="C45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="97"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="95"/>
       <c r="F45" s="95"/>
       <c r="G45" s="77"/>
@@ -7892,7 +7913,7 @@
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="97"/>
+      <c r="D46" s="105"/>
       <c r="E46" s="95"/>
       <c r="F46" s="95"/>
       <c r="G46" s="77"/>
@@ -7909,7 +7930,7 @@
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="97"/>
+      <c r="D47" s="105"/>
       <c r="E47" s="95"/>
       <c r="F47" s="95"/>
       <c r="G47" s="77"/>
@@ -7926,7 +7947,7 @@
       <c r="C48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="97"/>
+      <c r="D48" s="105"/>
       <c r="E48" s="95"/>
       <c r="F48" s="95"/>
       <c r="G48" s="77"/>
@@ -7943,7 +7964,7 @@
       <c r="C49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="97"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="95"/>
       <c r="F49" s="95"/>
       <c r="G49" s="77"/>
@@ -7960,7 +7981,7 @@
       <c r="C50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="97"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="95"/>
       <c r="F50" s="95"/>
       <c r="G50" s="70"/>
@@ -7977,7 +7998,7 @@
       <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="97"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="95"/>
       <c r="F51" s="95"/>
       <c r="G51" s="70"/>
@@ -7994,7 +8015,7 @@
       <c r="C52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="97"/>
+      <c r="D52" s="105"/>
       <c r="E52" s="95"/>
       <c r="F52" s="95"/>
       <c r="G52" s="70"/>
@@ -8011,7 +8032,7 @@
       <c r="C53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="98"/>
+      <c r="D53" s="106"/>
       <c r="E53" s="96"/>
       <c r="F53" s="96"/>
       <c r="G53" s="70"/>
@@ -8031,12 +8052,12 @@
         <v>16</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E54" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="101" t="s">
+      <c r="F54" s="99" t="s">
         <v>183</v>
       </c>
       <c r="G54" s="77"/>
@@ -8053,9 +8074,9 @@
       <c r="C55" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="97"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="95"/>
-      <c r="F55" s="103"/>
+      <c r="F55" s="100"/>
       <c r="G55" s="77"/>
       <c r="H55" s="12"/>
       <c r="I55" s="67"/>
@@ -8070,9 +8091,9 @@
       <c r="C56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="97"/>
+      <c r="D56" s="105"/>
       <c r="E56" s="95"/>
-      <c r="F56" s="103"/>
+      <c r="F56" s="100"/>
       <c r="G56" s="77"/>
       <c r="H56" s="12"/>
       <c r="I56" s="67"/>
@@ -8087,9 +8108,9 @@
       <c r="C57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="97"/>
+      <c r="D57" s="105"/>
       <c r="E57" s="95"/>
-      <c r="F57" s="103"/>
+      <c r="F57" s="100"/>
       <c r="G57" s="77"/>
       <c r="H57" s="12"/>
       <c r="I57" s="67"/>
@@ -8104,9 +8125,9 @@
       <c r="C58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="97"/>
+      <c r="D58" s="105"/>
       <c r="E58" s="95"/>
-      <c r="F58" s="103"/>
+      <c r="F58" s="100"/>
       <c r="G58" s="77"/>
       <c r="H58" s="12"/>
       <c r="I58" s="67"/>
@@ -8121,9 +8142,9 @@
       <c r="C59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="97"/>
+      <c r="D59" s="105"/>
       <c r="E59" s="95"/>
-      <c r="F59" s="102"/>
+      <c r="F59" s="101"/>
       <c r="G59" s="77"/>
       <c r="H59" s="12"/>
       <c r="I59" s="67"/>
@@ -8138,7 +8159,7 @@
       <c r="C60" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="97"/>
+      <c r="D60" s="105"/>
       <c r="E60" s="95"/>
       <c r="F60" s="34" t="s">
         <v>184</v>
@@ -8157,7 +8178,7 @@
       <c r="C61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="97"/>
+      <c r="D61" s="105"/>
       <c r="E61" s="95"/>
       <c r="F61" s="34" t="s">
         <v>187</v>
@@ -8176,7 +8197,7 @@
       <c r="C62" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="97"/>
+      <c r="D62" s="105"/>
       <c r="E62" s="95"/>
       <c r="F62" s="34" t="s">
         <v>186</v>
@@ -8195,7 +8216,7 @@
       <c r="C63" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="97"/>
+      <c r="D63" s="105"/>
       <c r="E63" s="95"/>
       <c r="F63" s="94" t="s">
         <v>187</v>
@@ -8214,7 +8235,7 @@
       <c r="C64" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="97"/>
+      <c r="D64" s="105"/>
       <c r="E64" s="95"/>
       <c r="F64" s="96"/>
       <c r="G64" s="70"/>
@@ -8231,7 +8252,7 @@
       <c r="C65" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="98"/>
+      <c r="D65" s="106"/>
       <c r="E65" s="96"/>
       <c r="F65" s="34" t="s">
         <v>185</v>
@@ -8253,7 +8274,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="91" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="E66" s="91" t="s">
         <v>167</v>
@@ -8275,7 +8296,7 @@
       <c r="C67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="97"/>
+      <c r="D67" s="105"/>
       <c r="E67" s="92"/>
       <c r="F67" s="95"/>
       <c r="G67" s="70"/>
@@ -8292,7 +8313,7 @@
       <c r="C68" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="97"/>
+      <c r="D68" s="105"/>
       <c r="E68" s="92"/>
       <c r="F68" s="95"/>
       <c r="G68" s="70"/>
@@ -8309,7 +8330,7 @@
       <c r="C69" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="97"/>
+      <c r="D69" s="105"/>
       <c r="E69" s="92"/>
       <c r="F69" s="95"/>
       <c r="G69" s="70"/>
@@ -8326,7 +8347,7 @@
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="97"/>
+      <c r="D70" s="105"/>
       <c r="E70" s="92"/>
       <c r="F70" s="95"/>
       <c r="G70" s="70"/>
@@ -8343,7 +8364,7 @@
       <c r="C71" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="97"/>
+      <c r="D71" s="105"/>
       <c r="E71" s="92"/>
       <c r="F71" s="95"/>
       <c r="G71" s="70"/>
@@ -8360,7 +8381,7 @@
       <c r="C72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="97"/>
+      <c r="D72" s="105"/>
       <c r="E72" s="92"/>
       <c r="F72" s="95"/>
       <c r="G72" s="70"/>
@@ -8377,7 +8398,7 @@
       <c r="C73" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="97"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="92"/>
       <c r="F73" s="95"/>
       <c r="G73" s="70"/>
@@ -8394,7 +8415,7 @@
       <c r="C74" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="97"/>
+      <c r="D74" s="105"/>
       <c r="E74" s="92"/>
       <c r="F74" s="95"/>
       <c r="G74" s="70"/>
@@ -8411,7 +8432,7 @@
       <c r="C75" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="97"/>
+      <c r="D75" s="105"/>
       <c r="E75" s="92"/>
       <c r="F75" s="95"/>
       <c r="G75" s="70"/>
@@ -8428,7 +8449,7 @@
       <c r="C76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="97"/>
+      <c r="D76" s="105"/>
       <c r="E76" s="92"/>
       <c r="F76" s="95"/>
       <c r="G76" s="70"/>
@@ -8445,8 +8466,8 @@
       <c r="C77" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="98"/>
-      <c r="E77" s="92"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="93"/>
       <c r="F77" s="96"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -8464,10 +8485,12 @@
       <c r="C78" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="92"/>
+      <c r="E78" s="33" t="s">
+        <v>228</v>
+      </c>
       <c r="F78" s="34" t="s">
         <v>171</v>
       </c>
@@ -8485,14 +8508,16 @@
         <v>55</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D79" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="E79" s="92"/>
+        <v>230</v>
+      </c>
+      <c r="E79" s="91" t="s">
+        <v>228</v>
+      </c>
       <c r="F79" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -8511,7 +8536,7 @@
       <c r="D80" s="92"/>
       <c r="E80" s="92"/>
       <c r="F80" s="34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -8530,7 +8555,7 @@
       <c r="D81" s="92"/>
       <c r="E81" s="92"/>
       <c r="F81" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -8549,7 +8574,7 @@
       <c r="D82" s="92"/>
       <c r="E82" s="92"/>
       <c r="F82" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -8568,7 +8593,7 @@
       <c r="D83" s="92"/>
       <c r="E83" s="92"/>
       <c r="F83" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -8587,7 +8612,7 @@
       <c r="D84" s="92"/>
       <c r="E84" s="92"/>
       <c r="F84" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -8606,7 +8631,7 @@
       <c r="D85" s="92"/>
       <c r="E85" s="92"/>
       <c r="F85" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -8625,7 +8650,7 @@
       <c r="D86" s="92"/>
       <c r="E86" s="92"/>
       <c r="F86" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -8644,7 +8669,7 @@
       <c r="D87" s="92"/>
       <c r="E87" s="92"/>
       <c r="F87" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -8663,7 +8688,7 @@
       <c r="D88" s="92"/>
       <c r="E88" s="92"/>
       <c r="F88" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -8682,7 +8707,7 @@
       <c r="D89" s="92"/>
       <c r="E89" s="92"/>
       <c r="F89" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -8701,7 +8726,7 @@
       <c r="D90" s="92"/>
       <c r="E90" s="92"/>
       <c r="F90" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -8720,7 +8745,7 @@
       <c r="D91" s="92"/>
       <c r="E91" s="92"/>
       <c r="F91" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -8739,7 +8764,7 @@
       <c r="D92" s="92"/>
       <c r="E92" s="92"/>
       <c r="F92" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -8758,7 +8783,7 @@
       <c r="D93" s="92"/>
       <c r="E93" s="92"/>
       <c r="F93" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -8777,7 +8802,7 @@
       <c r="D94" s="93"/>
       <c r="E94" s="93"/>
       <c r="F94" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -8796,7 +8821,7 @@
         <v>132</v>
       </c>
       <c r="D95" s="74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E95" s="39" t="s">
         <v>169</v>
@@ -8863,7 +8888,19 @@
       <c r="K99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="F63:F64"/>
@@ -8872,17 +8909,6 @@
     <mergeCell ref="D8:D19"/>
     <mergeCell ref="F8:F19"/>
     <mergeCell ref="E20:E31"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="E66:E94"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F42:F53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085632C2-B75B-44CC-8E03-FDE3EA72D638}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57B952A-A628-4C86-94B4-E50099DAE039}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="232">
   <si>
     <t>作成者</t>
   </si>
@@ -3101,54 +3101,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DB登録をする際に削除フラグで無効の意味を示す「0」がPHP MyAdminのlesson01のacountというテーブルの中のカラム名「delete_flag」で表示される。</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「registered_time」で表示される。</t>
-    <rPh sb="9" eb="12">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「update_time」で表示される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4042,6 +3994,82 @@
     <rPh sb="33" eb="35">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の画面下にある「戻って修正する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に削除フラグで無効の意味を示す「0」がPHP MyAdminのlesson01のacountというテーブルの中のカラム名「delete_flag」に表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「registered_time」に表示される。</t>
+    <rPh sb="9" eb="12">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「update_time」に表示される。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4675,6 +4703,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4705,6 +4736,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4727,15 +4764,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5111,12 +5139,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -5137,10 +5165,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -5452,7 +5480,7 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="92" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="70">
@@ -5482,7 +5510,7 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="92"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="62">
         <v>44354</v>
       </c>
@@ -5510,7 +5538,7 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="92"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="62">
         <v>44354</v>
       </c>
@@ -5538,7 +5566,7 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="92"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="70">
         <v>44354</v>
       </c>
@@ -5566,7 +5594,7 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="62">
         <v>44354</v>
       </c>
@@ -5594,7 +5622,7 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="62">
         <v>44354</v>
       </c>
@@ -5622,7 +5650,7 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="92"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="70">
         <v>44354</v>
       </c>
@@ -5650,7 +5678,7 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="62">
         <v>44354</v>
       </c>
@@ -5678,7 +5706,7 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="92"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="62">
         <v>44354</v>
       </c>
@@ -5706,7 +5734,7 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="92"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="70">
         <v>44354</v>
       </c>
@@ -5734,7 +5762,7 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="62">
         <v>44354</v>
       </c>
@@ -5762,7 +5790,7 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="93"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="62">
         <v>44354</v>
       </c>
@@ -6220,7 +6248,7 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="94" t="s">
+      <c r="G38" s="95" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="70">
@@ -6250,7 +6278,7 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="95"/>
+      <c r="G39" s="96"/>
       <c r="H39" s="70">
         <v>44354</v>
       </c>
@@ -6278,7 +6306,7 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="95"/>
+      <c r="G40" s="96"/>
       <c r="H40" s="70">
         <v>44354</v>
       </c>
@@ -6306,7 +6334,7 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="95"/>
+      <c r="G41" s="96"/>
       <c r="H41" s="70">
         <v>44354</v>
       </c>
@@ -6334,7 +6362,7 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="96"/>
+      <c r="G42" s="97"/>
       <c r="H42" s="70">
         <v>44354</v>
       </c>
@@ -6486,7 +6514,7 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="94" t="s">
+      <c r="G47" s="95" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="70">
@@ -6516,7 +6544,7 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="96"/>
+      <c r="G48" s="97"/>
       <c r="H48" s="70">
         <v>44354</v>
       </c>
@@ -7051,8 +7079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -7071,11 +7099,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
@@ -7096,9 +7124,9 @@
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="98"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
@@ -7246,14 +7274,14 @@
       <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="91" t="s">
-        <v>212</v>
+      <c r="D8" s="92" t="s">
+        <v>209</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="91" t="s">
-        <v>210</v>
+      <c r="F8" s="92" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="26" customFormat="1" ht="30">
@@ -7263,11 +7291,11 @@
       <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="93"/>
     </row>
     <row r="10" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A10" s="12">
@@ -7276,11 +7304,11 @@
       <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="92"/>
+      <c r="F10" s="93"/>
     </row>
     <row r="11" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A11" s="12">
@@ -7289,11 +7317,11 @@
       <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="93"/>
     </row>
     <row r="12" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A12" s="12">
@@ -7302,11 +7330,11 @@
       <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="93"/>
     </row>
     <row r="13" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A13" s="12">
@@ -7315,11 +7343,11 @@
       <c r="C13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="93"/>
     </row>
     <row r="14" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A14" s="12">
@@ -7328,11 +7356,11 @@
       <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="93"/>
     </row>
     <row r="15" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A15" s="12">
@@ -7341,11 +7369,11 @@
       <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="92"/>
+      <c r="F15" s="93"/>
     </row>
     <row r="16" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A16" s="12">
@@ -7354,11 +7382,11 @@
       <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="92"/>
+      <c r="F16" s="93"/>
     </row>
     <row r="17" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A17" s="12">
@@ -7367,11 +7395,11 @@
       <c r="C17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="92"/>
+      <c r="F17" s="93"/>
     </row>
     <row r="18" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A18" s="12">
@@ -7380,11 +7408,11 @@
       <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="92"/>
+      <c r="F18" s="93"/>
     </row>
     <row r="19" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A19" s="12">
@@ -7393,29 +7421,29 @@
       <c r="C19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="93"/>
+      <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:11" ht="15">
       <c r="A20" s="12">
         <v>16</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="91" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="91" t="s">
+      <c r="D20" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="92" t="s">
         <v>193</v>
       </c>
       <c r="G20" s="62"/>
@@ -7432,9 +7460,9 @@
       <c r="C21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="62"/>
       <c r="H21" s="12"/>
       <c r="I21" s="68"/>
@@ -7449,9 +7477,9 @@
       <c r="C22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="62"/>
       <c r="H22" s="12"/>
       <c r="I22" s="68"/>
@@ -7466,9 +7494,9 @@
       <c r="C23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="62"/>
       <c r="H23" s="12"/>
       <c r="I23" s="69"/>
@@ -7483,9 +7511,9 @@
       <c r="C24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="70"/>
       <c r="H24" s="12"/>
       <c r="I24" s="67"/>
@@ -7500,8 +7528,8 @@
       <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="103"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="33" t="s">
         <v>191</v>
       </c>
@@ -7519,9 +7547,9 @@
       <c r="C26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="91" t="s">
+      <c r="D26" s="93"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="92" t="s">
         <v>192</v>
       </c>
       <c r="G26" s="62"/>
@@ -7538,9 +7566,9 @@
       <c r="C27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="70"/>
       <c r="H27" s="12"/>
       <c r="I27" s="67"/>
@@ -7555,9 +7583,9 @@
       <c r="C28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="62"/>
       <c r="H28" s="12"/>
       <c r="I28" s="32"/>
@@ -7572,9 +7600,9 @@
       <c r="C29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="78"/>
       <c r="H29" s="12"/>
       <c r="I29" s="69"/>
@@ -7589,9 +7617,9 @@
       <c r="C30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="77"/>
       <c r="H30" s="12"/>
       <c r="I30" s="67"/>
@@ -7606,9 +7634,9 @@
       <c r="C31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="94"/>
       <c r="G31" s="78"/>
       <c r="H31" s="12"/>
       <c r="I31" s="67"/>
@@ -7625,14 +7653,14 @@
       <c r="C32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="91" t="s">
-        <v>227</v>
+      <c r="D32" s="92" t="s">
+        <v>224</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>172</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G32" s="78"/>
       <c r="H32" s="12"/>
@@ -7648,12 +7676,12 @@
       <c r="C33" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="92"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="33" t="s">
         <v>173</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G33" s="77"/>
       <c r="H33" s="12"/>
@@ -7669,12 +7697,12 @@
       <c r="C34" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="33" t="s">
         <v>174</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G34" s="78"/>
       <c r="H34" s="12"/>
@@ -7690,12 +7718,12 @@
       <c r="C35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="92"/>
+      <c r="D35" s="93"/>
       <c r="E35" s="33" t="s">
         <v>174</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G35" s="78"/>
       <c r="H35" s="12"/>
@@ -7711,12 +7739,12 @@
       <c r="C36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="92"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="33" t="s">
         <v>175</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G36" s="77"/>
       <c r="H36" s="12"/>
@@ -7732,7 +7760,7 @@
       <c r="C37" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="33" t="s">
         <v>176</v>
       </c>
@@ -7753,12 +7781,12 @@
       <c r="C38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="92"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="33" t="s">
         <v>177</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G38" s="77"/>
       <c r="H38" s="12"/>
@@ -7774,7 +7802,7 @@
       <c r="C39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="92"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="33" t="s">
         <v>178</v>
       </c>
@@ -7795,12 +7823,12 @@
       <c r="C40" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="33" t="s">
         <v>179</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G40" s="77"/>
       <c r="H40" s="12"/>
@@ -7816,12 +7844,12 @@
       <c r="C41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="33" t="s">
         <v>180</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G41" s="77"/>
       <c r="H41" s="12"/>
@@ -7839,14 +7867,14 @@
       <c r="C42" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="E42" s="94" t="s">
+      <c r="D42" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="94" t="s">
-        <v>214</v>
+      <c r="F42" s="95" t="s">
+        <v>211</v>
       </c>
       <c r="G42" s="77"/>
       <c r="H42" s="12"/>
@@ -7862,9 +7890,9 @@
       <c r="C43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="77"/>
       <c r="H43" s="12"/>
       <c r="I43" s="67"/>
@@ -7879,9 +7907,9 @@
       <c r="C44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
       <c r="G44" s="77"/>
       <c r="H44" s="12"/>
       <c r="I44" s="67"/>
@@ -7896,9 +7924,9 @@
       <c r="C45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
       <c r="G45" s="77"/>
       <c r="H45" s="12"/>
       <c r="I45" s="67"/>
@@ -7913,9 +7941,9 @@
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
       <c r="G46" s="77"/>
       <c r="H46" s="12"/>
       <c r="I46" s="67"/>
@@ -7930,9 +7958,9 @@
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="105"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
       <c r="G47" s="77"/>
       <c r="H47" s="12"/>
       <c r="I47" s="67"/>
@@ -7947,9 +7975,9 @@
       <c r="C48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="105"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
       <c r="G48" s="77"/>
       <c r="H48" s="12"/>
       <c r="I48" s="32"/>
@@ -7964,9 +7992,9 @@
       <c r="C49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="105"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
       <c r="G49" s="77"/>
       <c r="H49" s="12"/>
       <c r="I49" s="67"/>
@@ -7981,9 +8009,9 @@
       <c r="C50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="70"/>
       <c r="H50" s="12"/>
       <c r="I50" s="67"/>
@@ -7998,9 +8026,9 @@
       <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="70"/>
       <c r="H51" s="12"/>
       <c r="I51" s="67"/>
@@ -8015,9 +8043,9 @@
       <c r="C52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
       <c r="G52" s="70"/>
       <c r="H52" s="12"/>
       <c r="I52" s="32"/>
@@ -8032,9 +8060,9 @@
       <c r="C53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
       <c r="G53" s="70"/>
       <c r="H53" s="12"/>
       <c r="I53" s="67"/>
@@ -8051,13 +8079,13 @@
       <c r="C54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="E54" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="99" t="s">
+      <c r="D54" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="102" t="s">
         <v>183</v>
       </c>
       <c r="G54" s="77"/>
@@ -8074,9 +8102,9 @@
       <c r="C55" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="105"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="100"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="103"/>
       <c r="G55" s="77"/>
       <c r="H55" s="12"/>
       <c r="I55" s="67"/>
@@ -8091,9 +8119,9 @@
       <c r="C56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="100"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="103"/>
       <c r="G56" s="77"/>
       <c r="H56" s="12"/>
       <c r="I56" s="67"/>
@@ -8108,9 +8136,9 @@
       <c r="C57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="105"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="100"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="103"/>
       <c r="G57" s="77"/>
       <c r="H57" s="12"/>
       <c r="I57" s="67"/>
@@ -8125,9 +8153,9 @@
       <c r="C58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="100"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="103"/>
       <c r="G58" s="77"/>
       <c r="H58" s="12"/>
       <c r="I58" s="67"/>
@@ -8142,9 +8170,9 @@
       <c r="C59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="105"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="101"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="104"/>
       <c r="G59" s="77"/>
       <c r="H59" s="12"/>
       <c r="I59" s="67"/>
@@ -8159,8 +8187,8 @@
       <c r="C60" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="105"/>
-      <c r="E60" s="95"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="96"/>
       <c r="F60" s="34" t="s">
         <v>184</v>
       </c>
@@ -8178,8 +8206,8 @@
       <c r="C61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="95"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="96"/>
       <c r="F61" s="34" t="s">
         <v>187</v>
       </c>
@@ -8197,8 +8225,8 @@
       <c r="C62" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="95"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="96"/>
       <c r="F62" s="34" t="s">
         <v>186</v>
       </c>
@@ -8216,9 +8244,9 @@
       <c r="C63" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="105"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="94" t="s">
+      <c r="D63" s="98"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="102" t="s">
         <v>187</v>
       </c>
       <c r="G63" s="70"/>
@@ -8235,9 +8263,9 @@
       <c r="C64" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="105"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="96"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="104"/>
       <c r="G64" s="70"/>
       <c r="H64" s="12"/>
       <c r="I64" s="32"/>
@@ -8252,8 +8280,8 @@
       <c r="C65" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="106"/>
-      <c r="E65" s="96"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="34" t="s">
         <v>185</v>
       </c>
@@ -8273,13 +8301,13 @@
       <c r="C66" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="E66" s="91" t="s">
+      <c r="D66" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="F66" s="94" t="s">
+      <c r="F66" s="95" t="s">
         <v>168</v>
       </c>
       <c r="G66" s="70"/>
@@ -8296,9 +8324,9 @@
       <c r="C67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="105"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="95"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="96"/>
       <c r="G67" s="70"/>
       <c r="H67" s="12"/>
       <c r="I67" s="32"/>
@@ -8313,9 +8341,9 @@
       <c r="C68" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="105"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="95"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="96"/>
       <c r="G68" s="70"/>
       <c r="H68" s="12"/>
       <c r="I68" s="69"/>
@@ -8330,9 +8358,9 @@
       <c r="C69" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="105"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="95"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="96"/>
       <c r="G69" s="70"/>
       <c r="H69" s="12"/>
       <c r="I69" s="32"/>
@@ -8347,9 +8375,9 @@
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="105"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="95"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="96"/>
       <c r="G70" s="70"/>
       <c r="H70" s="12"/>
       <c r="I70" s="32"/>
@@ -8364,9 +8392,9 @@
       <c r="C71" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="95"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="96"/>
       <c r="G71" s="70"/>
       <c r="H71" s="12"/>
       <c r="I71" s="32"/>
@@ -8381,9 +8409,9 @@
       <c r="C72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="105"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="95"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="96"/>
       <c r="G72" s="70"/>
       <c r="H72" s="12"/>
       <c r="I72" s="32"/>
@@ -8398,9 +8426,9 @@
       <c r="C73" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="105"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="95"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="96"/>
       <c r="G73" s="70"/>
       <c r="H73" s="12"/>
       <c r="I73" s="69"/>
@@ -8415,9 +8443,9 @@
       <c r="C74" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="105"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="95"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="96"/>
       <c r="G74" s="70"/>
       <c r="H74" s="12"/>
       <c r="I74" s="32"/>
@@ -8432,9 +8460,9 @@
       <c r="C75" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="105"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="95"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="96"/>
       <c r="G75" s="70"/>
       <c r="H75" s="12"/>
       <c r="I75" s="69"/>
@@ -8449,9 +8477,9 @@
       <c r="C76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="105"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="95"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="96"/>
       <c r="G76" s="70"/>
       <c r="H76" s="12"/>
       <c r="I76" s="32"/>
@@ -8466,9 +8494,9 @@
       <c r="C77" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="106"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="96"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="97"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="32"/>
@@ -8485,11 +8513,11 @@
       <c r="C78" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="107" t="s">
+      <c r="D78" s="87" t="s">
         <v>166</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F78" s="34" t="s">
         <v>171</v>
@@ -8508,16 +8536,16 @@
         <v>55</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D79" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="E79" s="91" t="s">
-        <v>228</v>
+        <v>194</v>
+      </c>
+      <c r="D79" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="92" t="s">
+        <v>225</v>
       </c>
       <c r="F79" s="34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -8533,10 +8561,10 @@
       <c r="C80" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
       <c r="F80" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -8552,10 +8580,10 @@
       <c r="C81" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
       <c r="F81" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -8571,10 +8599,10 @@
       <c r="C82" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
       <c r="F82" s="34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -8590,10 +8618,10 @@
       <c r="C83" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
       <c r="F83" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -8609,10 +8637,10 @@
       <c r="C84" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
       <c r="F84" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -8628,10 +8656,10 @@
       <c r="C85" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
       <c r="F85" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -8647,10 +8675,10 @@
       <c r="C86" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
       <c r="F86" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -8666,10 +8694,10 @@
       <c r="C87" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -8685,10 +8713,10 @@
       <c r="C88" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
       <c r="F88" s="34" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -8704,10 +8732,10 @@
       <c r="C89" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="92"/>
-      <c r="E89" s="92"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
       <c r="F89" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -8723,10 +8751,10 @@
       <c r="C90" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
       <c r="F90" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -8742,10 +8770,10 @@
       <c r="C91" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
       <c r="F91" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -8761,10 +8789,10 @@
       <c r="C92" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
       <c r="F92" s="33" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -8780,10 +8808,10 @@
       <c r="C93" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
       <c r="F93" s="33" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -8799,10 +8827,10 @@
       <c r="C94" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
       <c r="F94" s="33" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -8889,18 +8917,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F42:F53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="F63:F64"/>
@@ -8909,6 +8925,18 @@
     <mergeCell ref="D8:D19"/>
     <mergeCell ref="F8:F19"/>
     <mergeCell ref="E20:E31"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57B952A-A628-4C86-94B4-E50099DAE039}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93F5A6BF-D930-43C1-8EA4-B29DEF34B02D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="231">
   <si>
     <t>作成者</t>
   </si>
@@ -2553,34 +2553,6 @@
   </si>
   <si>
     <t>テキストボックスの初期値は空欄のため、漢字やひらがなを10文字以内で入力する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面の画面下にある「戻って修正する」ボタンを押す</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4736,35 +4708,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7080,7 +7052,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+      <selection activeCell="E54" sqref="E54:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -7103,7 +7075,7 @@
         <v>150</v>
       </c>
       <c r="B1" s="89"/>
-      <c r="C1" s="100"/>
+      <c r="C1" s="98"/>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
@@ -7126,7 +7098,7 @@
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="90"/>
       <c r="B2" s="91"/>
-      <c r="C2" s="101"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
@@ -7227,7 +7199,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="84" t="s">
         <v>161</v>
@@ -7250,7 +7222,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>162</v>
@@ -7275,13 +7247,13 @@
         <v>16</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>164</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="26" customFormat="1" ht="30">
@@ -7432,19 +7404,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" s="105" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>205</v>
       </c>
       <c r="F20" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20" s="62"/>
       <c r="H20" s="12"/>
@@ -7461,7 +7433,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="93"/>
-      <c r="E21" s="106"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="93"/>
       <c r="G21" s="62"/>
       <c r="H21" s="12"/>
@@ -7478,7 +7450,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="93"/>
-      <c r="E22" s="106"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="93"/>
       <c r="G22" s="62"/>
       <c r="H22" s="12"/>
@@ -7495,7 +7467,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="93"/>
-      <c r="E23" s="106"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="93"/>
       <c r="G23" s="62"/>
       <c r="H23" s="12"/>
@@ -7512,7 +7484,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="93"/>
-      <c r="E24" s="106"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="94"/>
       <c r="G24" s="70"/>
       <c r="H24" s="12"/>
@@ -7529,9 +7501,9 @@
         <v>21</v>
       </c>
       <c r="D25" s="93"/>
-      <c r="E25" s="106"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="12"/>
@@ -7548,9 +7520,9 @@
         <v>22</v>
       </c>
       <c r="D26" s="93"/>
-      <c r="E26" s="106"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G26" s="62"/>
       <c r="H26" s="12"/>
@@ -7567,7 +7539,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="93"/>
-      <c r="E27" s="106"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="93"/>
       <c r="G27" s="70"/>
       <c r="H27" s="12"/>
@@ -7584,7 +7556,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="93"/>
-      <c r="E28" s="106"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="93"/>
       <c r="G28" s="62"/>
       <c r="H28" s="12"/>
@@ -7601,7 +7573,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="93"/>
-      <c r="E29" s="106"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="93"/>
       <c r="G29" s="78"/>
       <c r="H29" s="12"/>
@@ -7618,7 +7590,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="93"/>
-      <c r="E30" s="106"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="93"/>
       <c r="G30" s="77"/>
       <c r="H30" s="12"/>
@@ -7635,7 +7607,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="94"/>
-      <c r="E31" s="107"/>
+      <c r="E31" s="105"/>
       <c r="F31" s="94"/>
       <c r="G31" s="78"/>
       <c r="H31" s="12"/>
@@ -7654,13 +7626,13 @@
         <v>16</v>
       </c>
       <c r="D32" s="92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G32" s="78"/>
       <c r="H32" s="12"/>
@@ -7678,10 +7650,10 @@
       </c>
       <c r="D33" s="93"/>
       <c r="E33" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="77"/>
       <c r="H33" s="12"/>
@@ -7699,10 +7671,10 @@
       </c>
       <c r="D34" s="93"/>
       <c r="E34" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G34" s="78"/>
       <c r="H34" s="12"/>
@@ -7720,10 +7692,10 @@
       </c>
       <c r="D35" s="93"/>
       <c r="E35" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G35" s="78"/>
       <c r="H35" s="12"/>
@@ -7741,10 +7713,10 @@
       </c>
       <c r="D36" s="93"/>
       <c r="E36" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="77"/>
       <c r="H36" s="12"/>
@@ -7762,10 +7734,10 @@
       </c>
       <c r="D37" s="93"/>
       <c r="E37" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G37" s="77"/>
       <c r="H37" s="12"/>
@@ -7783,10 +7755,10 @@
       </c>
       <c r="D38" s="93"/>
       <c r="E38" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G38" s="77"/>
       <c r="H38" s="12"/>
@@ -7804,10 +7776,10 @@
       </c>
       <c r="D39" s="93"/>
       <c r="E39" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" s="77"/>
       <c r="H39" s="12"/>
@@ -7825,10 +7797,10 @@
       </c>
       <c r="D40" s="93"/>
       <c r="E40" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G40" s="77"/>
       <c r="H40" s="12"/>
@@ -7846,10 +7818,10 @@
       </c>
       <c r="D41" s="94"/>
       <c r="E41" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G41" s="77"/>
       <c r="H41" s="12"/>
@@ -7868,13 +7840,13 @@
         <v>16</v>
       </c>
       <c r="D42" s="92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E42" s="95" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="F42" s="95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G42" s="77"/>
       <c r="H42" s="12"/>
@@ -7890,7 +7862,7 @@
       <c r="C43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="98"/>
+      <c r="D43" s="106"/>
       <c r="E43" s="96"/>
       <c r="F43" s="96"/>
       <c r="G43" s="77"/>
@@ -7907,7 +7879,7 @@
       <c r="C44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="98"/>
+      <c r="D44" s="106"/>
       <c r="E44" s="96"/>
       <c r="F44" s="96"/>
       <c r="G44" s="77"/>
@@ -7924,7 +7896,7 @@
       <c r="C45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="98"/>
+      <c r="D45" s="106"/>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
       <c r="G45" s="77"/>
@@ -7941,7 +7913,7 @@
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="98"/>
+      <c r="D46" s="106"/>
       <c r="E46" s="96"/>
       <c r="F46" s="96"/>
       <c r="G46" s="77"/>
@@ -7958,7 +7930,7 @@
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="98"/>
+      <c r="D47" s="106"/>
       <c r="E47" s="96"/>
       <c r="F47" s="96"/>
       <c r="G47" s="77"/>
@@ -7975,7 +7947,7 @@
       <c r="C48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="98"/>
+      <c r="D48" s="106"/>
       <c r="E48" s="96"/>
       <c r="F48" s="96"/>
       <c r="G48" s="77"/>
@@ -7992,7 +7964,7 @@
       <c r="C49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="98"/>
+      <c r="D49" s="106"/>
       <c r="E49" s="96"/>
       <c r="F49" s="96"/>
       <c r="G49" s="77"/>
@@ -8009,7 +7981,7 @@
       <c r="C50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="98"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="96"/>
       <c r="F50" s="96"/>
       <c r="G50" s="70"/>
@@ -8026,7 +7998,7 @@
       <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="98"/>
+      <c r="D51" s="106"/>
       <c r="E51" s="96"/>
       <c r="F51" s="96"/>
       <c r="G51" s="70"/>
@@ -8043,7 +8015,7 @@
       <c r="C52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="98"/>
+      <c r="D52" s="106"/>
       <c r="E52" s="96"/>
       <c r="F52" s="96"/>
       <c r="G52" s="70"/>
@@ -8060,7 +8032,7 @@
       <c r="C53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="99"/>
+      <c r="D53" s="107"/>
       <c r="E53" s="97"/>
       <c r="F53" s="97"/>
       <c r="G53" s="70"/>
@@ -8080,13 +8052,13 @@
         <v>16</v>
       </c>
       <c r="D54" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="F54" s="102" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="F54" s="100" t="s">
+        <v>182</v>
       </c>
       <c r="G54" s="77"/>
       <c r="H54" s="12"/>
@@ -8102,9 +8074,9 @@
       <c r="C55" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="98"/>
+      <c r="D55" s="106"/>
       <c r="E55" s="96"/>
-      <c r="F55" s="103"/>
+      <c r="F55" s="101"/>
       <c r="G55" s="77"/>
       <c r="H55" s="12"/>
       <c r="I55" s="67"/>
@@ -8119,9 +8091,9 @@
       <c r="C56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="98"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="96"/>
-      <c r="F56" s="103"/>
+      <c r="F56" s="101"/>
       <c r="G56" s="77"/>
       <c r="H56" s="12"/>
       <c r="I56" s="67"/>
@@ -8136,9 +8108,9 @@
       <c r="C57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="98"/>
+      <c r="D57" s="106"/>
       <c r="E57" s="96"/>
-      <c r="F57" s="103"/>
+      <c r="F57" s="101"/>
       <c r="G57" s="77"/>
       <c r="H57" s="12"/>
       <c r="I57" s="67"/>
@@ -8153,9 +8125,9 @@
       <c r="C58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="98"/>
+      <c r="D58" s="106"/>
       <c r="E58" s="96"/>
-      <c r="F58" s="103"/>
+      <c r="F58" s="101"/>
       <c r="G58" s="77"/>
       <c r="H58" s="12"/>
       <c r="I58" s="67"/>
@@ -8170,9 +8142,9 @@
       <c r="C59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="98"/>
+      <c r="D59" s="106"/>
       <c r="E59" s="96"/>
-      <c r="F59" s="104"/>
+      <c r="F59" s="102"/>
       <c r="G59" s="77"/>
       <c r="H59" s="12"/>
       <c r="I59" s="67"/>
@@ -8187,10 +8159,10 @@
       <c r="C60" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="98"/>
+      <c r="D60" s="106"/>
       <c r="E60" s="96"/>
       <c r="F60" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G60" s="77"/>
       <c r="H60" s="12"/>
@@ -8206,10 +8178,10 @@
       <c r="C61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="98"/>
+      <c r="D61" s="106"/>
       <c r="E61" s="96"/>
       <c r="F61" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G61" s="77"/>
       <c r="H61" s="12"/>
@@ -8225,10 +8197,10 @@
       <c r="C62" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="98"/>
+      <c r="D62" s="106"/>
       <c r="E62" s="96"/>
       <c r="F62" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G62" s="70"/>
       <c r="H62" s="12"/>
@@ -8244,10 +8216,10 @@
       <c r="C63" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="98"/>
+      <c r="D63" s="106"/>
       <c r="E63" s="96"/>
-      <c r="F63" s="102" t="s">
-        <v>187</v>
+      <c r="F63" s="100" t="s">
+        <v>186</v>
       </c>
       <c r="G63" s="70"/>
       <c r="H63" s="12"/>
@@ -8263,9 +8235,9 @@
       <c r="C64" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="98"/>
+      <c r="D64" s="106"/>
       <c r="E64" s="96"/>
-      <c r="F64" s="104"/>
+      <c r="F64" s="102"/>
       <c r="G64" s="70"/>
       <c r="H64" s="12"/>
       <c r="I64" s="32"/>
@@ -8280,10 +8252,10 @@
       <c r="C65" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="99"/>
+      <c r="D65" s="107"/>
       <c r="E65" s="97"/>
       <c r="F65" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G65" s="70"/>
       <c r="H65" s="12"/>
@@ -8302,13 +8274,13 @@
         <v>16</v>
       </c>
       <c r="D66" s="92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E66" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="95" t="s">
         <v>167</v>
-      </c>
-      <c r="F66" s="95" t="s">
-        <v>168</v>
       </c>
       <c r="G66" s="70"/>
       <c r="H66" s="12"/>
@@ -8324,7 +8296,7 @@
       <c r="C67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="98"/>
+      <c r="D67" s="106"/>
       <c r="E67" s="93"/>
       <c r="F67" s="96"/>
       <c r="G67" s="70"/>
@@ -8341,7 +8313,7 @@
       <c r="C68" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="98"/>
+      <c r="D68" s="106"/>
       <c r="E68" s="93"/>
       <c r="F68" s="96"/>
       <c r="G68" s="70"/>
@@ -8358,7 +8330,7 @@
       <c r="C69" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="98"/>
+      <c r="D69" s="106"/>
       <c r="E69" s="93"/>
       <c r="F69" s="96"/>
       <c r="G69" s="70"/>
@@ -8375,7 +8347,7 @@
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="98"/>
+      <c r="D70" s="106"/>
       <c r="E70" s="93"/>
       <c r="F70" s="96"/>
       <c r="G70" s="70"/>
@@ -8392,7 +8364,7 @@
       <c r="C71" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="98"/>
+      <c r="D71" s="106"/>
       <c r="E71" s="93"/>
       <c r="F71" s="96"/>
       <c r="G71" s="70"/>
@@ -8409,7 +8381,7 @@
       <c r="C72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="98"/>
+      <c r="D72" s="106"/>
       <c r="E72" s="93"/>
       <c r="F72" s="96"/>
       <c r="G72" s="70"/>
@@ -8426,7 +8398,7 @@
       <c r="C73" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="98"/>
+      <c r="D73" s="106"/>
       <c r="E73" s="93"/>
       <c r="F73" s="96"/>
       <c r="G73" s="70"/>
@@ -8443,7 +8415,7 @@
       <c r="C74" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="98"/>
+      <c r="D74" s="106"/>
       <c r="E74" s="93"/>
       <c r="F74" s="96"/>
       <c r="G74" s="70"/>
@@ -8460,7 +8432,7 @@
       <c r="C75" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="98"/>
+      <c r="D75" s="106"/>
       <c r="E75" s="93"/>
       <c r="F75" s="96"/>
       <c r="G75" s="70"/>
@@ -8477,7 +8449,7 @@
       <c r="C76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="98"/>
+      <c r="D76" s="106"/>
       <c r="E76" s="93"/>
       <c r="F76" s="96"/>
       <c r="G76" s="70"/>
@@ -8494,7 +8466,7 @@
       <c r="C77" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="99"/>
+      <c r="D77" s="107"/>
       <c r="E77" s="94"/>
       <c r="F77" s="97"/>
       <c r="G77" s="12"/>
@@ -8514,13 +8486,13 @@
         <v>129</v>
       </c>
       <c r="D78" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -8536,16 +8508,16 @@
         <v>55</v>
       </c>
       <c r="C79" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F79" s="34" t="s">
         <v>194</v>
-      </c>
-      <c r="D79" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="E79" s="92" t="s">
-        <v>225</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>195</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -8564,7 +8536,7 @@
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
       <c r="F80" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -8583,7 +8555,7 @@
       <c r="D81" s="93"/>
       <c r="E81" s="93"/>
       <c r="F81" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -8602,7 +8574,7 @@
       <c r="D82" s="93"/>
       <c r="E82" s="93"/>
       <c r="F82" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -8621,7 +8593,7 @@
       <c r="D83" s="93"/>
       <c r="E83" s="93"/>
       <c r="F83" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -8640,7 +8612,7 @@
       <c r="D84" s="93"/>
       <c r="E84" s="93"/>
       <c r="F84" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -8659,7 +8631,7 @@
       <c r="D85" s="93"/>
       <c r="E85" s="93"/>
       <c r="F85" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -8678,7 +8650,7 @@
       <c r="D86" s="93"/>
       <c r="E86" s="93"/>
       <c r="F86" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -8697,7 +8669,7 @@
       <c r="D87" s="93"/>
       <c r="E87" s="93"/>
       <c r="F87" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -8716,7 +8688,7 @@
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
       <c r="F88" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -8735,7 +8707,7 @@
       <c r="D89" s="93"/>
       <c r="E89" s="93"/>
       <c r="F89" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -8754,7 +8726,7 @@
       <c r="D90" s="93"/>
       <c r="E90" s="93"/>
       <c r="F90" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -8773,7 +8745,7 @@
       <c r="D91" s="93"/>
       <c r="E91" s="93"/>
       <c r="F91" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -8792,7 +8764,7 @@
       <c r="D92" s="93"/>
       <c r="E92" s="93"/>
       <c r="F92" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -8811,7 +8783,7 @@
       <c r="D93" s="93"/>
       <c r="E93" s="93"/>
       <c r="F93" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -8830,7 +8802,7 @@
       <c r="D94" s="94"/>
       <c r="E94" s="94"/>
       <c r="F94" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -8849,13 +8821,13 @@
         <v>132</v>
       </c>
       <c r="D95" s="74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E95" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>170</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -8917,6 +8889,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="F63:F64"/>
@@ -8925,18 +8907,8 @@
     <mergeCell ref="D8:D19"/>
     <mergeCell ref="F8:F19"/>
     <mergeCell ref="E20:E31"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F42:F53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F66:F77"/>
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93F5A6BF-D930-43C1-8EA4-B29DEF34B02D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBC4DE0-30BC-45EC-8732-C7E5E7A5E02D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="233">
   <si>
     <t>作成者</t>
   </si>
@@ -4042,6 +4042,29 @@
   </si>
   <si>
     <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「update_time」に表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齊藤実佳</t>
+    <rPh sb="0" eb="4">
+      <t>サイトウミカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間が日本時間ではなかったため修正済み。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ニホンジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4115,7 +4138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -4365,30 +4388,6 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -4415,7 +4414,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4645,12 +4644,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4678,6 +4671,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4708,10 +4704,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4731,12 +4733,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5090,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G33"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -5111,12 +5107,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -5133,14 +5129,16 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="53" t="s">
+        <v>231</v>
+      </c>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -5452,7 +5450,7 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="91" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="70">
@@ -5482,7 +5480,7 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="93"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="62">
         <v>44354</v>
       </c>
@@ -5510,7 +5508,7 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="93"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="62">
         <v>44354</v>
       </c>
@@ -5538,7 +5536,7 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="93"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="70">
         <v>44354</v>
       </c>
@@ -5566,7 +5564,7 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="93"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="62">
         <v>44354</v>
       </c>
@@ -5594,7 +5592,7 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="62">
         <v>44354</v>
       </c>
@@ -5622,7 +5620,7 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="70">
         <v>44354</v>
       </c>
@@ -5650,7 +5648,7 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="62">
         <v>44354</v>
       </c>
@@ -5678,7 +5676,7 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="93"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="62">
         <v>44354</v>
       </c>
@@ -5706,7 +5704,7 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="93"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="70">
         <v>44354</v>
       </c>
@@ -5734,7 +5732,7 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="93"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="62">
         <v>44354</v>
       </c>
@@ -5762,7 +5760,7 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="94"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="62">
         <v>44354</v>
       </c>
@@ -6220,7 +6218,7 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="95" t="s">
+      <c r="G38" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="70">
@@ -6250,7 +6248,7 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="96"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="70">
         <v>44354</v>
       </c>
@@ -6278,7 +6276,7 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="96"/>
+      <c r="G40" s="95"/>
       <c r="H40" s="70">
         <v>44354</v>
       </c>
@@ -6306,7 +6304,7 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="96"/>
+      <c r="G41" s="95"/>
       <c r="H41" s="70">
         <v>44354</v>
       </c>
@@ -6334,7 +6332,7 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="97"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="70">
         <v>44354</v>
       </c>
@@ -6486,7 +6484,7 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="95" t="s">
+      <c r="G47" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="70">
@@ -6516,7 +6514,7 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="97"/>
+      <c r="G48" s="96"/>
       <c r="H48" s="70">
         <v>44354</v>
       </c>
@@ -7052,7 +7050,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:E65"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -7071,11 +7069,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
@@ -7092,13 +7090,15 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="53" t="s">
+        <v>6</v>
+      </c>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="99"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="B4" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="84" t="s">
         <v>152</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -7167,25 +7167,31 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="78" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="61">
+        <v>44369</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="I5" s="68"/>
-      <c r="J5" s="66"/>
+      <c r="J5" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="30">
@@ -7201,16 +7207,22 @@
       <c r="D6" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="82" t="s">
         <v>161</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I6" s="68"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="30">
@@ -7224,16 +7236,22 @@
       <c r="D7" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="82" t="s">
         <v>162</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>231</v>
+      </c>
       <c r="I7" s="68"/>
-      <c r="J7" s="65"/>
+      <c r="J7" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" s="26" customFormat="1" ht="30">
@@ -7246,14 +7264,23 @@
       <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="91" t="s">
         <v>206</v>
+      </c>
+      <c r="G8" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="26" customFormat="1" ht="30">
@@ -7263,11 +7290,20 @@
       <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="93"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A10" s="12">
@@ -7276,11 +7312,20 @@
       <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="93"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="93"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A11" s="12">
@@ -7289,11 +7334,20 @@
       <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A12" s="12">
@@ -7302,11 +7356,20 @@
       <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A13" s="12">
@@ -7315,11 +7378,20 @@
       <c r="C13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A14" s="12">
@@ -7328,11 +7400,20 @@
       <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A15" s="12">
@@ -7341,11 +7422,20 @@
       <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="93"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="16" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A16" s="12">
@@ -7354,11 +7444,20 @@
       <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="93"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="17" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A17" s="12">
@@ -7367,11 +7466,20 @@
       <c r="C17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="93"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A18" s="12">
@@ -7380,11 +7488,20 @@
       <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="93"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="19" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A19" s="12">
@@ -7393,11 +7510,20 @@
       <c r="C19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15">
       <c r="A20" s="12">
@@ -7409,19 +7535,25 @@
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I20" s="68"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="15">
@@ -7432,13 +7564,19 @@
       <c r="C21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="12"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I21" s="68"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" ht="15">
@@ -7449,13 +7587,19 @@
       <c r="C22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I22" s="68"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" ht="15">
@@ -7466,13 +7610,19 @@
       <c r="C23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="12"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I23" s="69"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" ht="15">
@@ -7483,13 +7633,19 @@
       <c r="C24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="12"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I24" s="67"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="30">
@@ -7500,15 +7656,21 @@
       <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="104"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I25" s="67"/>
-      <c r="J25" s="64"/>
+      <c r="J25" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="15">
@@ -7519,15 +7681,21 @@
       <c r="C26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="92" t="s">
+      <c r="D26" s="92"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I26" s="32"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="15">
@@ -7538,13 +7706,19 @@
       <c r="C27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="12"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I27" s="67"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" ht="15">
@@ -7555,30 +7729,42 @@
       <c r="C28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="12"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I28" s="32"/>
-      <c r="J28" s="64"/>
+      <c r="J28" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" ht="15">
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="12"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H29" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I29" s="69"/>
-      <c r="J29" s="64"/>
+      <c r="J29" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" ht="15">
@@ -7589,13 +7775,19 @@
       <c r="C30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="12"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I30" s="67"/>
-      <c r="J30" s="64"/>
+      <c r="J30" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="15">
@@ -7606,13 +7798,19 @@
       <c r="C31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="12"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I31" s="67"/>
-      <c r="J31" s="64"/>
+      <c r="J31" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" ht="105">
@@ -7625,7 +7823,7 @@
       <c r="C32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="91" t="s">
         <v>223</v>
       </c>
       <c r="E32" s="33" t="s">
@@ -7634,10 +7832,16 @@
       <c r="F32" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I32" s="67"/>
-      <c r="J32" s="64"/>
+      <c r="J32" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" ht="105">
@@ -7648,17 +7852,23 @@
       <c r="C33" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="33" t="s">
         <v>172</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I33" s="32"/>
-      <c r="J33" s="64"/>
+      <c r="J33" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="105">
@@ -7669,17 +7879,23 @@
       <c r="C34" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="93"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="33" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I34" s="69"/>
-      <c r="J34" s="64"/>
+      <c r="J34" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" ht="105">
@@ -7690,17 +7906,23 @@
       <c r="C35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="93"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="33" t="s">
         <v>173</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="78"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H35" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I35" s="32"/>
-      <c r="J35" s="64"/>
+      <c r="J35" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" ht="135">
@@ -7711,17 +7933,23 @@
       <c r="C36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="93"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="33" t="s">
         <v>174</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I36" s="67"/>
-      <c r="J36" s="64"/>
+      <c r="J36" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="90">
@@ -7732,38 +7960,50 @@
       <c r="C37" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="33" t="s">
         <v>175</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H37" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I37" s="33"/>
-      <c r="J37" s="64"/>
+      <c r="J37" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" ht="105">
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="33" t="s">
         <v>176</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I38" s="32"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" ht="45">
@@ -7774,17 +8014,23 @@
       <c r="C39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="93"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="33" t="s">
         <v>177</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="77"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I39" s="69"/>
-      <c r="J39" s="64"/>
+      <c r="J39" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" ht="120">
@@ -7795,17 +8041,23 @@
       <c r="C40" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="93"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="33" t="s">
         <v>178</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I40" s="32"/>
-      <c r="J40" s="64"/>
+      <c r="J40" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" ht="135">
@@ -7816,17 +8068,23 @@
       <c r="C41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="94"/>
+      <c r="D41" s="93"/>
       <c r="E41" s="33" t="s">
         <v>179</v>
       </c>
       <c r="F41" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="G41" s="77"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H41" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I41" s="67"/>
-      <c r="J41" s="64"/>
+      <c r="J41" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1">
@@ -7839,19 +8097,25 @@
       <c r="C42" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="95" t="s">
+      <c r="E42" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="F42" s="95" t="s">
+      <c r="F42" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I42" s="67"/>
-      <c r="J42" s="64"/>
+      <c r="J42" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" ht="15">
@@ -7862,13 +8126,19 @@
       <c r="C43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="12"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I43" s="67"/>
-      <c r="J43" s="64"/>
+      <c r="J43" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" ht="15">
@@ -7879,13 +8149,19 @@
       <c r="C44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="12"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I44" s="67"/>
-      <c r="J44" s="64"/>
+      <c r="J44" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" ht="15">
@@ -7896,13 +8172,19 @@
       <c r="C45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="12"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I45" s="67"/>
-      <c r="J45" s="64"/>
+      <c r="J45" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" ht="15">
@@ -7913,13 +8195,19 @@
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="12"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I46" s="67"/>
-      <c r="J46" s="41"/>
+      <c r="J46" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="15">
@@ -7930,13 +8218,19 @@
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="12"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I47" s="67"/>
-      <c r="J47" s="41"/>
+      <c r="J47" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" ht="15">
@@ -7947,13 +8241,19 @@
       <c r="C48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="12"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I48" s="32"/>
-      <c r="J48" s="41"/>
+      <c r="J48" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" ht="15">
@@ -7964,13 +8264,19 @@
       <c r="C49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="106"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="12"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I49" s="67"/>
-      <c r="J49" s="41"/>
+      <c r="J49" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" ht="15">
@@ -7981,13 +8287,19 @@
       <c r="C50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="12"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I50" s="67"/>
-      <c r="J50" s="41"/>
+      <c r="J50" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="15">
@@ -7998,30 +8310,42 @@
       <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="12"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I51" s="67"/>
-      <c r="J51" s="41"/>
+      <c r="J51" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" ht="29.4" customHeight="1">
       <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="81"/>
+      <c r="B52" s="79"/>
       <c r="C52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="12"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I52" s="32"/>
-      <c r="J52" s="41"/>
+      <c r="J52" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" ht="15">
@@ -8032,13 +8356,19 @@
       <c r="C53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="107"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="12"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H53" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I53" s="67"/>
-      <c r="J53" s="41"/>
+      <c r="J53" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1">
@@ -8051,19 +8381,25 @@
       <c r="C54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="95" t="s">
+      <c r="E54" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="F54" s="100" t="s">
+      <c r="F54" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="77"/>
-      <c r="H54" s="12"/>
+      <c r="G54" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I54" s="67"/>
-      <c r="J54" s="64"/>
+      <c r="J54" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" ht="15">
@@ -8074,13 +8410,19 @@
       <c r="C55" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="12"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H55" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I55" s="67"/>
-      <c r="J55" s="64"/>
+      <c r="J55" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11" ht="15">
@@ -8091,13 +8433,19 @@
       <c r="C56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="106"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="12"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I56" s="67"/>
-      <c r="J56" s="64"/>
+      <c r="J56" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11" ht="15">
@@ -8108,13 +8456,19 @@
       <c r="C57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="106"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="12"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I57" s="67"/>
-      <c r="J57" s="64"/>
+      <c r="J57" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K57" s="11"/>
     </row>
     <row r="58" spans="1:11" ht="15">
@@ -8125,13 +8479,19 @@
       <c r="C58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="106"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="12"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I58" s="67"/>
-      <c r="J58" s="41"/>
+      <c r="J58" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K58" s="11"/>
     </row>
     <row r="59" spans="1:11" ht="15">
@@ -8142,13 +8502,19 @@
       <c r="C59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="106"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="12"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I59" s="67"/>
-      <c r="J59" s="41"/>
+      <c r="J59" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K59" s="11"/>
     </row>
     <row r="60" spans="1:11" ht="45">
@@ -8159,15 +8525,21 @@
       <c r="C60" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="106"/>
-      <c r="E60" s="96"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="G60" s="77"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I60" s="32"/>
-      <c r="J60" s="41"/>
+      <c r="J60" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11" ht="45">
@@ -8178,15 +8550,21 @@
       <c r="C61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="106"/>
-      <c r="E61" s="96"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="95"/>
       <c r="F61" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="12"/>
+      <c r="G61" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I61" s="67"/>
-      <c r="J61" s="41"/>
+      <c r="J61" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:11" ht="45">
@@ -8197,15 +8575,21 @@
       <c r="C62" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="106"/>
-      <c r="E62" s="96"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="95"/>
       <c r="F62" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="G62" s="70"/>
-      <c r="H62" s="12"/>
+      <c r="G62" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I62" s="67"/>
-      <c r="J62" s="41"/>
+      <c r="J62" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11" ht="15">
@@ -8216,32 +8600,44 @@
       <c r="C63" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="106"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="100" t="s">
+      <c r="D63" s="97"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="G63" s="70"/>
-      <c r="H63" s="12"/>
+      <c r="G63" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H63" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I63" s="67"/>
-      <c r="J63" s="41"/>
+      <c r="J63" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" ht="29.4" customHeight="1">
       <c r="A64" s="12">
         <v>60</v>
       </c>
-      <c r="B64" s="80"/>
+      <c r="B64" s="78"/>
       <c r="C64" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="106"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="12"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I64" s="32"/>
-      <c r="J64" s="41"/>
+      <c r="J64" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11" ht="45">
@@ -8252,40 +8648,52 @@
       <c r="C65" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="97"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="96"/>
       <c r="F65" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="G65" s="70"/>
-      <c r="H65" s="12"/>
+      <c r="G65" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H65" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I65" s="67"/>
-      <c r="J65" s="41"/>
+      <c r="J65" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1">
       <c r="A66" s="12">
         <v>62</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="77" t="s">
         <v>159</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="92" t="s">
+      <c r="D66" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="E66" s="92" t="s">
+      <c r="E66" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="F66" s="95" t="s">
+      <c r="F66" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="70"/>
-      <c r="H66" s="12"/>
+      <c r="G66" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I66" s="67"/>
-      <c r="J66" s="41"/>
+      <c r="J66" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11" ht="15">
@@ -8296,13 +8704,19 @@
       <c r="C67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="106"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="12"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I67" s="32"/>
-      <c r="J67" s="41"/>
+      <c r="J67" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K67" s="11"/>
     </row>
     <row r="68" spans="1:11" ht="15">
@@ -8313,30 +8727,42 @@
       <c r="C68" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="106"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="12"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I68" s="69"/>
-      <c r="J68" s="41"/>
+      <c r="J68" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:11" ht="15">
       <c r="A69" s="12">
         <v>65</v>
       </c>
-      <c r="B69" s="79"/>
+      <c r="B69" s="77"/>
       <c r="C69" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="106"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="12"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I69" s="32"/>
-      <c r="J69" s="41"/>
+      <c r="J69" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K69" s="11"/>
     </row>
     <row r="70" spans="1:11" ht="15">
@@ -8347,13 +8773,19 @@
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="106"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="12"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I70" s="32"/>
-      <c r="J70" s="41"/>
+      <c r="J70" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11" ht="15">
@@ -8364,13 +8796,19 @@
       <c r="C71" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="106"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="12"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H71" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I71" s="32"/>
-      <c r="J71" s="41"/>
+      <c r="J71" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:11" ht="15">
@@ -8381,30 +8819,42 @@
       <c r="C72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="106"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="12"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I72" s="32"/>
-      <c r="J72" s="41"/>
+      <c r="J72" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:11" ht="15">
       <c r="A73" s="12">
         <v>69</v>
       </c>
-      <c r="B73" s="80"/>
+      <c r="B73" s="78"/>
       <c r="C73" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="106"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="12"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H73" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I73" s="69"/>
-      <c r="J73" s="41"/>
+      <c r="J73" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K73" s="11"/>
     </row>
     <row r="74" spans="1:11" ht="15">
@@ -8415,13 +8865,19 @@
       <c r="C74" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="106"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="12"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I74" s="32"/>
-      <c r="J74" s="41"/>
+      <c r="J74" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K74" s="11"/>
     </row>
     <row r="75" spans="1:11" ht="15">
@@ -8432,13 +8888,19 @@
       <c r="C75" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="12"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H75" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I75" s="69"/>
-      <c r="J75" s="41"/>
+      <c r="J75" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K75" s="11"/>
     </row>
     <row r="76" spans="1:11" ht="15">
@@ -8449,13 +8911,19 @@
       <c r="C76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="106"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="12"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I76" s="32"/>
-      <c r="J76" s="41"/>
+      <c r="J76" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K76" s="11"/>
     </row>
     <row r="77" spans="1:11" ht="15">
@@ -8466,13 +8934,19 @@
       <c r="C77" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="107"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H77" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I77" s="32"/>
-      <c r="J77" s="41"/>
+      <c r="J77" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K77" s="11"/>
     </row>
     <row r="78" spans="1:11" ht="45">
@@ -8485,7 +8959,7 @@
       <c r="C78" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="87" t="s">
+      <c r="D78" s="85" t="s">
         <v>165</v>
       </c>
       <c r="E78" s="33" t="s">
@@ -8494,10 +8968,16 @@
       <c r="F78" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="G78" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I78" s="32"/>
-      <c r="J78" s="41"/>
+      <c r="J78" s="41" t="s">
+        <v>149</v>
+      </c>
       <c r="K78" s="11"/>
     </row>
     <row r="79" spans="1:11" ht="45" customHeight="1">
@@ -8510,19 +8990,25 @@
       <c r="C79" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D79" s="92" t="s">
+      <c r="D79" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="E79" s="92" t="s">
+      <c r="E79" s="91" t="s">
         <v>224</v>
       </c>
       <c r="F79" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="G79" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H79" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I79" s="32"/>
-      <c r="J79" s="41"/>
+      <c r="J79" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K79" s="11"/>
     </row>
     <row r="80" spans="1:11" ht="45">
@@ -8533,15 +9019,21 @@
       <c r="C80" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="93"/>
-      <c r="E80" s="93"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
       <c r="F80" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="G80" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I80" s="32"/>
-      <c r="J80" s="41"/>
+      <c r="J80" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K80" s="11"/>
     </row>
     <row r="81" spans="1:11" ht="45">
@@ -8552,15 +9044,21 @@
       <c r="C81" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="93"/>
-      <c r="E81" s="93"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
       <c r="F81" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="G81" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H81" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I81" s="32"/>
-      <c r="J81" s="41"/>
+      <c r="J81" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K81" s="11"/>
     </row>
     <row r="82" spans="1:11" ht="45">
@@ -8571,15 +9069,21 @@
       <c r="C82" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
       <c r="F82" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="G82" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I82" s="32"/>
-      <c r="J82" s="41"/>
+      <c r="J82" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K82" s="11"/>
     </row>
     <row r="83" spans="1:11" ht="45">
@@ -8590,15 +9094,21 @@
       <c r="C83" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
       <c r="F83" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="G83" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H83" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I83" s="32"/>
-      <c r="J83" s="41"/>
+      <c r="J83" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11" ht="45">
@@ -8609,15 +9119,21 @@
       <c r="C84" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
       <c r="F84" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="G84" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I84" s="32"/>
-      <c r="J84" s="41"/>
+      <c r="J84" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K84" s="11"/>
     </row>
     <row r="85" spans="1:11" ht="45">
@@ -8628,15 +9144,21 @@
       <c r="C85" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
       <c r="F85" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="G85" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H85" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I85" s="32"/>
-      <c r="J85" s="41"/>
+      <c r="J85" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K85" s="11"/>
     </row>
     <row r="86" spans="1:11" ht="45">
@@ -8647,15 +9169,21 @@
       <c r="C86" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="G86" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I86" s="32"/>
-      <c r="J86" s="41"/>
+      <c r="J86" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K86" s="11"/>
     </row>
     <row r="87" spans="1:11" ht="45">
@@ -8666,15 +9194,21 @@
       <c r="C87" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
       <c r="F87" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="G87" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H87" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I87" s="32"/>
-      <c r="J87" s="41"/>
+      <c r="J87" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K87" s="11"/>
     </row>
     <row r="88" spans="1:11" ht="45">
@@ -8685,15 +9219,21 @@
       <c r="C88" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="93"/>
-      <c r="E88" s="93"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
       <c r="F88" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+      <c r="G88" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I88" s="32"/>
-      <c r="J88" s="41"/>
+      <c r="J88" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K88" s="11"/>
     </row>
     <row r="89" spans="1:11" ht="45">
@@ -8704,15 +9244,21 @@
       <c r="C89" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="93"/>
-      <c r="E89" s="93"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
       <c r="F89" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
+      <c r="G89" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H89" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I89" s="32"/>
-      <c r="J89" s="41"/>
+      <c r="J89" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K89" s="11"/>
     </row>
     <row r="90" spans="1:11" ht="45">
@@ -8723,15 +9269,21 @@
       <c r="C90" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="93"/>
-      <c r="E90" s="93"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
       <c r="F90" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="G90" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I90" s="32"/>
-      <c r="J90" s="41"/>
+      <c r="J90" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K90" s="11"/>
     </row>
     <row r="91" spans="1:11" ht="45">
@@ -8742,15 +9294,21 @@
       <c r="C91" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="93"/>
-      <c r="E91" s="93"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
       <c r="F91" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
+      <c r="G91" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H91" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I91" s="32"/>
-      <c r="J91" s="41"/>
+      <c r="J91" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K91" s="11"/>
     </row>
     <row r="92" spans="1:11" ht="45">
@@ -8761,15 +9319,21 @@
       <c r="C92" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="93"/>
-      <c r="E92" s="93"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="G92" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="I92" s="32"/>
-      <c r="J92" s="41"/>
+      <c r="J92" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K92" s="11"/>
     </row>
     <row r="93" spans="1:11" ht="45">
@@ -8780,15 +9344,23 @@
       <c r="C93" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
       <c r="F93" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="41"/>
+      <c r="G93" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J93" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K93" s="11"/>
     </row>
     <row r="94" spans="1:11" ht="45">
@@ -8799,15 +9371,23 @@
       <c r="C94" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
       <c r="F94" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="41"/>
+      <c r="G94" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J94" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="K94" s="11"/>
     </row>
     <row r="95" spans="1:11" ht="45">
@@ -8829,10 +9409,16 @@
       <c r="F95" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
+      <c r="G95" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H95" s="86" t="s">
+        <v>231</v>
+      </c>
       <c r="I95" s="32"/>
-      <c r="J95" s="41"/>
+      <c r="J95" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="1:11" ht="11.25" customHeight="1">
@@ -8889,6 +9475,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
     <mergeCell ref="D79:D94"/>
     <mergeCell ref="D42:D53"/>
     <mergeCell ref="E42:E53"/>
@@ -8899,16 +9495,6 @@
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{851BCE5D-0AF5-4A75-B6E5-7AE3CD1AA990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBC4DE0-30BC-45EC-8732-C7E5E7A5E02D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="単体テスト（HTML＆PHP＆CSS＆JS）" sheetId="166" r:id="rId1"/>
+    <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="168" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="233">
   <si>
     <t>作成者</t>
   </si>
@@ -1013,34 +1014,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「http://localhost/account/regist_comfirm.php」へ切り替わりインターネットのタブのところに「アカウント登録確認画面」と表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>見出し</t>
     <rPh sb="0" eb="2">
       <t>ミダ</t>
@@ -1677,7 +1650,2421 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力された内容がエラーなく表示される。</t>
+    <t>見出しで「名前（姓）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「名前（名）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容がそのまま表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「パスワード」を表示。1回改行し、その下に入力された文字数分「●」で表示させるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「カナ（姓）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「カナ（名）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「メールアドレス」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「性別」を表示。1回改行し、その下に選択された「男性」か「女性」を表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「アカウント権限」を表示。1回改行し、その下に選択された「一般」か「管理者」を表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「名前（姓）」を表示。1回改行し、その下に選択された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字数分「●」で表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタンで選択された際の、文字が表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンで選択された内容が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻って修正する</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このボタンが押された際、入力された内容を引き継いだ状態でアカウント登録画面に戻る。</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に戻り、入力された内容が引き継がれた状態で表示され、さらに編集することができるようになっている。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このボタンが押された際、入力された内容をDB登録するように次の画面（アカウント登録完了画面）へ移行する。</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面へ移行する。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブのタイトルを「アカウント登録完了画面」と表示させるようにする。</t>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録完了」と見出しとして表示させる。文字の色や文字の大きさは指定なし。</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページに戻る</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページのヘッダーの下に「アカウント登録完了」と表示される。</t>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録完了しました。」と文字のサイズは30pxでページの真ん中に表示させるようにする。</t>
+    <rPh sb="6" eb="10">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページの真ん中に「アカウント登録完了しました。」と表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページの真ん中の下部にボタン形式で「TOPページに戻る」と表示され、そのボタンを押す。</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「regist_comfirm.php」へ切り替わりインターネットのタブのところに「アカウント登録確認画面」と表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で「確認する」というボタンが押された際、エラーがない場合に「regist_complete.php」へ切り替わりインターネットのタブのところに「アカウント登録完了画面」と表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンを押されると「regist.html」が表示されるようになる。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際にエラーが発生する場合、「エラーが発生したためアカウント登録できません。」とエラーメッセージを赤字で表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したためアカウント登録できません。」と表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面（エラー動作）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面（正常動作）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1文字多く●が表示されたので、きちんと入力された文字数分だけ表示されるようにする。（完了）</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>モジスウブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先頭が「0」の際、消えてしまうので消えないように表示させる。（完了）</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べて確認が必要。</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小分類</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターネットを開いて「http://localhost/account/regist.html」を検索する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ画面に遷移されること。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ画面からアカウント登録画面へ遷移されること。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク「アカウント登録」をクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク「トップ」をクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からトップページ画面へ遷移されること。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、漢字やひらがなを10文字以内で入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面
+（エラー動作）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録完了画面へ遷移すること。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページに戻る」ボタンを押す。</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面からトップページ画面へ遷移されること。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録に失敗した場合に「エラーが発生したためアカウント登録できません。」とエラーメッセージが表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字とひらがな以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字とひらがな以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか全角カタカナ以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="32" eb="34">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、空欄のままにするか半角英数字や半角記号（ハイフンやアットマーク）以外で入力、もしくは100文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="19" eb="21">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="28" eb="33">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ハンカクキゴウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角英数字以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="37">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか半角数字以外で入力、もしくは7文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンの初期値は未選択の状態で空欄だがそのままにし、画面下の「確認する」を押す。</t>
+    <rPh sb="6" eb="9">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字以外で入力、もしくは10文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスの初期値は空欄のため、そのまま空欄のままにするか漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン・全角半角スペース以外で入力、もしくは100文字より多く文字を入力し、画面下の「確認する」を押す。</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「パスワードが未入力です。」、半角英数字以外で入力された場合は「パスワードは半角英数字で入力してください。」、10文字より多く文字が入力された場合は、「パスワードは10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示される。</t>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未選択の場合は「住所（都道府県）が未選択です。」というエラーメッセージがテキストボックスの下に表示される。</t>
+    <rPh sb="0" eb="3">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にテキストボックスに入力された文字が維持されたまま表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にラジオボタンで選択した内容が維持され、表示される。</t>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にプルダウンで選択した内容が維持され、表示される。</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にプルダウンで選択した内容が維持され、表示される。</t>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に遷移した際にテキストボックスに入力された文字が維持されたまま表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページから
+アカウント登録画面</t>
+    <rPh sb="14" eb="18">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から
+トップページ</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面から
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面では、パスワードの桁数分「●」で表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面では、アカウント登録画面で入力された内容が表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面では、アカウント登録画面で入力された内容が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録の際に、自動的に番号を取得しPHP MyAdminのlesson01のacountというテーブルの中のカラム名「id」で表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「family_name」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「名前（姓）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（姓）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「名前（名）が未入力です。」、漢字・ひらがな以外で文字が入力された場合は「名前（名）は漢字かひらがなで入力してください。」、10文字より多く文字が入力された場合は「名前（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「カナ（姓）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（姓）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（姓）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「カナ（名）が未入力です。」、全角カタカナ以外で文字が入力された場合は「カナ（名）は全角カタカナで入力してください。」、10文字より多く文字が入力された場合は「カナ（名）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番下にあるボタンの確認するを押すと、次の画面には進まず空欄の場合は「メールアドレスが未入力です。」、半角英数字や半角記号（ハイフンやアットマーク）以外で入力された場合は「正しいメールアドレスを入力してください。」、100文字より多く文字が入力された場合は「メールアドレスは100字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="43" eb="46">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「郵便番号が未入力です。」、半角数字以外で入力された場合は「郵便番号は半角数字のみ入力してください。」、7文字より多く文字が入力された場合は「郵便番号は7文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="11">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「住所（市区町村）が未入力です。」、漢字・ひらがな・カタカナ・半角数字以外で入力された場合は「住所（市区町村）は漢字・ひらがな・カタカナ・半角数字で入力してください。」、10文字より多く文字が入力された場合は「住所（市区町村）は10文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄の場合は「住所（番地）が未入力です。」、漢字・ひらがな・カタカナ・半角数字・全角半角ハイフン以外で入力された場合は「住所（番地）は漢字・ひらがな・カタカナ・半角数字・ハイフンで入力してください。」、100文字より多く文字が入力された場合は「住所（番地）は100文字以内で入力してください。」というエラーメッセージがテキストボックスの下に表示され、入力された文字はそのままテキストボックスの中に表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面下の「確認する」を押す。</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からアカウント登録確認画面に遷移されること。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から
+アカウント登録確認画面
+（正常動作：データ受信の確認）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から
+アカウント登録確認画面
+（データ送信の確認）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から
+アカウント登録画面
+（データ受信の確認）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面へ遷移される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から
+アカウント登録画面
+（データ送信の確認）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「last_name」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「family_name_kana」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「last_name_kana」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「mail」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「password」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「gender」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「postal_code」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「prefecture」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「address_1」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「address_2」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「authority」に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面
+（エラー動作：画面遷移なし）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から
+アカウント登録完了画面
+（データ送信の確認）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面から
+PHP MyAdmin
+（データ受信の確認）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の画面下にある「戻って修正する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に削除フラグで無効の意味を示す「0」がPHP MyAdminのlesson01のacountというテーブルの中のカラム名「delete_flag」に表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「registered_time」に表示される。</t>
+    <rPh sb="9" eb="12">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「update_time」に表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齊藤実佳</t>
+    <rPh sb="0" eb="4">
+      <t>サイトウミカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間が日本時間ではなかったため修正済み。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ニホンジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1751,7 +4138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1947,19 +4334,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -1977,13 +4351,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1992,9 +4423,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2078,9 +4506,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2093,9 +4518,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2114,89 +4536,203 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2550,40 +5086,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="59" customWidth="1"/>
-    <col min="3" max="3" width="17" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="43" customWidth="1"/>
-    <col min="8" max="10" width="10.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="7" style="5"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="17" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="40" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="52" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="62" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2592,64 +5129,66 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="62" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="64" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>44298</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="L3" s="15"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="45" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2658,1351 +5197,4304 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="61">
+        <v>44354</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="K5" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="45">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="13">
+      <c r="H6" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="68"/>
+      <c r="K6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="75">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="74.400000000000006">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="60">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" ht="75">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="68"/>
+      <c r="K10" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="30">
+      <c r="A11" s="12"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="45">
+      <c r="A12" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="30">
+      <c r="A13" s="12">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="92"/>
+      <c r="H13" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="92"/>
+      <c r="H14" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="30">
+      <c r="A15" s="12">
+        <v>10</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="92"/>
+      <c r="H15" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="45">
+      <c r="A16" s="12">
+        <v>11</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="92"/>
+      <c r="H16" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="12">
+        <v>12</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="45">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="92"/>
+      <c r="H18" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="30">
+      <c r="A19" s="12">
+        <v>14</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="92"/>
+      <c r="H19" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="45">
+      <c r="A20" s="12">
+        <v>15</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="92"/>
+      <c r="H20" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="45">
+      <c r="A21" s="12">
+        <v>16</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="92"/>
+      <c r="H21" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="45">
+      <c r="A22" s="12">
+        <v>17</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="92"/>
+      <c r="H22" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="69"/>
+      <c r="K22" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="45">
+      <c r="A23" s="12">
+        <v>18</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="93"/>
+      <c r="H23" s="62">
+        <v>44354</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="105">
+      <c r="A24" s="12">
+        <v>19</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="67"/>
+      <c r="K24" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="105">
+      <c r="A25" s="12">
+        <v>20</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="67"/>
+      <c r="K25" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="105">
+      <c r="A26" s="12">
+        <v>21</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="105">
+      <c r="A27" s="12">
+        <v>22</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="120">
+      <c r="A28" s="12">
+        <v>23</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="90">
+      <c r="A29" s="12">
+        <v>24</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="69"/>
+      <c r="K29" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="90">
+      <c r="A30" s="12">
+        <v>25</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="K30" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="45">
+      <c r="A31" s="12">
+        <v>26</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="69"/>
+      <c r="K31" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="120">
+      <c r="A32" s="12">
+        <v>27</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="120">
+      <c r="A33" s="12">
+        <v>28</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="30">
+      <c r="A34" s="12">
+        <v>29</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="60">
+      <c r="A35" s="12">
+        <v>30</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="45">
+      <c r="A36" s="12">
+        <v>31</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="75">
+      <c r="A37" s="12">
+        <v>32</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="67"/>
+      <c r="K37" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="45">
+      <c r="A38" s="12">
+        <v>33</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="67"/>
+      <c r="K38" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="45">
+      <c r="A39" s="12">
+        <v>34</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="95"/>
+      <c r="H39" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="67"/>
+      <c r="K39" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="45">
+      <c r="A40" s="12">
+        <v>35</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="95"/>
+      <c r="H40" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="45">
+      <c r="A41" s="12">
+        <v>36</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="95"/>
+      <c r="H41" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="67"/>
+      <c r="K41" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="45">
+      <c r="A42" s="12">
+        <v>37</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="96"/>
+      <c r="H42" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="67"/>
+      <c r="K42" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="45">
+      <c r="A43" s="12">
+        <v>38</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="45">
+      <c r="A44" s="12">
+        <v>39</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="32"/>
+      <c r="K44" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="45">
+      <c r="A45" s="12">
+        <v>40</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="45">
+      <c r="A46" s="12">
+        <v>41</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="67"/>
+      <c r="K46" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="45">
+      <c r="A47" s="12">
+        <v>42</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="32"/>
+      <c r="K47" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="45">
+      <c r="A48" s="12">
+        <v>43</v>
+      </c>
+      <c r="B48" s="50"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="96"/>
+      <c r="H48" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="69"/>
+      <c r="K48" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="45">
+      <c r="A49" s="12">
+        <v>44</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="32"/>
+      <c r="K49" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="45">
+      <c r="A50" s="12">
+        <v>45</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" ht="45">
+      <c r="A51" s="12">
+        <v>46</v>
+      </c>
+      <c r="B51" s="50"/>
+      <c r="C51" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="32"/>
+      <c r="K51" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="60">
+      <c r="A52" s="12">
+        <v>47</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H52" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="32"/>
+      <c r="K52" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="30">
+      <c r="A53" s="12">
+        <v>48</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="69"/>
+      <c r="K53" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" ht="45">
+      <c r="A54" s="12">
+        <v>49</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="K54" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="45">
+      <c r="A55" s="12">
+        <v>50</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="70">
+        <v>44354</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="69"/>
+      <c r="K55" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="60">
+      <c r="A56" s="12">
+        <v>51</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" s="70">
+        <v>44355</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A57" s="12"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A58" s="20"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A60" s="12"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A61" s="12"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A62" s="21"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A64" s="12"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A65" s="12"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A66" s="12"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A67" s="12"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A68" s="12"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A69" s="12"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A70" s="12"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A72" s="12"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A73" s="12"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A74" s="12"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
+  <dimension ref="A1:L99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="40" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="7" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A1" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="31" t="s">
+      <c r="E1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="59"/>
+      <c r="G1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44355</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="46"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="61">
+        <v>44369</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="92"/>
+      <c r="E9" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="92"/>
+      <c r="G9" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="92"/>
+      <c r="G11" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="92"/>
+      <c r="E12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="92"/>
+      <c r="E14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="92"/>
+      <c r="G15" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="92"/>
+      <c r="E16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="92"/>
+      <c r="G16" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="92"/>
+      <c r="E17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="A19" s="12">
+        <v>15</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="93"/>
+      <c r="E19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="93"/>
+      <c r="G19" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="12">
+        <v>17</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="92"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="68"/>
+      <c r="J21" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="68"/>
+      <c r="J22" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="12">
+        <v>19</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="92"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I23" s="69"/>
+      <c r="J23" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="92"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="30">
+      <c r="A25" s="12">
+        <v>21</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25" s="67"/>
+      <c r="J25" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="15">
+      <c r="A26" s="12">
+        <v>22</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="92"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="15">
+      <c r="A27" s="12">
+        <v>23</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="92"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" s="67"/>
+      <c r="J27" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" ht="15">
+      <c r="A28" s="12">
+        <v>24</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="92"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="A29" s="12">
+        <v>25</v>
+      </c>
+      <c r="B29" s="78"/>
+      <c r="C29" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="92"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H29" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="69"/>
+      <c r="J29" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="15">
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="67"/>
+      <c r="J30" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="12">
+        <v>27</v>
+      </c>
+      <c r="B31" s="74"/>
+      <c r="C31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="93"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="67"/>
+      <c r="J31" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="105">
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="67"/>
+      <c r="J32" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" ht="105">
+      <c r="A33" s="12">
+        <v>29</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" ht="105">
+      <c r="A34" s="12">
+        <v>30</v>
+      </c>
+      <c r="B34" s="74"/>
+      <c r="C34" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34" s="69"/>
+      <c r="J34" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" ht="105">
+      <c r="A35" s="12">
+        <v>31</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H35" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" ht="135">
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
+      <c r="B36" s="74"/>
+      <c r="C36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="92"/>
+      <c r="E36" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" s="67"/>
+      <c r="J36" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" ht="90">
+      <c r="A37" s="12">
+        <v>33</v>
+      </c>
+      <c r="B37" s="74"/>
+      <c r="C37" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="92"/>
+      <c r="E37" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H37" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" ht="105">
+      <c r="A38" s="12">
+        <v>34</v>
+      </c>
+      <c r="B38" s="78"/>
+      <c r="C38" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="92"/>
+      <c r="E38" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" ht="45">
+      <c r="A39" s="12">
+        <v>35</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="92"/>
+      <c r="E39" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I39" s="69"/>
+      <c r="J39" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" ht="120">
+      <c r="A40" s="12">
+        <v>36</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" ht="135">
+      <c r="A41" s="12">
+        <v>37</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H41" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41" s="67"/>
+      <c r="J41" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" customHeight="1">
+      <c r="A42" s="12">
+        <v>38</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" s="67"/>
+      <c r="J42" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" ht="15">
+      <c r="A43" s="12">
+        <v>39</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="97"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" s="67"/>
+      <c r="J43" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" ht="15">
+      <c r="A44" s="12">
+        <v>40</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="97"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I44" s="67"/>
+      <c r="J44" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" ht="15">
+      <c r="A45" s="12">
+        <v>41</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="97"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I45" s="67"/>
+      <c r="J45" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" ht="15">
+      <c r="A46" s="12">
+        <v>42</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="97"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" s="67"/>
+      <c r="J46" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" ht="15">
+      <c r="A47" s="12">
+        <v>43</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="97"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" s="67"/>
+      <c r="J47" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" ht="15">
+      <c r="A48" s="12">
+        <v>44</v>
+      </c>
+      <c r="B48" s="50"/>
+      <c r="C48" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="97"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" s="32"/>
+      <c r="J48" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" ht="15">
+      <c r="A49" s="12">
+        <v>45</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="97"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49" s="67"/>
+      <c r="J49" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" ht="15">
+      <c r="A50" s="12">
+        <v>46</v>
+      </c>
+      <c r="B50" s="50"/>
+      <c r="C50" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="97"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I50" s="67"/>
+      <c r="J50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" ht="15">
+      <c r="A51" s="12">
+        <v>47</v>
+      </c>
+      <c r="B51" s="50"/>
+      <c r="C51" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="97"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I51" s="67"/>
+      <c r="J51" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" ht="29.4" customHeight="1">
+      <c r="A52" s="12">
+        <v>48</v>
+      </c>
+      <c r="B52" s="79"/>
+      <c r="C52" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="97"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I52" s="32"/>
+      <c r="J52" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" ht="15">
+      <c r="A53" s="12">
+        <v>49</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="98"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H53" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I53" s="67"/>
+      <c r="J53" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" ht="30" customHeight="1">
+      <c r="A54" s="12">
+        <v>50</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I54" s="67"/>
+      <c r="J54" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" ht="15">
+      <c r="A55" s="12">
+        <v>51</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="97"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H55" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I55" s="67"/>
+      <c r="J55" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" ht="15">
+      <c r="A56" s="12">
+        <v>52</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="97"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I56" s="67"/>
+      <c r="J56" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" ht="15">
+      <c r="A57" s="12">
+        <v>53</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="97"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I57" s="67"/>
+      <c r="J57" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" ht="15">
+      <c r="A58" s="12">
+        <v>54</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="97"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I58" s="67"/>
+      <c r="J58" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" ht="15">
+      <c r="A59" s="12">
+        <v>55</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="97"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I59" s="67"/>
+      <c r="J59" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" ht="45">
+      <c r="A60" s="12">
+        <v>56</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="97"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" ht="45">
+      <c r="A61" s="12">
         <v>57</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="B61" s="50"/>
+      <c r="C61" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="97"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I61" s="67"/>
+      <c r="J61" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" ht="45">
+      <c r="A62" s="12">
+        <v>58</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="97"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G62" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I62" s="67"/>
+      <c r="J62" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" ht="15">
+      <c r="A63" s="12">
+        <v>59</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="97"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H63" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63" s="67"/>
+      <c r="J63" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" ht="29.4" customHeight="1">
+      <c r="A64" s="12">
+        <v>60</v>
+      </c>
+      <c r="B64" s="78"/>
+      <c r="C64" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="97"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I64" s="32"/>
+      <c r="J64" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" ht="45">
+      <c r="A65" s="12">
+        <v>61</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="98"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H65" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="67"/>
+      <c r="J65" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1">
+      <c r="A66" s="12">
+        <v>62</v>
+      </c>
+      <c r="B66" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I66" s="67"/>
+      <c r="J66" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" ht="15">
+      <c r="A67" s="12">
+        <v>63</v>
+      </c>
+      <c r="B67" s="50"/>
+      <c r="C67" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="97"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" ht="15">
+      <c r="A68" s="12">
         <v>64</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" ht="75">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="B68" s="50"/>
+      <c r="C68" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="97"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I68" s="69"/>
+      <c r="J68" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" ht="15">
+      <c r="A69" s="12">
+        <v>65</v>
+      </c>
+      <c r="B69" s="77"/>
+      <c r="C69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="97"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69" s="32"/>
+      <c r="J69" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" ht="15">
+      <c r="A70" s="12">
+        <v>66</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="97"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I70" s="32"/>
+      <c r="J70" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" ht="15">
+      <c r="A71" s="12">
+        <v>67</v>
+      </c>
+      <c r="B71" s="50"/>
+      <c r="C71" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="97"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H71" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I71" s="32"/>
+      <c r="J71" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" ht="15">
+      <c r="A72" s="12">
+        <v>68</v>
+      </c>
+      <c r="B72" s="50"/>
+      <c r="C72" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="97"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I72" s="32"/>
+      <c r="J72" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" ht="15">
+      <c r="A73" s="12">
+        <v>69</v>
+      </c>
+      <c r="B73" s="78"/>
+      <c r="C73" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="97"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H73" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I73" s="69"/>
+      <c r="J73" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" ht="15">
+      <c r="A74" s="12">
+        <v>70</v>
+      </c>
+      <c r="B74" s="50"/>
+      <c r="C74" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="97"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I74" s="32"/>
+      <c r="J74" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" ht="15">
+      <c r="A75" s="12">
+        <v>71</v>
+      </c>
+      <c r="B75" s="50"/>
+      <c r="C75" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="97"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H75" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" s="69"/>
+      <c r="J75" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" ht="15">
+      <c r="A76" s="12">
+        <v>72</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="97"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I76" s="32"/>
+      <c r="J76" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" ht="15">
+      <c r="A77" s="12">
+        <v>73</v>
+      </c>
+      <c r="B77" s="50"/>
+      <c r="C77" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="98"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H77" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I77" s="32"/>
+      <c r="J77" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" ht="45">
+      <c r="A78" s="12">
+        <v>74</v>
+      </c>
+      <c r="B78" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" ht="74.400000000000006">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="C78" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I78" s="32"/>
+      <c r="J78" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="1:11" ht="45" customHeight="1">
+      <c r="A79" s="12">
+        <v>75</v>
+      </c>
+      <c r="B79" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:12" ht="60">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="C79" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H79" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I79" s="32"/>
+      <c r="J79" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="1:11" ht="45">
+      <c r="A80" s="12">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I80" s="32"/>
+      <c r="J80" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="1:11" ht="45">
+      <c r="A81" s="12">
+        <v>77</v>
+      </c>
+      <c r="B81" s="50"/>
+      <c r="C81" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H81" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I81" s="32"/>
+      <c r="J81" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="1:11" ht="45">
+      <c r="A82" s="12">
         <v>78</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="B82" s="50"/>
+      <c r="C82" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I82" s="32"/>
+      <c r="J82" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" ht="45">
+      <c r="A83" s="12">
         <v>79</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" ht="75">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="13"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="31" t="s">
+      <c r="B83" s="50"/>
+      <c r="C83" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H83" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I83" s="32"/>
+      <c r="J83" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="1:11" ht="45">
+      <c r="A84" s="12">
+        <v>80</v>
+      </c>
+      <c r="B84" s="50"/>
+      <c r="C84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G84" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I84" s="32"/>
+      <c r="J84" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11" ht="45">
+      <c r="A85" s="12">
+        <v>81</v>
+      </c>
+      <c r="B85" s="50"/>
+      <c r="C85" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H85" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I85" s="32"/>
+      <c r="J85" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11" ht="45">
+      <c r="A86" s="12">
+        <v>82</v>
+      </c>
+      <c r="B86" s="50"/>
+      <c r="C86" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G86" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I86" s="32"/>
+      <c r="J86" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11" ht="45">
+      <c r="A87" s="12">
+        <v>83</v>
+      </c>
+      <c r="B87" s="74"/>
+      <c r="C87" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G87" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H87" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I87" s="32"/>
+      <c r="J87" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11" ht="45">
+      <c r="A88" s="12">
         <v>84</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="B88" s="74"/>
+      <c r="C88" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G88" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I88" s="32"/>
+      <c r="J88" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11" ht="45">
+      <c r="A89" s="12">
         <v>85</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="B89" s="74"/>
+      <c r="C89" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G89" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H89" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I89" s="32"/>
+      <c r="J89" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11" ht="45">
+      <c r="A90" s="12">
         <v>86</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" ht="45">
-      <c r="A12" s="13">
-        <v>7</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="13">
-        <v>8</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="13">
-        <v>9</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="30">
-      <c r="A15" s="13">
-        <v>10</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="45">
-      <c r="A16" s="13">
-        <v>11</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" ht="30">
-      <c r="A17" s="13">
-        <v>12</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" ht="45">
-      <c r="A18" s="13">
-        <v>13</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="13">
-        <v>14</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="45">
-      <c r="A20" s="13">
-        <v>15</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="45">
-      <c r="A21" s="13">
-        <v>16</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="45">
-      <c r="A22" s="13">
-        <v>17</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="12" t="s">
+      <c r="B90" s="74"/>
+      <c r="C90" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" ht="45">
-      <c r="A23" s="13">
-        <v>18</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="12" t="s">
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G90" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I90" s="32"/>
+      <c r="J90" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="1:11" ht="45">
+      <c r="A91" s="12">
+        <v>87</v>
+      </c>
+      <c r="B91" s="74"/>
+      <c r="C91" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" ht="105">
-      <c r="A24" s="13">
-        <v>19</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" ht="105">
-      <c r="A25" s="13">
-        <v>20</v>
-      </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" ht="105">
-      <c r="A26" s="13">
-        <v>21</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" ht="105">
-      <c r="A27" s="13">
-        <v>22</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" ht="120">
-      <c r="A28" s="13">
-        <v>23</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="36" t="s">
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G91" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H91" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I91" s="32"/>
+      <c r="J91" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11" ht="45">
+      <c r="A92" s="12">
+        <v>88</v>
+      </c>
+      <c r="B92" s="74"/>
+      <c r="C92" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G92" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92" s="32"/>
+      <c r="J92" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" ht="45">
+      <c r="A93" s="12">
+        <v>89</v>
+      </c>
+      <c r="B93" s="74"/>
+      <c r="C93" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G93" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J93" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="1:11" ht="45">
+      <c r="A94" s="12">
         <v>90</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="90">
-      <c r="A29" s="13">
-        <v>24</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" ht="90">
-      <c r="A30" s="13">
-        <v>25</v>
-      </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" ht="45">
-      <c r="A31" s="13">
-        <v>26</v>
-      </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="120">
-      <c r="A32" s="13">
-        <v>27</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:12" ht="120">
-      <c r="A33" s="13">
-        <v>28</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" ht="30">
-      <c r="A34" s="13">
-        <v>29</v>
-      </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" ht="75">
-      <c r="A35" s="22"/>
-      <c r="B35" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" ht="45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" ht="75">
-      <c r="A37" s="21"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A59" s="13"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A60" s="13"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A61" s="13"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A62" s="22"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A63" s="13"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A64" s="13"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A65" s="13"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A66" s="13"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A67" s="13"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A68" s="13"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A69" s="13"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A70" s="13"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A71" s="13"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A72" s="13"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A74" s="13"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="12"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G94" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J94" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="1:11" ht="45">
+      <c r="A95" s="12">
+        <v>91</v>
+      </c>
+      <c r="B95" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" s="62">
+        <v>44369</v>
+      </c>
+      <c r="H95" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="I95" s="32"/>
+      <c r="J95" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A96" s="17"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A97" s="17"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A98" s="17"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A99" s="17"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D2"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBC4DE0-30BC-45EC-8732-C7E5E7A5E02D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1898C21D-B084-4A19-A0B1-696505D269F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="279">
   <si>
     <t>作成者</t>
   </si>
@@ -2623,16 +2623,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TOPページに戻る」ボタンを押す。</t>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録完了画面からトップページ画面へ遷移されること。</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -4064,6 +4054,715 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面（正常動作）</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターネットのタブが「アカウント一覧画面」に切り替わる。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページからメニューバーの中にある「アカウント一覧」を押す。</t>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面に切り替わった後、左上に「アカウント一覧画面」と表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>降順で表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力された内容が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録のラジオボタンで選択し、PHP MyAdminでは「0」か「1」で表示されていた内容が0を「男」、1を「女」として表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録の完了画面で自動的に「0」で送信されPHP MyAdminでは「0」か「1」で表示されていた内容が0を「有効」、1を「無効」として表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録のプルダウンで選択し、PHP MyAdminでは「0」か「1」で表示されていた内容が0を「一般」、1を「管理者」として表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録の完了画面で自動的に時間を取得し、PHP　MyAdminで年月日と時刻まで表示されていた内容を年月日のみ表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「TOPページに戻る」ボタンを押す。</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページからアカウント一覧画面に切り替わること。</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面
+から
+トップページ</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページから
+アカウント一覧画面</t>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク「アカウント一覧」をクリックする。</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面からトップページに切り替わること。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminから
+アカウント一覧画面</t>
+    <rPh sb="19" eb="23">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面
+から
+更新ページ</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面
+から
+削除ページ</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン「更新」を押す。</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン「削除」を押す。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面
+から
+アカウント一覧画面</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面
+から
+アカウント登録画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面
+から
+アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク「アカウント登録画面」をクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それぞれ行の内容に適用した入力を変更できる画面に遷移する。</t>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それぞれ行の内容に適用した入力を削除できる画面に遷移する。</t>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント一覧画面に切り替わること。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からアカウント一覧画面に切り替わること。</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面からアカウント登録画面に切り替わること。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminで表示されていたIDが降順で右寄せ表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミギヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminで表示されていた名前（姓）が右寄せ表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミギヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminで表示されていた名前（名）が右寄せ表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミギヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminで表示されていたカナ（姓）が右寄せ表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミギヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminで表示されていたカナ（名）が右寄せ表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミギヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminで表示されていたメールアドレスが左寄せ表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒダリヨ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminでは「0」か「1」で表示されていたが、ここでは0が「男」、1が「女」で表示される。</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminでは「0」か「1」で表示されていたが、ここでは0が「一般」、1が「管理者」で表示される。</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminでは「0」で表示されていたが、ここでは0が「有効」、1が「無効」で表示される。</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminでは年月日と時刻が表示されていたが、ここでは年月日のみで表示される。</t>
+    <rPh sb="13" eb="16">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4414,7 +5113,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4704,35 +5403,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5086,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -5130,7 +5844,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L1" s="22"/>
     </row>
@@ -5153,7 +5867,9 @@
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="107">
+        <v>44375</v>
+      </c>
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
@@ -6779,28 +7495,48 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="1:12" ht="11.25" customHeight="1">
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="12"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="34"/>
+      <c r="B57" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>234</v>
+      </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="32"/>
       <c r="K57" s="41"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" ht="11.25" customHeight="1">
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" s="20"/>
       <c r="B58" s="51"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="34"/>
+      <c r="C58" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="92"/>
+      <c r="G58" s="34" t="s">
+        <v>236</v>
+      </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="32"/>
@@ -6810,11 +7546,19 @@
     <row r="59" spans="1:12" ht="11.25" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="50"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="34"/>
+      <c r="C59" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="92"/>
+      <c r="G59" s="34" t="s">
+        <v>238</v>
+      </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="32"/>
@@ -6825,10 +7569,14 @@
       <c r="A60" s="12"/>
       <c r="B60" s="50"/>
       <c r="C60" s="27"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="34"/>
+      <c r="D60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="109"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="94" t="s">
+        <v>239</v>
+      </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="32"/>
@@ -6839,10 +7587,12 @@
       <c r="A61" s="12"/>
       <c r="B61" s="50"/>
       <c r="C61" s="27"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="34"/>
+      <c r="D61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="109"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="95"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="32"/>
@@ -6853,10 +7603,12 @@
       <c r="A62" s="21"/>
       <c r="B62" s="49"/>
       <c r="C62" s="27"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="34"/>
+      <c r="D62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="109"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="95"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="32"/>
@@ -6867,10 +7619,12 @@
       <c r="A63" s="12"/>
       <c r="B63" s="50"/>
       <c r="C63" s="27"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="34"/>
+      <c r="D63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="109"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="95"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="32"/>
@@ -6881,80 +7635,102 @@
       <c r="A64" s="12"/>
       <c r="B64" s="50"/>
       <c r="C64" s="27"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="34"/>
+      <c r="D64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="109"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="96"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="32"/>
       <c r="K64" s="41"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:12" ht="11.25" customHeight="1">
+    <row r="65" spans="1:12" ht="45">
       <c r="A65" s="12"/>
       <c r="B65" s="50"/>
       <c r="C65" s="27"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="33"/>
+      <c r="D65" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="109"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="33" t="s">
+        <v>240</v>
+      </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="32"/>
       <c r="K65" s="41"/>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="1:12" ht="11.25" customHeight="1">
+    <row r="66" spans="1:12" ht="45">
       <c r="A66" s="12"/>
       <c r="B66" s="50"/>
       <c r="C66" s="27"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="33"/>
+      <c r="D66" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="109"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="33" t="s">
+        <v>242</v>
+      </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="32"/>
       <c r="K66" s="41"/>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="1:12" ht="11.25" customHeight="1">
+    <row r="67" spans="1:12" ht="45">
       <c r="A67" s="12"/>
       <c r="B67" s="50"/>
       <c r="C67" s="27"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="33"/>
+      <c r="D67" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="109"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="33" t="s">
+        <v>241</v>
+      </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="32"/>
       <c r="K67" s="41"/>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" ht="11.25" customHeight="1">
+    <row r="68" spans="1:12" ht="45">
       <c r="A68" s="12"/>
       <c r="B68" s="50"/>
       <c r="C68" s="27"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="33"/>
+      <c r="D68" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="109"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="33" t="s">
+        <v>243</v>
+      </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="32"/>
       <c r="K68" s="41"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" ht="11.25" customHeight="1">
+    <row r="69" spans="1:12" ht="45">
       <c r="A69" s="12"/>
       <c r="B69" s="50"/>
       <c r="C69" s="27"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="33"/>
+      <c r="D69" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="110"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="33" t="s">
+        <v>243</v>
+      </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="32"/>
@@ -7032,11 +7808,14 @@
       <c r="L74" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G12:G23"/>
     <mergeCell ref="G38:G42"/>
     <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E69"/>
+    <mergeCell ref="F57:F69"/>
+    <mergeCell ref="G60:G64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -7047,10 +7826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -7073,7 +7852,7 @@
         <v>150</v>
       </c>
       <c r="B1" s="88"/>
-      <c r="C1" s="99"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
@@ -7098,7 +7877,7 @@
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="89"/>
       <c r="B2" s="90"/>
-      <c r="C2" s="100"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
@@ -7186,7 +7965,7 @@
         <v>44369</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="66" t="s">
@@ -7205,7 +7984,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="82" t="s">
         <v>161</v>
@@ -7217,7 +7996,7 @@
         <v>44369</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I6" s="68"/>
       <c r="J6" s="17" t="s">
@@ -7234,7 +8013,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>162</v>
@@ -7246,7 +8025,7 @@
         <v>44369</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I7" s="68"/>
       <c r="J7" s="65" t="s">
@@ -7265,19 +8044,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>164</v>
       </c>
       <c r="F8" s="91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" s="62">
         <v>44369</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>145</v>
@@ -7299,7 +8078,7 @@
         <v>44369</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J9" s="65" t="s">
         <v>145</v>
@@ -7321,7 +8100,7 @@
         <v>44369</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>145</v>
@@ -7343,7 +8122,7 @@
         <v>44369</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J11" s="65" t="s">
         <v>145</v>
@@ -7365,7 +8144,7 @@
         <v>44369</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>145</v>
@@ -7387,7 +8166,7 @@
         <v>44369</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J13" s="65" t="s">
         <v>145</v>
@@ -7409,7 +8188,7 @@
         <v>44369</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>145</v>
@@ -7431,7 +8210,7 @@
         <v>44369</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J15" s="65" t="s">
         <v>145</v>
@@ -7453,7 +8232,7 @@
         <v>44369</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>145</v>
@@ -7475,7 +8254,7 @@
         <v>44369</v>
       </c>
       <c r="H17" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J17" s="65" t="s">
         <v>145</v>
@@ -7497,7 +8276,7 @@
         <v>44369</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>145</v>
@@ -7519,7 +8298,7 @@
         <v>44369</v>
       </c>
       <c r="H19" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J19" s="65" t="s">
         <v>145</v>
@@ -7530,25 +8309,25 @@
         <v>16</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>204</v>
       </c>
       <c r="F20" s="91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20" s="62">
         <v>44369</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I20" s="68"/>
       <c r="J20" s="17" t="s">
@@ -7565,13 +8344,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="92"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="103"/>
       <c r="F21" s="92"/>
       <c r="G21" s="62">
         <v>44369</v>
       </c>
       <c r="H21" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I21" s="68"/>
       <c r="J21" s="65" t="s">
@@ -7588,13 +8367,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="92"/>
-      <c r="E22" s="105"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="92"/>
       <c r="G22" s="62">
         <v>44369</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I22" s="68"/>
       <c r="J22" s="17" t="s">
@@ -7611,13 +8390,13 @@
         <v>19</v>
       </c>
       <c r="D23" s="92"/>
-      <c r="E23" s="105"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="92"/>
       <c r="G23" s="62">
         <v>44369</v>
       </c>
       <c r="H23" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="65" t="s">
@@ -7634,13 +8413,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="92"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="93"/>
       <c r="G24" s="62">
         <v>44369</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I24" s="67"/>
       <c r="J24" s="17" t="s">
@@ -7657,15 +8436,15 @@
         <v>21</v>
       </c>
       <c r="D25" s="92"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" s="62">
         <v>44369</v>
       </c>
       <c r="H25" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I25" s="67"/>
       <c r="J25" s="65" t="s">
@@ -7682,15 +8461,15 @@
         <v>22</v>
       </c>
       <c r="D26" s="92"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="103"/>
       <c r="F26" s="91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" s="62">
         <v>44369</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="17" t="s">
@@ -7707,13 +8486,13 @@
         <v>23</v>
       </c>
       <c r="D27" s="92"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="92"/>
       <c r="G27" s="62">
         <v>44369</v>
       </c>
       <c r="H27" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I27" s="67"/>
       <c r="J27" s="65" t="s">
@@ -7730,13 +8509,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="92"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="92"/>
       <c r="G28" s="62">
         <v>44369</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="17" t="s">
@@ -7753,13 +8532,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="92"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="92"/>
       <c r="G29" s="62">
         <v>44369</v>
       </c>
       <c r="H29" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I29" s="69"/>
       <c r="J29" s="65" t="s">
@@ -7776,13 +8555,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="92"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="92"/>
       <c r="G30" s="62">
         <v>44369</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I30" s="67"/>
       <c r="J30" s="17" t="s">
@@ -7799,13 +8578,13 @@
         <v>27</v>
       </c>
       <c r="D31" s="93"/>
-      <c r="E31" s="106"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="93"/>
       <c r="G31" s="62">
         <v>44369</v>
       </c>
       <c r="H31" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" s="67"/>
       <c r="J31" s="65" t="s">
@@ -7824,19 +8603,19 @@
         <v>16</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" s="62">
         <v>44369</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I32" s="67"/>
       <c r="J32" s="17" t="s">
@@ -7854,16 +8633,16 @@
       </c>
       <c r="D33" s="92"/>
       <c r="E33" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G33" s="62">
         <v>44369</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="65" t="s">
@@ -7881,16 +8660,16 @@
       </c>
       <c r="D34" s="92"/>
       <c r="E34" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="62">
         <v>44369</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I34" s="69"/>
       <c r="J34" s="17" t="s">
@@ -7908,16 +8687,16 @@
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G35" s="62">
         <v>44369</v>
       </c>
       <c r="H35" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="65" t="s">
@@ -7935,16 +8714,16 @@
       </c>
       <c r="D36" s="92"/>
       <c r="E36" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G36" s="62">
         <v>44369</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I36" s="67"/>
       <c r="J36" s="17" t="s">
@@ -7962,16 +8741,16 @@
       </c>
       <c r="D37" s="92"/>
       <c r="E37" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G37" s="62">
         <v>44369</v>
       </c>
       <c r="H37" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="65" t="s">
@@ -7989,16 +8768,16 @@
       </c>
       <c r="D38" s="92"/>
       <c r="E38" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" s="62">
         <v>44369</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="17" t="s">
@@ -8016,16 +8795,16 @@
       </c>
       <c r="D39" s="92"/>
       <c r="E39" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G39" s="62">
         <v>44369</v>
       </c>
       <c r="H39" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I39" s="69"/>
       <c r="J39" s="65" t="s">
@@ -8043,16 +8822,16 @@
       </c>
       <c r="D40" s="92"/>
       <c r="E40" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G40" s="62">
         <v>44369</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="17" t="s">
@@ -8070,16 +8849,16 @@
       </c>
       <c r="D41" s="93"/>
       <c r="E41" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G41" s="62">
         <v>44369</v>
       </c>
       <c r="H41" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I41" s="67"/>
       <c r="J41" s="65" t="s">
@@ -8098,19 +8877,19 @@
         <v>16</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E42" s="94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F42" s="94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G42" s="62">
         <v>44369</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I42" s="67"/>
       <c r="J42" s="17" t="s">
@@ -8126,14 +8905,14 @@
       <c r="C43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="97"/>
+      <c r="D43" s="105"/>
       <c r="E43" s="95"/>
       <c r="F43" s="95"/>
       <c r="G43" s="62">
         <v>44369</v>
       </c>
       <c r="H43" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I43" s="67"/>
       <c r="J43" s="65" t="s">
@@ -8149,14 +8928,14 @@
       <c r="C44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="97"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="95"/>
       <c r="F44" s="95"/>
       <c r="G44" s="62">
         <v>44369</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="17" t="s">
@@ -8172,14 +8951,14 @@
       <c r="C45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="97"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="95"/>
       <c r="F45" s="95"/>
       <c r="G45" s="62">
         <v>44369</v>
       </c>
       <c r="H45" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I45" s="67"/>
       <c r="J45" s="65" t="s">
@@ -8195,14 +8974,14 @@
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="97"/>
+      <c r="D46" s="105"/>
       <c r="E46" s="95"/>
       <c r="F46" s="95"/>
       <c r="G46" s="62">
         <v>44369</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I46" s="67"/>
       <c r="J46" s="17" t="s">
@@ -8218,14 +8997,14 @@
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="97"/>
+      <c r="D47" s="105"/>
       <c r="E47" s="95"/>
       <c r="F47" s="95"/>
       <c r="G47" s="62">
         <v>44369</v>
       </c>
       <c r="H47" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I47" s="67"/>
       <c r="J47" s="65" t="s">
@@ -8241,14 +9020,14 @@
       <c r="C48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="97"/>
+      <c r="D48" s="105"/>
       <c r="E48" s="95"/>
       <c r="F48" s="95"/>
       <c r="G48" s="62">
         <v>44369</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="17" t="s">
@@ -8264,14 +9043,14 @@
       <c r="C49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="97"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="95"/>
       <c r="F49" s="95"/>
       <c r="G49" s="62">
         <v>44369</v>
       </c>
       <c r="H49" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I49" s="67"/>
       <c r="J49" s="65" t="s">
@@ -8287,14 +9066,14 @@
       <c r="C50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="97"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="95"/>
       <c r="F50" s="95"/>
       <c r="G50" s="62">
         <v>44369</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I50" s="67"/>
       <c r="J50" s="17" t="s">
@@ -8310,14 +9089,14 @@
       <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="97"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="95"/>
       <c r="F51" s="95"/>
       <c r="G51" s="62">
         <v>44369</v>
       </c>
       <c r="H51" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I51" s="67"/>
       <c r="J51" s="65" t="s">
@@ -8333,14 +9112,14 @@
       <c r="C52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="97"/>
+      <c r="D52" s="105"/>
       <c r="E52" s="95"/>
       <c r="F52" s="95"/>
       <c r="G52" s="62">
         <v>44369</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="17" t="s">
@@ -8356,14 +9135,14 @@
       <c r="C53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="98"/>
+      <c r="D53" s="106"/>
       <c r="E53" s="96"/>
       <c r="F53" s="96"/>
       <c r="G53" s="62">
         <v>44369</v>
       </c>
       <c r="H53" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I53" s="67"/>
       <c r="J53" s="65" t="s">
@@ -8382,19 +9161,19 @@
         <v>16</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" s="101" t="s">
-        <v>182</v>
+        <v>226</v>
+      </c>
+      <c r="F54" s="99" t="s">
+        <v>181</v>
       </c>
       <c r="G54" s="62">
         <v>44369</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I54" s="67"/>
       <c r="J54" s="17" t="s">
@@ -8410,14 +9189,14 @@
       <c r="C55" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="97"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="95"/>
-      <c r="F55" s="102"/>
+      <c r="F55" s="100"/>
       <c r="G55" s="62">
         <v>44369</v>
       </c>
       <c r="H55" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I55" s="67"/>
       <c r="J55" s="65" t="s">
@@ -8433,14 +9212,14 @@
       <c r="C56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="97"/>
+      <c r="D56" s="105"/>
       <c r="E56" s="95"/>
-      <c r="F56" s="102"/>
+      <c r="F56" s="100"/>
       <c r="G56" s="62">
         <v>44369</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I56" s="67"/>
       <c r="J56" s="17" t="s">
@@ -8456,14 +9235,14 @@
       <c r="C57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="97"/>
+      <c r="D57" s="105"/>
       <c r="E57" s="95"/>
-      <c r="F57" s="102"/>
+      <c r="F57" s="100"/>
       <c r="G57" s="62">
         <v>44369</v>
       </c>
       <c r="H57" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I57" s="67"/>
       <c r="J57" s="65" t="s">
@@ -8479,14 +9258,14 @@
       <c r="C58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="97"/>
+      <c r="D58" s="105"/>
       <c r="E58" s="95"/>
-      <c r="F58" s="102"/>
+      <c r="F58" s="100"/>
       <c r="G58" s="62">
         <v>44369</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I58" s="67"/>
       <c r="J58" s="17" t="s">
@@ -8502,14 +9281,14 @@
       <c r="C59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="97"/>
+      <c r="D59" s="105"/>
       <c r="E59" s="95"/>
-      <c r="F59" s="103"/>
+      <c r="F59" s="101"/>
       <c r="G59" s="62">
         <v>44369</v>
       </c>
       <c r="H59" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I59" s="67"/>
       <c r="J59" s="65" t="s">
@@ -8525,16 +9304,16 @@
       <c r="C60" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="97"/>
+      <c r="D60" s="105"/>
       <c r="E60" s="95"/>
       <c r="F60" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G60" s="62">
         <v>44369</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I60" s="32"/>
       <c r="J60" s="17" t="s">
@@ -8550,16 +9329,16 @@
       <c r="C61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="97"/>
+      <c r="D61" s="105"/>
       <c r="E61" s="95"/>
       <c r="F61" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G61" s="62">
         <v>44369</v>
       </c>
       <c r="H61" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I61" s="67"/>
       <c r="J61" s="65" t="s">
@@ -8575,16 +9354,16 @@
       <c r="C62" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="97"/>
+      <c r="D62" s="105"/>
       <c r="E62" s="95"/>
       <c r="F62" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G62" s="62">
         <v>44369</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I62" s="67"/>
       <c r="J62" s="17" t="s">
@@ -8600,16 +9379,16 @@
       <c r="C63" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="97"/>
+      <c r="D63" s="105"/>
       <c r="E63" s="95"/>
-      <c r="F63" s="101" t="s">
-        <v>186</v>
+      <c r="F63" s="99" t="s">
+        <v>185</v>
       </c>
       <c r="G63" s="62">
         <v>44369</v>
       </c>
       <c r="H63" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I63" s="67"/>
       <c r="J63" s="65" t="s">
@@ -8625,14 +9404,14 @@
       <c r="C64" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="97"/>
+      <c r="D64" s="105"/>
       <c r="E64" s="95"/>
-      <c r="F64" s="103"/>
+      <c r="F64" s="101"/>
       <c r="G64" s="62">
         <v>44369</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I64" s="32"/>
       <c r="J64" s="17" t="s">
@@ -8648,16 +9427,16 @@
       <c r="C65" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="98"/>
+      <c r="D65" s="106"/>
       <c r="E65" s="96"/>
       <c r="F65" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G65" s="62">
         <v>44369</v>
       </c>
       <c r="H65" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I65" s="67"/>
       <c r="J65" s="65" t="s">
@@ -8676,7 +9455,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" s="91" t="s">
         <v>166</v>
@@ -8688,7 +9467,7 @@
         <v>44369</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I66" s="67"/>
       <c r="J66" s="17" t="s">
@@ -8704,14 +9483,14 @@
       <c r="C67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="97"/>
+      <c r="D67" s="105"/>
       <c r="E67" s="92"/>
       <c r="F67" s="95"/>
       <c r="G67" s="62">
         <v>44369</v>
       </c>
       <c r="H67" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I67" s="32"/>
       <c r="J67" s="65" t="s">
@@ -8727,14 +9506,14 @@
       <c r="C68" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="97"/>
+      <c r="D68" s="105"/>
       <c r="E68" s="92"/>
       <c r="F68" s="95"/>
       <c r="G68" s="62">
         <v>44369</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I68" s="69"/>
       <c r="J68" s="17" t="s">
@@ -8750,14 +9529,14 @@
       <c r="C69" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="97"/>
+      <c r="D69" s="105"/>
       <c r="E69" s="92"/>
       <c r="F69" s="95"/>
       <c r="G69" s="62">
         <v>44369</v>
       </c>
       <c r="H69" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I69" s="32"/>
       <c r="J69" s="65" t="s">
@@ -8773,14 +9552,14 @@
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="97"/>
+      <c r="D70" s="105"/>
       <c r="E70" s="92"/>
       <c r="F70" s="95"/>
       <c r="G70" s="62">
         <v>44369</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="17" t="s">
@@ -8796,14 +9575,14 @@
       <c r="C71" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="97"/>
+      <c r="D71" s="105"/>
       <c r="E71" s="92"/>
       <c r="F71" s="95"/>
       <c r="G71" s="62">
         <v>44369</v>
       </c>
       <c r="H71" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="65" t="s">
@@ -8819,14 +9598,14 @@
       <c r="C72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="97"/>
+      <c r="D72" s="105"/>
       <c r="E72" s="92"/>
       <c r="F72" s="95"/>
       <c r="G72" s="62">
         <v>44369</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="17" t="s">
@@ -8842,14 +9621,14 @@
       <c r="C73" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="97"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="92"/>
       <c r="F73" s="95"/>
       <c r="G73" s="62">
         <v>44369</v>
       </c>
       <c r="H73" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I73" s="69"/>
       <c r="J73" s="65" t="s">
@@ -8865,14 +9644,14 @@
       <c r="C74" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="97"/>
+      <c r="D74" s="105"/>
       <c r="E74" s="92"/>
       <c r="F74" s="95"/>
       <c r="G74" s="62">
         <v>44369</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I74" s="32"/>
       <c r="J74" s="17" t="s">
@@ -8888,14 +9667,14 @@
       <c r="C75" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="97"/>
+      <c r="D75" s="105"/>
       <c r="E75" s="92"/>
       <c r="F75" s="95"/>
       <c r="G75" s="62">
         <v>44369</v>
       </c>
       <c r="H75" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I75" s="69"/>
       <c r="J75" s="65" t="s">
@@ -8911,14 +9690,14 @@
       <c r="C76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="97"/>
+      <c r="D76" s="105"/>
       <c r="E76" s="92"/>
       <c r="F76" s="95"/>
       <c r="G76" s="62">
         <v>44369</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I76" s="32"/>
       <c r="J76" s="17" t="s">
@@ -8934,14 +9713,14 @@
       <c r="C77" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="98"/>
+      <c r="D77" s="106"/>
       <c r="E77" s="93"/>
       <c r="F77" s="96"/>
       <c r="G77" s="62">
         <v>44369</v>
       </c>
       <c r="H77" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="65" t="s">
@@ -8963,16 +9742,16 @@
         <v>165</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G78" s="62">
         <v>44369</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="41" t="s">
@@ -8988,22 +9767,22 @@
         <v>55</v>
       </c>
       <c r="C79" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="F79" s="34" t="s">
         <v>193</v>
-      </c>
-      <c r="D79" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="E79" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>194</v>
       </c>
       <c r="G79" s="62">
         <v>44369</v>
       </c>
       <c r="H79" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I79" s="32"/>
       <c r="J79" s="65" t="s">
@@ -9022,13 +9801,13 @@
       <c r="D80" s="92"/>
       <c r="E80" s="92"/>
       <c r="F80" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G80" s="62">
         <v>44369</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="17" t="s">
@@ -9047,13 +9826,13 @@
       <c r="D81" s="92"/>
       <c r="E81" s="92"/>
       <c r="F81" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G81" s="62">
         <v>44369</v>
       </c>
       <c r="H81" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I81" s="32"/>
       <c r="J81" s="65" t="s">
@@ -9072,13 +9851,13 @@
       <c r="D82" s="92"/>
       <c r="E82" s="92"/>
       <c r="F82" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G82" s="62">
         <v>44369</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="65" t="s">
@@ -9097,13 +9876,13 @@
       <c r="D83" s="92"/>
       <c r="E83" s="92"/>
       <c r="F83" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G83" s="62">
         <v>44369</v>
       </c>
       <c r="H83" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I83" s="32"/>
       <c r="J83" s="17" t="s">
@@ -9122,13 +9901,13 @@
       <c r="D84" s="92"/>
       <c r="E84" s="92"/>
       <c r="F84" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G84" s="62">
         <v>44369</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I84" s="32"/>
       <c r="J84" s="65" t="s">
@@ -9147,13 +9926,13 @@
       <c r="D85" s="92"/>
       <c r="E85" s="92"/>
       <c r="F85" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G85" s="62">
         <v>44369</v>
       </c>
       <c r="H85" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I85" s="32"/>
       <c r="J85" s="65" t="s">
@@ -9172,13 +9951,13 @@
       <c r="D86" s="92"/>
       <c r="E86" s="92"/>
       <c r="F86" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G86" s="62">
         <v>44369</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I86" s="32"/>
       <c r="J86" s="17" t="s">
@@ -9197,13 +9976,13 @@
       <c r="D87" s="92"/>
       <c r="E87" s="92"/>
       <c r="F87" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G87" s="62">
         <v>44369</v>
       </c>
       <c r="H87" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I87" s="32"/>
       <c r="J87" s="65" t="s">
@@ -9222,13 +10001,13 @@
       <c r="D88" s="92"/>
       <c r="E88" s="92"/>
       <c r="F88" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G88" s="62">
         <v>44369</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I88" s="32"/>
       <c r="J88" s="65" t="s">
@@ -9247,13 +10026,13 @@
       <c r="D89" s="92"/>
       <c r="E89" s="92"/>
       <c r="F89" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G89" s="62">
         <v>44369</v>
       </c>
       <c r="H89" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I89" s="32"/>
       <c r="J89" s="17" t="s">
@@ -9272,13 +10051,13 @@
       <c r="D90" s="92"/>
       <c r="E90" s="92"/>
       <c r="F90" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G90" s="62">
         <v>44369</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I90" s="32"/>
       <c r="J90" s="65" t="s">
@@ -9297,13 +10076,13 @@
       <c r="D91" s="92"/>
       <c r="E91" s="92"/>
       <c r="F91" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G91" s="62">
         <v>44369</v>
       </c>
       <c r="H91" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I91" s="32"/>
       <c r="J91" s="65" t="s">
@@ -9322,13 +10101,13 @@
       <c r="D92" s="92"/>
       <c r="E92" s="92"/>
       <c r="F92" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G92" s="62">
         <v>44369</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="17" t="s">
@@ -9347,16 +10126,16 @@
       <c r="D93" s="92"/>
       <c r="E93" s="92"/>
       <c r="F93" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G93" s="62">
         <v>44369</v>
       </c>
       <c r="H93" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="I93" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="I93" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="J93" s="65" t="s">
         <v>145</v>
@@ -9374,16 +10153,16 @@
       <c r="D94" s="93"/>
       <c r="E94" s="93"/>
       <c r="F94" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G94" s="62">
         <v>44369</v>
       </c>
       <c r="H94" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I94" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="I94" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="J94" s="65" t="s">
         <v>145</v>
@@ -9401,19 +10180,19 @@
         <v>132</v>
       </c>
       <c r="D95" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E95" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F95" s="33" t="s">
         <v>168</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>169</v>
       </c>
       <c r="G95" s="62">
         <v>44369</v>
       </c>
       <c r="H95" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I95" s="32"/>
       <c r="J95" s="17" t="s">
@@ -9421,60 +10200,485 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11" ht="11.25" customHeight="1">
+    <row r="96" spans="1:11" ht="30">
       <c r="A96" s="17"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
+      <c r="B96" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>247</v>
+      </c>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="34"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:11" ht="11.25" customHeight="1">
+    <row r="97" spans="1:11" ht="45">
       <c r="A97" s="17"/>
       <c r="B97" s="74"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
+      <c r="C97" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>251</v>
+      </c>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="34"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:11" ht="11.25" customHeight="1">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="17"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
+      <c r="B98" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="E98" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="F98" s="39" t="s">
+        <v>269</v>
+      </c>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="34"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="1:11" ht="11.25" customHeight="1">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="17"/>
       <c r="B99" s="74"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
+      <c r="C99" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="109"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="34"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
     </row>
+    <row r="100" spans="1:11" ht="30">
+      <c r="A100" s="17"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="109"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+    </row>
+    <row r="101" spans="1:11" ht="30">
+      <c r="A101" s="17"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="109"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+    </row>
+    <row r="102" spans="1:11" ht="30">
+      <c r="A102" s="17"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="109"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+    </row>
+    <row r="103" spans="1:11" ht="30">
+      <c r="A103" s="17"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="109"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="1:11" ht="30">
+      <c r="A104" s="17"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="109"/>
+      <c r="E104" s="95"/>
+      <c r="F104" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="1:11" ht="30">
+      <c r="A105" s="17"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="109"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+    </row>
+    <row r="106" spans="1:11" ht="30">
+      <c r="A106" s="17"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="109"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+    </row>
+    <row r="107" spans="1:11" ht="30">
+      <c r="A107" s="17"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="109"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+    </row>
+    <row r="108" spans="1:11" ht="30">
+      <c r="A108" s="17"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108" s="110"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+    </row>
+    <row r="109" spans="1:11" ht="45">
+      <c r="A109" s="17"/>
+      <c r="B109" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="E109" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="F109" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+    </row>
+    <row r="110" spans="1:11" ht="45">
+      <c r="A110" s="17"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="E110" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F110" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+    </row>
+    <row r="111" spans="1:11" ht="45">
+      <c r="A111" s="17"/>
+      <c r="B111" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="E111" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F111" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+    </row>
+    <row r="112" spans="1:11" ht="45">
+      <c r="A112" s="17"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F112" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+    </row>
+    <row r="113" spans="1:11" ht="45">
+      <c r="A113" s="17"/>
+      <c r="B113" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="E113" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F113" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+    </row>
+    <row r="114" spans="1:11" ht="15">
+      <c r="A114" s="17"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+    </row>
+    <row r="115" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A115" s="17"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="75"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+    </row>
+    <row r="116" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A116" s="17"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+    </row>
+    <row r="117" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A117" s="17"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+    </row>
+    <row r="118" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A118" s="17"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+    </row>
+    <row r="119" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A119" s="17"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="75"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+    </row>
+    <row r="120" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A120" s="17"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="75"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+    </row>
+    <row r="121" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A121" s="17"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+    </row>
+    <row r="122" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A122" s="17"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="F63:F64"/>
@@ -9485,16 +10689,6 @@
     <mergeCell ref="E20:E31"/>
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F42:F53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1898C21D-B084-4A19-A0B1-696505D269F1}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4724FA-B2C4-4C0D-88B4-F20381E2638D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -5373,6 +5373,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5403,6 +5409,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5426,27 +5447,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5800,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -5821,12 +5821,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
@@ -5849,10 +5849,10 @@
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="107">
+      <c r="K2" s="87">
         <v>44375</v>
       </c>
       <c r="L2" s="23"/>
@@ -6166,7 +6166,7 @@
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="93" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="70">
@@ -6196,7 +6196,7 @@
       <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="92"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="62">
         <v>44354</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="F14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="92"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="62">
         <v>44354</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="92"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="70">
         <v>44354</v>
       </c>
@@ -6280,7 +6280,7 @@
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="62">
         <v>44354</v>
       </c>
@@ -6308,7 +6308,7 @@
       <c r="F17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="62">
         <v>44354</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="92"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="70">
         <v>44354</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="62">
         <v>44354</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="F20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="92"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="62">
         <v>44354</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="92"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="70">
         <v>44354</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="F22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="62">
         <v>44354</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="93"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="62">
         <v>44354</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="F38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="94" t="s">
+      <c r="G38" s="96" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="70">
@@ -6964,7 +6964,7 @@
       <c r="F39" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="95"/>
+      <c r="G39" s="97"/>
       <c r="H39" s="70">
         <v>44354</v>
       </c>
@@ -6992,7 +6992,7 @@
       <c r="F40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="95"/>
+      <c r="G40" s="97"/>
       <c r="H40" s="70">
         <v>44354</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="F41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="95"/>
+      <c r="G41" s="97"/>
       <c r="H41" s="70">
         <v>44354</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="F42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="96"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="70">
         <v>44354</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="F47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="94" t="s">
+      <c r="G47" s="96" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="70">
@@ -7230,7 +7230,7 @@
       <c r="F48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="96"/>
+      <c r="G48" s="98"/>
       <c r="H48" s="70">
         <v>44354</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="E57" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="91" t="s">
+      <c r="F57" s="93" t="s">
         <v>235</v>
       </c>
       <c r="G57" s="34" t="s">
@@ -7533,7 +7533,7 @@
       <c r="E58" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="92"/>
+      <c r="F58" s="94"/>
       <c r="G58" s="34" t="s">
         <v>236</v>
       </c>
@@ -7552,10 +7552,10 @@
       <c r="D59" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="108" t="s">
+      <c r="E59" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="92"/>
+      <c r="F59" s="94"/>
       <c r="G59" s="34" t="s">
         <v>238</v>
       </c>
@@ -7572,9 +7572,9 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="109"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="94" t="s">
+      <c r="E60" s="100"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="96" t="s">
         <v>239</v>
       </c>
       <c r="H60" s="12"/>
@@ -7590,9 +7590,9 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="109"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="95"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="97"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="32"/>
@@ -7606,9 +7606,9 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="109"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="95"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="97"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="32"/>
@@ -7622,9 +7622,9 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="109"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="95"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="97"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="32"/>
@@ -7638,9 +7638,9 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="109"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="96"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="98"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="32"/>
@@ -7654,8 +7654,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="109"/>
-      <c r="F65" s="92"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="94"/>
       <c r="G65" s="33" t="s">
         <v>240</v>
       </c>
@@ -7672,8 +7672,8 @@
       <c r="D66" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="109"/>
-      <c r="F66" s="92"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="94"/>
       <c r="G66" s="33" t="s">
         <v>242</v>
       </c>
@@ -7690,8 +7690,8 @@
       <c r="D67" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="109"/>
-      <c r="F67" s="92"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="94"/>
       <c r="G67" s="33" t="s">
         <v>241</v>
       </c>
@@ -7708,8 +7708,8 @@
       <c r="D68" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="109"/>
-      <c r="F68" s="92"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="94"/>
       <c r="G68" s="33" t="s">
         <v>243</v>
       </c>
@@ -7726,8 +7726,8 @@
       <c r="D69" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E69" s="110"/>
-      <c r="F69" s="93"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="95"/>
       <c r="G69" s="33" t="s">
         <v>243</v>
       </c>
@@ -7828,8 +7828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -7848,11 +7848,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
@@ -7875,9 +7875,9 @@
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="98"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
@@ -7892,7 +7892,9 @@
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="53"/>
+      <c r="J2" s="87">
+        <v>44375</v>
+      </c>
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
@@ -8043,13 +8045,13 @@
       <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="93" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="93" t="s">
         <v>205</v>
       </c>
       <c r="G8" s="62">
@@ -8069,11 +8071,11 @@
       <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="92"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="62">
         <v>44369</v>
       </c>
@@ -8091,11 +8093,11 @@
       <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="92"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="62">
         <v>44369</v>
       </c>
@@ -8113,11 +8115,11 @@
       <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="62">
         <v>44369</v>
       </c>
@@ -8135,11 +8137,11 @@
       <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="62">
         <v>44369</v>
       </c>
@@ -8157,11 +8159,11 @@
       <c r="C13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="62">
         <v>44369</v>
       </c>
@@ -8179,11 +8181,11 @@
       <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="62">
         <v>44369</v>
       </c>
@@ -8201,11 +8203,11 @@
       <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="92"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="62">
         <v>44369</v>
       </c>
@@ -8223,11 +8225,11 @@
       <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="92"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="62">
         <v>44369</v>
       </c>
@@ -8245,11 +8247,11 @@
       <c r="C17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="92"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="62">
         <v>44369</v>
       </c>
@@ -8267,11 +8269,11 @@
       <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="92"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="62">
         <v>44369</v>
       </c>
@@ -8289,11 +8291,11 @@
       <c r="C19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="93"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="62">
         <v>44369</v>
       </c>
@@ -8314,13 +8316,13 @@
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="93" t="s">
         <v>191</v>
       </c>
       <c r="G20" s="62">
@@ -8343,9 +8345,9 @@
       <c r="C21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="92"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="62">
         <v>44369</v>
       </c>
@@ -8366,9 +8368,9 @@
       <c r="C22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="92"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="62">
         <v>44369</v>
       </c>
@@ -8389,9 +8391,9 @@
       <c r="C23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="92"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="62">
         <v>44369</v>
       </c>
@@ -8412,9 +8414,9 @@
       <c r="C24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="62">
         <v>44369</v>
       </c>
@@ -8435,8 +8437,8 @@
       <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="103"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="33" t="s">
         <v>189</v>
       </c>
@@ -8460,9 +8462,9 @@
       <c r="C26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="91" t="s">
+      <c r="D26" s="94"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="93" t="s">
         <v>190</v>
       </c>
       <c r="G26" s="62">
@@ -8485,9 +8487,9 @@
       <c r="C27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="92"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="62">
         <v>44369</v>
       </c>
@@ -8508,9 +8510,9 @@
       <c r="C28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="92"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="62">
         <v>44369</v>
       </c>
@@ -8531,9 +8533,9 @@
       <c r="C29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="92"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="62">
         <v>44369</v>
       </c>
@@ -8554,9 +8556,9 @@
       <c r="C30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="92"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="62">
         <v>44369</v>
       </c>
@@ -8577,9 +8579,9 @@
       <c r="C31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="93"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="62">
         <v>44369</v>
       </c>
@@ -8602,7 +8604,7 @@
       <c r="C32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="93" t="s">
         <v>222</v>
       </c>
       <c r="E32" s="33" t="s">
@@ -8631,7 +8633,7 @@
       <c r="C33" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="92"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="33" t="s">
         <v>171</v>
       </c>
@@ -8658,7 +8660,7 @@
       <c r="C34" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="92"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="33" t="s">
         <v>172</v>
       </c>
@@ -8685,7 +8687,7 @@
       <c r="C35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="92"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="33" t="s">
         <v>172</v>
       </c>
@@ -8712,7 +8714,7 @@
       <c r="C36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="92"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="33" t="s">
         <v>173</v>
       </c>
@@ -8739,7 +8741,7 @@
       <c r="C37" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="92"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="33" t="s">
         <v>174</v>
       </c>
@@ -8766,7 +8768,7 @@
       <c r="C38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="92"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="33" t="s">
         <v>175</v>
       </c>
@@ -8793,7 +8795,7 @@
       <c r="C39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="92"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="33" t="s">
         <v>176</v>
       </c>
@@ -8820,7 +8822,7 @@
       <c r="C40" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="92"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="33" t="s">
         <v>177</v>
       </c>
@@ -8847,7 +8849,7 @@
       <c r="C41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="33" t="s">
         <v>178</v>
       </c>
@@ -8876,13 +8878,13 @@
       <c r="C42" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="91" t="s">
+      <c r="D42" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F42" s="96" t="s">
         <v>209</v>
       </c>
       <c r="G42" s="62">
@@ -8905,9 +8907,9 @@
       <c r="C43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
       <c r="G43" s="62">
         <v>44369</v>
       </c>
@@ -8928,9 +8930,9 @@
       <c r="C44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
       <c r="G44" s="62">
         <v>44369</v>
       </c>
@@ -8951,9 +8953,9 @@
       <c r="C45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
       <c r="G45" s="62">
         <v>44369</v>
       </c>
@@ -8974,9 +8976,9 @@
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="62">
         <v>44369</v>
       </c>
@@ -8997,9 +8999,9 @@
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="105"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
       <c r="G47" s="62">
         <v>44369</v>
       </c>
@@ -9020,9 +9022,9 @@
       <c r="C48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="105"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
       <c r="G48" s="62">
         <v>44369</v>
       </c>
@@ -9043,9 +9045,9 @@
       <c r="C49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="105"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
       <c r="G49" s="62">
         <v>44369</v>
       </c>
@@ -9066,9 +9068,9 @@
       <c r="C50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
       <c r="G50" s="62">
         <v>44369</v>
       </c>
@@ -9089,9 +9091,9 @@
       <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
       <c r="G51" s="62">
         <v>44369</v>
       </c>
@@ -9112,9 +9114,9 @@
       <c r="C52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
       <c r="G52" s="62">
         <v>44369</v>
       </c>
@@ -9135,9 +9137,9 @@
       <c r="C53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
       <c r="G53" s="62">
         <v>44369</v>
       </c>
@@ -9160,13 +9162,13 @@
       <c r="C54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="94" t="s">
+      <c r="E54" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="F54" s="99" t="s">
+      <c r="F54" s="106" t="s">
         <v>181</v>
       </c>
       <c r="G54" s="62">
@@ -9189,9 +9191,9 @@
       <c r="C55" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="105"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="100"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="107"/>
       <c r="G55" s="62">
         <v>44369</v>
       </c>
@@ -9212,9 +9214,9 @@
       <c r="C56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="100"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="107"/>
       <c r="G56" s="62">
         <v>44369</v>
       </c>
@@ -9235,9 +9237,9 @@
       <c r="C57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="105"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="100"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="107"/>
       <c r="G57" s="62">
         <v>44369</v>
       </c>
@@ -9258,9 +9260,9 @@
       <c r="C58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="100"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="107"/>
       <c r="G58" s="62">
         <v>44369</v>
       </c>
@@ -9281,9 +9283,9 @@
       <c r="C59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="105"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="108"/>
       <c r="G59" s="62">
         <v>44369</v>
       </c>
@@ -9304,8 +9306,8 @@
       <c r="C60" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="105"/>
-      <c r="E60" s="95"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="97"/>
       <c r="F60" s="34" t="s">
         <v>182</v>
       </c>
@@ -9329,8 +9331,8 @@
       <c r="C61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="95"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="34" t="s">
         <v>185</v>
       </c>
@@ -9354,8 +9356,8 @@
       <c r="C62" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="95"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="97"/>
       <c r="F62" s="34" t="s">
         <v>184</v>
       </c>
@@ -9379,9 +9381,9 @@
       <c r="C63" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="105"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="99" t="s">
+      <c r="D63" s="102"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="106" t="s">
         <v>185</v>
       </c>
       <c r="G63" s="62">
@@ -9404,9 +9406,9 @@
       <c r="C64" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="105"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="101"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="108"/>
       <c r="G64" s="62">
         <v>44369</v>
       </c>
@@ -9427,8 +9429,8 @@
       <c r="C65" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="106"/>
-      <c r="E65" s="96"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="98"/>
       <c r="F65" s="34" t="s">
         <v>183</v>
       </c>
@@ -9454,13 +9456,13 @@
       <c r="C66" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="91" t="s">
+      <c r="D66" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="E66" s="91" t="s">
+      <c r="E66" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="F66" s="94" t="s">
+      <c r="F66" s="96" t="s">
         <v>167</v>
       </c>
       <c r="G66" s="62">
@@ -9483,9 +9485,9 @@
       <c r="C67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="105"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="95"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="97"/>
       <c r="G67" s="62">
         <v>44369</v>
       </c>
@@ -9506,9 +9508,9 @@
       <c r="C68" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="105"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="95"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="97"/>
       <c r="G68" s="62">
         <v>44369</v>
       </c>
@@ -9529,9 +9531,9 @@
       <c r="C69" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="105"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="95"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="97"/>
       <c r="G69" s="62">
         <v>44369</v>
       </c>
@@ -9552,9 +9554,9 @@
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="105"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="95"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="97"/>
       <c r="G70" s="62">
         <v>44369</v>
       </c>
@@ -9575,9 +9577,9 @@
       <c r="C71" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="95"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="97"/>
       <c r="G71" s="62">
         <v>44369</v>
       </c>
@@ -9598,9 +9600,9 @@
       <c r="C72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="105"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="95"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="97"/>
       <c r="G72" s="62">
         <v>44369</v>
       </c>
@@ -9621,9 +9623,9 @@
       <c r="C73" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="105"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="95"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="97"/>
       <c r="G73" s="62">
         <v>44369</v>
       </c>
@@ -9644,9 +9646,9 @@
       <c r="C74" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="105"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="95"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="97"/>
       <c r="G74" s="62">
         <v>44369</v>
       </c>
@@ -9667,9 +9669,9 @@
       <c r="C75" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="105"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="95"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="97"/>
       <c r="G75" s="62">
         <v>44369</v>
       </c>
@@ -9690,9 +9692,9 @@
       <c r="C76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="105"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="95"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="97"/>
       <c r="G76" s="62">
         <v>44369</v>
       </c>
@@ -9713,9 +9715,9 @@
       <c r="C77" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="106"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="96"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="98"/>
       <c r="G77" s="62">
         <v>44369</v>
       </c>
@@ -9769,10 +9771,10 @@
       <c r="C79" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D79" s="91" t="s">
+      <c r="D79" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="91" t="s">
+      <c r="E79" s="93" t="s">
         <v>246</v>
       </c>
       <c r="F79" s="34" t="s">
@@ -9798,8 +9800,8 @@
       <c r="C80" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
       <c r="F80" s="34" t="s">
         <v>194</v>
       </c>
@@ -9823,8 +9825,8 @@
       <c r="C81" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
       <c r="F81" s="34" t="s">
         <v>211</v>
       </c>
@@ -9848,8 +9850,8 @@
       <c r="C82" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
       <c r="F82" s="34" t="s">
         <v>212</v>
       </c>
@@ -9873,8 +9875,8 @@
       <c r="C83" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
       <c r="F83" s="34" t="s">
         <v>213</v>
       </c>
@@ -9898,8 +9900,8 @@
       <c r="C84" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
       <c r="F84" s="34" t="s">
         <v>214</v>
       </c>
@@ -9923,8 +9925,8 @@
       <c r="C85" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
       <c r="F85" s="34" t="s">
         <v>215</v>
       </c>
@@ -9948,8 +9950,8 @@
       <c r="C86" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
       <c r="F86" s="34" t="s">
         <v>216</v>
       </c>
@@ -9973,8 +9975,8 @@
       <c r="C87" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
       <c r="F87" s="34" t="s">
         <v>217</v>
       </c>
@@ -9998,8 +10000,8 @@
       <c r="C88" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="94"/>
       <c r="F88" s="34" t="s">
         <v>218</v>
       </c>
@@ -10023,8 +10025,8 @@
       <c r="C89" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="92"/>
-      <c r="E89" s="92"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="94"/>
       <c r="F89" s="34" t="s">
         <v>219</v>
       </c>
@@ -10048,8 +10050,8 @@
       <c r="C90" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="94"/>
       <c r="F90" s="34" t="s">
         <v>220</v>
       </c>
@@ -10073,8 +10075,8 @@
       <c r="C91" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="94"/>
       <c r="F91" s="34" t="s">
         <v>221</v>
       </c>
@@ -10098,8 +10100,8 @@
       <c r="C92" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="94"/>
       <c r="F92" s="33" t="s">
         <v>227</v>
       </c>
@@ -10123,8 +10125,8 @@
       <c r="C93" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
       <c r="F93" s="33" t="s">
         <v>228</v>
       </c>
@@ -10150,8 +10152,8 @@
       <c r="C94" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="33" t="s">
         <v>229</v>
       </c>
@@ -10252,10 +10254,10 @@
       <c r="C98" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D98" s="94" t="s">
+      <c r="D98" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="94" t="s">
+      <c r="E98" s="96" t="s">
         <v>250</v>
       </c>
       <c r="F98" s="39" t="s">
@@ -10273,8 +10275,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="109"/>
-      <c r="E99" s="95"/>
+      <c r="D99" s="100"/>
+      <c r="E99" s="97"/>
       <c r="F99" s="39" t="s">
         <v>270</v>
       </c>
@@ -10290,8 +10292,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="109"/>
-      <c r="E100" s="95"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="97"/>
       <c r="F100" s="39" t="s">
         <v>271</v>
       </c>
@@ -10307,8 +10309,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="109"/>
-      <c r="E101" s="95"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="97"/>
       <c r="F101" s="39" t="s">
         <v>272</v>
       </c>
@@ -10324,8 +10326,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="109"/>
-      <c r="E102" s="95"/>
+      <c r="D102" s="100"/>
+      <c r="E102" s="97"/>
       <c r="F102" s="39" t="s">
         <v>273</v>
       </c>
@@ -10341,8 +10343,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="109"/>
-      <c r="E103" s="95"/>
+      <c r="D103" s="100"/>
+      <c r="E103" s="97"/>
       <c r="F103" s="39" t="s">
         <v>274</v>
       </c>
@@ -10358,8 +10360,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="109"/>
-      <c r="E104" s="95"/>
+      <c r="D104" s="100"/>
+      <c r="E104" s="97"/>
       <c r="F104" s="39" t="s">
         <v>275</v>
       </c>
@@ -10375,8 +10377,8 @@
       <c r="C105" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="109"/>
-      <c r="E105" s="95"/>
+      <c r="D105" s="100"/>
+      <c r="E105" s="97"/>
       <c r="F105" s="39" t="s">
         <v>276</v>
       </c>
@@ -10392,8 +10394,8 @@
       <c r="C106" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D106" s="109"/>
-      <c r="E106" s="95"/>
+      <c r="D106" s="100"/>
+      <c r="E106" s="97"/>
       <c r="F106" s="39" t="s">
         <v>277</v>
       </c>
@@ -10409,8 +10411,8 @@
       <c r="C107" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D107" s="109"/>
-      <c r="E107" s="95"/>
+      <c r="D107" s="100"/>
+      <c r="E107" s="97"/>
       <c r="F107" s="39" t="s">
         <v>278</v>
       </c>
@@ -10426,8 +10428,8 @@
       <c r="C108" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D108" s="110"/>
-      <c r="E108" s="96"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="98"/>
       <c r="F108" s="39" t="s">
         <v>278</v>
       </c>
@@ -10445,7 +10447,7 @@
       <c r="C109" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="D109" s="111" t="s">
+      <c r="D109" s="88" t="s">
         <v>256</v>
       </c>
       <c r="E109" s="39" t="s">
@@ -10466,7 +10468,7 @@
       <c r="C110" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D110" s="111" t="s">
+      <c r="D110" s="88" t="s">
         <v>257</v>
       </c>
       <c r="E110" s="39" t="s">
@@ -10667,18 +10669,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F42:F53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="F63:F64"/>
@@ -10689,6 +10679,18 @@
     <mergeCell ref="E20:E31"/>
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account.xlsx
+++ b/testcase_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4724FA-B2C4-4C0D-88B4-F20381E2638D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{22F3E105-B6F5-4EE7-BC31-5631C70FD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4822EE88-FCF3-4FDB-9733-BEC3E31ACC81}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="279">
   <si>
     <t>作成者</t>
   </si>
@@ -4142,150 +4142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>降順で表示される。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録で入力された内容が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録のラジオボタンで選択し、PHP MyAdminでは「0」か「1」で表示されていた内容が0を「男」、1を「女」として表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>オトコ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>オンナ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録の完了画面で自動的に「0」で送信されPHP MyAdminでは「0」か「1」で表示されていた内容が0を「有効」、1を「無効」として表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録のプルダウンで選択し、PHP MyAdminでは「0」か「1」で表示されていた内容が0を「一般」、1を「管理者」として表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録の完了画面で自動的に時間を取得し、PHP　MyAdminで年月日と時刻まで表示されていた内容を年月日のみ表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント一覧</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -4762,6 +4618,132 @@
       <t>ネンガッピ</t>
     </rPh>
     <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しは「操作」で削除ボタンとセルを結合し、その下に更新と書かれたボタンが中央寄せで表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しは「操作」で更新ボタンとセルを結合し、その下に削除と書かれたボタンが中央寄せで表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminでは「0」か「1」で表示されていた内容が0を「男」、1を「女」として中央寄せで表示される。</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>チュウオウヨ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminでは「0」か「1」で表示されていた内容が0を「一般」、1を「管理者」として中央寄せで表示される。</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminでは「0」か「1」で表示されていた内容が0を「有効」、1を「無効」として中央寄せで表示される。</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP　MyAdminで年月日と時刻まで表示されていた内容を年月日のみ中央寄せで表示される。</t>
+    <rPh sb="12" eb="15">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -5172,281 +5154,281 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5800,41 +5782,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D60" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="17" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="17" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="16" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="38" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="50" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" style="4" customWidth="1"/>
     <col min="14" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -5843,22 +5825,22 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="22"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="55" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="57" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="7">
@@ -5867,32 +5849,32 @@
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="87">
+      <c r="K2" s="85">
         <v>44375</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="58"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="46"/>
+      <c r="J3" s="44"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -5901,10 +5883,10 @@
       <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="43" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -5913,10 +5895,10 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="40" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -5927,32 +5909,32 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="59">
         <v>44354</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L5" s="9"/>
@@ -5961,200 +5943,200 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="60">
         <v>44354</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="68"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="60">
         <v>44354</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="24"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="74.400000000000006">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="60">
         <v>44354</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="24"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="60">
         <v>44354</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="24"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" ht="75">
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="60">
         <v>44354</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="24"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="12"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="60">
         <v>44354</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="24"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="25" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -6163,20 +6145,20 @@
       <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="68">
         <v>44354</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="64" t="s">
+      <c r="J12" s="65"/>
+      <c r="K12" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L12" s="11"/>
@@ -6185,26 +6167,26 @@
       <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="62">
+      <c r="G13" s="93"/>
+      <c r="H13" s="60">
         <v>44354</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="64" t="s">
+      <c r="J13" s="65"/>
+      <c r="K13" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L13" s="11"/>
@@ -6213,26 +6195,26 @@
       <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="62">
+      <c r="G14" s="93"/>
+      <c r="H14" s="60">
         <v>44354</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="64" t="s">
+      <c r="J14" s="30"/>
+      <c r="K14" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L14" s="11"/>
@@ -6241,26 +6223,26 @@
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="70">
+      <c r="G15" s="93"/>
+      <c r="H15" s="68">
         <v>44354</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="64" t="s">
+      <c r="J15" s="65"/>
+      <c r="K15" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L15" s="11"/>
@@ -6269,26 +6251,26 @@
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="62">
+      <c r="G16" s="93"/>
+      <c r="H16" s="60">
         <v>44354</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="64" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L16" s="11"/>
@@ -6297,26 +6279,26 @@
       <c r="A17" s="12">
         <v>12</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="62">
+      <c r="G17" s="93"/>
+      <c r="H17" s="60">
         <v>44354</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="69"/>
-      <c r="K17" s="64" t="s">
+      <c r="J17" s="67"/>
+      <c r="K17" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L17" s="11"/>
@@ -6325,26 +6307,26 @@
       <c r="A18" s="12">
         <v>13</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="70">
+      <c r="G18" s="93"/>
+      <c r="H18" s="68">
         <v>44354</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64" t="s">
+      <c r="J18" s="65"/>
+      <c r="K18" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L18" s="11"/>
@@ -6353,26 +6335,26 @@
       <c r="A19" s="12">
         <v>14</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="62">
+      <c r="G19" s="93"/>
+      <c r="H19" s="60">
         <v>44354</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="64" t="s">
+      <c r="J19" s="65"/>
+      <c r="K19" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L19" s="11"/>
@@ -6381,26 +6363,26 @@
       <c r="A20" s="12">
         <v>15</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="62">
+      <c r="G20" s="93"/>
+      <c r="H20" s="60">
         <v>44354</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64" t="s">
+      <c r="J20" s="65"/>
+      <c r="K20" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L20" s="11"/>
@@ -6409,26 +6391,26 @@
       <c r="A21" s="12">
         <v>16</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="70">
+      <c r="G21" s="93"/>
+      <c r="H21" s="68">
         <v>44354</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="64" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L21" s="11"/>
@@ -6437,26 +6419,26 @@
       <c r="A22" s="12">
         <v>17</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="62">
+      <c r="G22" s="93"/>
+      <c r="H22" s="60">
         <v>44354</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="64" t="s">
+      <c r="J22" s="67"/>
+      <c r="K22" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L22" s="11"/>
@@ -6465,26 +6447,26 @@
       <c r="A23" s="12">
         <v>18</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="62">
+      <c r="G23" s="94"/>
+      <c r="H23" s="60">
         <v>44354</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="64" t="s">
+      <c r="J23" s="30"/>
+      <c r="K23" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L23" s="11"/>
@@ -6493,8 +6475,8 @@
       <c r="A24" s="12">
         <v>19</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="25" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -6503,20 +6485,20 @@
       <c r="E24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="68">
         <v>44355</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="67"/>
-      <c r="K24" s="64" t="s">
+      <c r="J24" s="65"/>
+      <c r="K24" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L24" s="11"/>
@@ -6525,28 +6507,28 @@
       <c r="A25" s="12">
         <v>20</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="70">
+      <c r="H25" s="68">
         <v>44355</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="64" t="s">
+      <c r="J25" s="65"/>
+      <c r="K25" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L25" s="11"/>
@@ -6555,28 +6537,28 @@
       <c r="A26" s="12">
         <v>21</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="68">
         <v>44355</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="64" t="s">
+      <c r="J26" s="65"/>
+      <c r="K26" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L26" s="11"/>
@@ -6585,28 +6567,28 @@
       <c r="A27" s="12">
         <v>22</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="68">
         <v>44355</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="64" t="s">
+      <c r="J27" s="65"/>
+      <c r="K27" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L27" s="11"/>
@@ -6615,28 +6597,28 @@
       <c r="A28" s="12">
         <v>23</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="68">
         <v>44355</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="64" t="s">
+      <c r="J28" s="30"/>
+      <c r="K28" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L28" s="11"/>
@@ -6645,28 +6627,28 @@
       <c r="A29" s="12">
         <v>24</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="68">
         <v>44355</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="64" t="s">
+      <c r="J29" s="67"/>
+      <c r="K29" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L29" s="11"/>
@@ -6675,28 +6657,28 @@
       <c r="A30" s="12">
         <v>25</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="70">
+      <c r="H30" s="68">
         <v>44355</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="64" t="s">
+      <c r="J30" s="30"/>
+      <c r="K30" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L30" s="11"/>
@@ -6705,28 +6687,28 @@
       <c r="A31" s="12">
         <v>26</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="68">
         <v>44355</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="69"/>
-      <c r="K31" s="64" t="s">
+      <c r="J31" s="67"/>
+      <c r="K31" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L31" s="11"/>
@@ -6735,28 +6717,28 @@
       <c r="A32" s="12">
         <v>27</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="68">
         <v>44355</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="64" t="s">
+      <c r="J32" s="30"/>
+      <c r="K32" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L32" s="11"/>
@@ -6765,28 +6747,28 @@
       <c r="A33" s="12">
         <v>28</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="68">
         <v>44355</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="67"/>
-      <c r="K33" s="64" t="s">
+      <c r="J33" s="65"/>
+      <c r="K33" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L33" s="11"/>
@@ -6795,8 +6777,8 @@
       <c r="A34" s="12">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="37" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -6805,20 +6787,20 @@
       <c r="E34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="68">
         <v>44354</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="67"/>
-      <c r="K34" s="64" t="s">
+      <c r="J34" s="65"/>
+      <c r="K34" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L34" s="11"/>
@@ -6827,32 +6809,32 @@
       <c r="A35" s="12">
         <v>30</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H35" s="68">
         <v>44354</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="67"/>
-      <c r="K35" s="64" t="s">
+      <c r="J35" s="65"/>
+      <c r="K35" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L35" s="11"/>
@@ -6861,30 +6843,30 @@
       <c r="A36" s="12">
         <v>31</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="68">
         <v>44354</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="67"/>
-      <c r="K36" s="64" t="s">
+      <c r="J36" s="65"/>
+      <c r="K36" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L36" s="11"/>
@@ -6893,28 +6875,28 @@
       <c r="A37" s="12">
         <v>32</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="25" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="23" t="s">
         <v>95</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="70">
+      <c r="H37" s="68">
         <v>44354</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="64" t="s">
+      <c r="J37" s="65"/>
+      <c r="K37" s="62" t="s">
         <v>145</v>
       </c>
       <c r="L37" s="11"/>
@@ -6923,28 +6905,28 @@
       <c r="A38" s="12">
         <v>33</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="68">
         <v>44354</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="41" t="s">
+      <c r="J38" s="65"/>
+      <c r="K38" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L38" s="11"/>
@@ -6953,26 +6935,26 @@
       <c r="A39" s="12">
         <v>34</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="97"/>
-      <c r="H39" s="70">
+      <c r="G39" s="96"/>
+      <c r="H39" s="68">
         <v>44354</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="67"/>
-      <c r="K39" s="41" t="s">
+      <c r="J39" s="65"/>
+      <c r="K39" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L39" s="11"/>
@@ -6981,26 +6963,26 @@
       <c r="A40" s="12">
         <v>35</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="70">
+      <c r="G40" s="96"/>
+      <c r="H40" s="68">
         <v>44354</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="32"/>
-      <c r="K40" s="41" t="s">
+      <c r="J40" s="30"/>
+      <c r="K40" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L40" s="11"/>
@@ -7009,26 +6991,26 @@
       <c r="A41" s="12">
         <v>36</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="70">
+      <c r="G41" s="96"/>
+      <c r="H41" s="68">
         <v>44354</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="67"/>
-      <c r="K41" s="41" t="s">
+      <c r="J41" s="65"/>
+      <c r="K41" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L41" s="11"/>
@@ -7037,26 +7019,26 @@
       <c r="A42" s="12">
         <v>37</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="98"/>
-      <c r="H42" s="70">
+      <c r="G42" s="97"/>
+      <c r="H42" s="68">
         <v>44354</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="67"/>
-      <c r="K42" s="41" t="s">
+      <c r="J42" s="65"/>
+      <c r="K42" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L42" s="11"/>
@@ -7065,30 +7047,30 @@
       <c r="A43" s="12">
         <v>38</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="70">
+      <c r="H43" s="68">
         <v>44354</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="67" t="s">
+      <c r="J43" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L43" s="11"/>
@@ -7097,28 +7079,28 @@
       <c r="A44" s="12">
         <v>39</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="70">
+      <c r="H44" s="68">
         <v>44354</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="41" t="s">
+      <c r="J44" s="30"/>
+      <c r="K44" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L44" s="11"/>
@@ -7127,30 +7109,30 @@
       <c r="A45" s="12">
         <v>40</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="70">
+      <c r="H45" s="68">
         <v>44354</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="67" t="s">
+      <c r="J45" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L45" s="11"/>
@@ -7159,28 +7141,28 @@
       <c r="A46" s="12">
         <v>41</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="70">
+      <c r="H46" s="68">
         <v>44354</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="67"/>
-      <c r="K46" s="41" t="s">
+      <c r="J46" s="65"/>
+      <c r="K46" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L46" s="11"/>
@@ -7189,28 +7171,28 @@
       <c r="A47" s="12">
         <v>42</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="96" t="s">
+      <c r="G47" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="68">
         <v>44354</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="41" t="s">
+      <c r="J47" s="30"/>
+      <c r="K47" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L47" s="11"/>
@@ -7219,26 +7201,26 @@
       <c r="A48" s="12">
         <v>43</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="98"/>
-      <c r="H48" s="70">
+      <c r="G48" s="97"/>
+      <c r="H48" s="68">
         <v>44354</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="69"/>
-      <c r="K48" s="41" t="s">
+      <c r="J48" s="67"/>
+      <c r="K48" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L48" s="11"/>
@@ -7247,28 +7229,28 @@
       <c r="A49" s="12">
         <v>44</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="70">
+      <c r="H49" s="68">
         <v>44354</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="41" t="s">
+      <c r="J49" s="30"/>
+      <c r="K49" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L49" s="11"/>
@@ -7277,28 +7259,28 @@
       <c r="A50" s="12">
         <v>45</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="25" t="s">
+      <c r="B50" s="47"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="70">
+      <c r="H50" s="68">
         <v>44354</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="41" t="s">
+      <c r="J50" s="30"/>
+      <c r="K50" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L50" s="11"/>
@@ -7307,30 +7289,30 @@
       <c r="A51" s="12">
         <v>46</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="39" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="23" t="s">
         <v>121</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="70">
+      <c r="H51" s="68">
         <v>44354</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="32"/>
-      <c r="K51" s="41" t="s">
+      <c r="J51" s="30"/>
+      <c r="K51" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L51" s="11"/>
@@ -7339,32 +7321,32 @@
       <c r="A52" s="12">
         <v>47</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="70">
+      <c r="H52" s="68">
         <v>44354</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="32"/>
-      <c r="K52" s="41" t="s">
+      <c r="J52" s="30"/>
+      <c r="K52" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L52" s="11"/>
@@ -7373,30 +7355,30 @@
       <c r="A53" s="12">
         <v>48</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="39" t="s">
+      <c r="B53" s="48"/>
+      <c r="C53" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="70">
+      <c r="H53" s="68">
         <v>44354</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="69"/>
-      <c r="K53" s="41" t="s">
+      <c r="J53" s="67"/>
+      <c r="K53" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L53" s="11"/>
@@ -7405,28 +7387,28 @@
       <c r="A54" s="12">
         <v>49</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="25" t="s">
+      <c r="B54" s="48"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="23" t="s">
         <v>136</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="70">
+      <c r="H54" s="68">
         <v>44354</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="32"/>
-      <c r="K54" s="41" t="s">
+      <c r="J54" s="30"/>
+      <c r="K54" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L54" s="11"/>
@@ -7435,28 +7417,28 @@
       <c r="A55" s="12">
         <v>50</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="25" t="s">
+      <c r="B55" s="48"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="23" t="s">
         <v>132</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="39" t="s">
+      <c r="F55" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G55" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="70">
+      <c r="H55" s="68">
         <v>44354</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="69"/>
-      <c r="K55" s="41" t="s">
+      <c r="J55" s="67"/>
+      <c r="K55" s="39" t="s">
         <v>145</v>
       </c>
       <c r="L55" s="11"/>
@@ -7465,357 +7447,492 @@
       <c r="A56" s="12">
         <v>51</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="39" t="s">
+      <c r="B56" s="47"/>
+      <c r="C56" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="23" t="s">
         <v>136</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="68">
         <v>44355</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="32" t="s">
+      <c r="J56" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="K56" s="41" t="s">
+      <c r="K56" s="39" t="s">
         <v>149</v>
       </c>
       <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12" ht="30">
-      <c r="A57" s="12"/>
-      <c r="B57" s="50" t="s">
+      <c r="A57" s="12">
+        <v>52</v>
+      </c>
+      <c r="B57" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="93" t="s">
+      <c r="F57" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="41"/>
+      <c r="H57" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="30"/>
+      <c r="K57" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12" ht="30">
-      <c r="A58" s="20"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="12">
+        <v>53</v>
+      </c>
+      <c r="B58" s="49"/>
+      <c r="C58" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="94"/>
-      <c r="G58" s="34" t="s">
+      <c r="F58" s="93"/>
+      <c r="G58" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="41"/>
+      <c r="H58" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="30"/>
+      <c r="K58" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A59" s="12"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="27" t="s">
+    <row r="59" spans="1:12" ht="30">
+      <c r="A59" s="12">
+        <v>54</v>
+      </c>
+      <c r="B59" s="48"/>
+      <c r="C59" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="99" t="s">
+      <c r="E59" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="94"/>
-      <c r="G59" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="41"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="30"/>
+      <c r="K59" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A60" s="12"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="27"/>
+    <row r="60" spans="1:12" ht="30">
+      <c r="A60" s="12">
+        <v>55</v>
+      </c>
+      <c r="B60" s="48"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="100"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="41"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="30"/>
+      <c r="K60" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A61" s="12"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="27"/>
+    <row r="61" spans="1:12" ht="30">
+      <c r="A61" s="12">
+        <v>56</v>
+      </c>
+      <c r="B61" s="48"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="100"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="41"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="30"/>
+      <c r="K61" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="27"/>
+    <row r="62" spans="1:12" ht="30">
+      <c r="A62" s="12">
+        <v>57</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="100"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="41"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="H62" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A63" s="12"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="27"/>
+    <row r="63" spans="1:12" ht="30">
+      <c r="A63" s="12">
+        <v>58</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="100"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="41"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="30"/>
+      <c r="K63" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="27"/>
+    <row r="64" spans="1:12" ht="30">
+      <c r="A64" s="12">
+        <v>59</v>
+      </c>
+      <c r="B64" s="48"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="100"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="41"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="30"/>
+      <c r="K64" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:12" ht="45">
-      <c r="A65" s="12"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="27"/>
+    <row r="65" spans="1:12" ht="30">
+      <c r="A65" s="12">
+        <v>60</v>
+      </c>
+      <c r="B65" s="48"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="100"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="41"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="H65" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="30"/>
+      <c r="K65" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L65" s="11"/>
     </row>
     <row r="66" spans="1:12" ht="45">
-      <c r="A66" s="12"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="26" t="s">
+      <c r="A66" s="12">
+        <v>61</v>
+      </c>
+      <c r="B66" s="48"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="100"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="41"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="H66" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="30"/>
+      <c r="K66" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L66" s="11"/>
     </row>
     <row r="67" spans="1:12" ht="45">
-      <c r="A67" s="12"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="39" t="s">
+      <c r="A67" s="12">
+        <v>62</v>
+      </c>
+      <c r="B67" s="48"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="100"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="41"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H67" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="30"/>
+      <c r="K67" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" ht="45">
-      <c r="A68" s="12"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="39" t="s">
+    <row r="68" spans="1:12" ht="30">
+      <c r="A68" s="12">
+        <v>63</v>
+      </c>
+      <c r="B68" s="48"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="100"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="41"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H68" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="30"/>
+      <c r="K68" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" ht="45">
-      <c r="A69" s="12"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="39" t="s">
+    <row r="69" spans="1:12" ht="30">
+      <c r="A69" s="12">
+        <v>64</v>
+      </c>
+      <c r="B69" s="48"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E69" s="101"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="41"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H69" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="30"/>
+      <c r="K69" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="41"/>
+    <row r="70" spans="1:12" ht="30">
+      <c r="A70" s="12">
+        <v>65</v>
+      </c>
+      <c r="B70" s="48"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" s="99"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H70" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="30"/>
+      <c r="K70" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="41"/>
+    <row r="71" spans="1:12" ht="30">
+      <c r="A71" s="12">
+        <v>66</v>
+      </c>
+      <c r="B71" s="48"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="100"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="H71" s="68">
+        <v>44376</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="30"/>
+      <c r="K71" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12" ht="11.25" customHeight="1">
       <c r="A72" s="12"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="26"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="33"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="31"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="41"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="39"/>
       <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12" ht="11.25" customHeight="1">
       <c r="A73" s="12"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="26"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="33"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="31"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="41"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="39"/>
       <c r="L73" s="11"/>
     </row>
     <row r="74" spans="1:12" ht="11.25" customHeight="1">
       <c r="A74" s="12"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="33"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="31"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="41"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="39"/>
       <c r="L74" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G12:G23"/>
     <mergeCell ref="G38:G42"/>
     <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E69"/>
-    <mergeCell ref="F57:F69"/>
-    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -7828,39 +7945,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" topLeftCell="A96" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="38" customWidth="1"/>
     <col min="7" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" style="52" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="50" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" style="4" customWidth="1"/>
     <col min="13" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -7869,21 +7986,21 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="55" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="57" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="7">
@@ -7892,40 +8009,40 @@
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="87">
+      <c r="J2" s="85">
         <v>44375</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="46"/>
+      <c r="I3" s="44"/>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="82" t="s">
         <v>152</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="74" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -7934,10 +8051,10 @@
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="40" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="18" t="s">
@@ -7948,29 +8065,29 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="59">
         <v>44369</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="66" t="s">
+      <c r="I5" s="66"/>
+      <c r="J5" s="64" t="s">
         <v>145</v>
       </c>
       <c r="K5" s="9"/>
@@ -7979,82 +8096,82 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="60">
         <v>44369</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="30">
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="60">
         <v>44369</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="I7" s="66"/>
+      <c r="J7" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="60">
         <v>44369</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -8064,41 +8181,41 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" ht="30">
+    <row r="9" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="33" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="62">
+      <c r="F9" s="93"/>
+      <c r="G9" s="60">
         <v>44369</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" ht="30">
+      <c r="J9" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="33" t="s">
+      <c r="D10" s="93"/>
+      <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="62">
+      <c r="F10" s="93"/>
+      <c r="G10" s="60">
         <v>44369</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -8108,41 +8225,41 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="30">
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="33" t="s">
+      <c r="D11" s="93"/>
+      <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="62">
+      <c r="F11" s="93"/>
+      <c r="G11" s="60">
         <v>44369</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="J11" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="62">
+      <c r="F12" s="93"/>
+      <c r="G12" s="60">
         <v>44369</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -8152,41 +8269,41 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="26" customFormat="1" ht="30">
+    <row r="13" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="62">
+      <c r="F13" s="93"/>
+      <c r="G13" s="60">
         <v>44369</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="J13" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="62">
+      <c r="F14" s="93"/>
+      <c r="G14" s="60">
         <v>44369</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -8196,41 +8313,41 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="26" customFormat="1" ht="30">
+    <row r="15" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="62">
+      <c r="F15" s="93"/>
+      <c r="G15" s="60">
         <v>44369</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="J15" s="65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="J15" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="33" t="s">
+      <c r="D16" s="93"/>
+      <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="62">
+      <c r="F16" s="93"/>
+      <c r="G16" s="60">
         <v>44369</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -8240,41 +8357,41 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="26" customFormat="1" ht="45">
+    <row r="17" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="33" t="s">
+      <c r="D17" s="93"/>
+      <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="62">
+      <c r="F17" s="93"/>
+      <c r="G17" s="60">
         <v>44369</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="26" customFormat="1" ht="45">
+      <c r="J17" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="93"/>
+      <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="62">
+      <c r="F18" s="93"/>
+      <c r="G18" s="60">
         <v>44369</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -8284,25 +8401,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="26" customFormat="1" ht="45">
+    <row r="19" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="33" t="s">
+      <c r="D19" s="94"/>
+      <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="62">
+      <c r="F19" s="94"/>
+      <c r="G19" s="60">
         <v>44369</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8310,120 +8427,120 @@
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="60">
         <v>44369</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="24"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" ht="15">
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="62">
+      <c r="D21" s="93"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="60">
         <v>44369</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="24"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" ht="15">
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="62">
+      <c r="D22" s="93"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="60">
         <v>44369</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="24"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" ht="15">
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="62">
+      <c r="D23" s="93"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="60">
         <v>44369</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="24"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" ht="15">
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="62">
+      <c r="D24" s="93"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="60">
         <v>44369</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I24" s="67"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="17" t="s">
         <v>145</v>
       </c>
@@ -8433,23 +8550,23 @@
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="33" t="s">
+      <c r="D25" s="93"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="60">
         <v>44369</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="65" t="s">
+      <c r="I25" s="65"/>
+      <c r="J25" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K25" s="11"/>
@@ -8458,22 +8575,22 @@
       <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="93" t="s">
+      <c r="D26" s="93"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="60">
         <v>44369</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="17" t="s">
         <v>145</v>
       </c>
@@ -8483,21 +8600,21 @@
       <c r="A27" s="12">
         <v>23</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="62">
+      <c r="D27" s="93"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="60">
         <v>44369</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="65" t="s">
+      <c r="I27" s="65"/>
+      <c r="J27" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K27" s="11"/>
@@ -8506,20 +8623,20 @@
       <c r="A28" s="12">
         <v>24</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="62">
+      <c r="D28" s="93"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="60">
         <v>44369</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I28" s="32"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="17" t="s">
         <v>145</v>
       </c>
@@ -8529,21 +8646,21 @@
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="76"/>
+      <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="62">
+      <c r="D29" s="93"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="60">
         <v>44369</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="65" t="s">
+      <c r="I29" s="67"/>
+      <c r="J29" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K29" s="11"/>
@@ -8552,20 +8669,20 @@
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="62">
+      <c r="D30" s="93"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="60">
         <v>44369</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I30" s="67"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="17" t="s">
         <v>145</v>
       </c>
@@ -8575,21 +8692,21 @@
       <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="62">
+      <c r="D31" s="94"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="60">
         <v>44369</v>
       </c>
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="65" t="s">
+      <c r="I31" s="65"/>
+      <c r="J31" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K31" s="11"/>
@@ -8598,28 +8715,28 @@
       <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="62">
+      <c r="G32" s="60">
         <v>44369</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I32" s="67"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="17" t="s">
         <v>145</v>
       </c>
@@ -8629,25 +8746,25 @@
       <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="72"/>
+      <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="33" t="s">
+      <c r="D33" s="93"/>
+      <c r="E33" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="60">
         <v>44369</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="65" t="s">
+      <c r="I33" s="30"/>
+      <c r="J33" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K33" s="11"/>
@@ -8656,24 +8773,24 @@
       <c r="A34" s="12">
         <v>30</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="60">
         <v>44369</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I34" s="69"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="17" t="s">
         <v>145</v>
       </c>
@@ -8683,25 +8800,25 @@
       <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="33" t="s">
+      <c r="D35" s="93"/>
+      <c r="E35" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="60">
         <v>44369</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="65" t="s">
+      <c r="I35" s="30"/>
+      <c r="J35" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K35" s="11"/>
@@ -8710,24 +8827,24 @@
       <c r="A36" s="12">
         <v>32</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="33" t="s">
+      <c r="D36" s="93"/>
+      <c r="E36" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="60">
         <v>44369</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I36" s="67"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="17" t="s">
         <v>145</v>
       </c>
@@ -8737,25 +8854,25 @@
       <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="33" t="s">
+      <c r="D37" s="93"/>
+      <c r="E37" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="62">
+      <c r="G37" s="60">
         <v>44369</v>
       </c>
-      <c r="H37" s="86" t="s">
+      <c r="H37" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="65" t="s">
+      <c r="I37" s="31"/>
+      <c r="J37" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K37" s="11"/>
@@ -8764,24 +8881,24 @@
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="76"/>
+      <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="33" t="s">
+      <c r="D38" s="93"/>
+      <c r="E38" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="G38" s="62">
+      <c r="G38" s="60">
         <v>44369</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I38" s="32"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="17" t="s">
         <v>145</v>
       </c>
@@ -8791,25 +8908,25 @@
       <c r="A39" s="12">
         <v>35</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="33" t="s">
+      <c r="D39" s="93"/>
+      <c r="E39" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="60">
         <v>44369</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="65" t="s">
+      <c r="I39" s="67"/>
+      <c r="J39" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K39" s="11"/>
@@ -8818,24 +8935,24 @@
       <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="48"/>
+      <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="33" t="s">
+      <c r="D40" s="93"/>
+      <c r="E40" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="60">
         <v>44369</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I40" s="32"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="17" t="s">
         <v>145</v>
       </c>
@@ -8845,25 +8962,25 @@
       <c r="A41" s="12">
         <v>37</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="48"/>
+      <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="33" t="s">
+      <c r="D41" s="94"/>
+      <c r="E41" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G41" s="60">
         <v>44369</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I41" s="67"/>
-      <c r="J41" s="65" t="s">
+      <c r="I41" s="65"/>
+      <c r="J41" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K41" s="11"/>
@@ -8872,28 +8989,28 @@
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="E42" s="96" t="s">
+      <c r="E42" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="F42" s="96" t="s">
+      <c r="F42" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G42" s="60">
         <v>44369</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I42" s="67"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="17" t="s">
         <v>145</v>
       </c>
@@ -8903,21 +9020,21 @@
       <c r="A43" s="12">
         <v>39</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="62">
+      <c r="D43" s="109"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="60">
         <v>44369</v>
       </c>
-      <c r="H43" s="86" t="s">
+      <c r="H43" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="65" t="s">
+      <c r="I43" s="65"/>
+      <c r="J43" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K43" s="11"/>
@@ -8926,20 +9043,20 @@
       <c r="A44" s="12">
         <v>40</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="62">
+      <c r="D44" s="109"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="60">
         <v>44369</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I44" s="67"/>
+      <c r="I44" s="65"/>
       <c r="J44" s="17" t="s">
         <v>145</v>
       </c>
@@ -8949,21 +9066,21 @@
       <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="48"/>
+      <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="62">
+      <c r="D45" s="109"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="60">
         <v>44369</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="65" t="s">
+      <c r="I45" s="65"/>
+      <c r="J45" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K45" s="11"/>
@@ -8972,20 +9089,20 @@
       <c r="A46" s="12">
         <v>42</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="62">
+      <c r="D46" s="109"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="60">
         <v>44369</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I46" s="67"/>
+      <c r="I46" s="65"/>
       <c r="J46" s="17" t="s">
         <v>145</v>
       </c>
@@ -8995,21 +9112,21 @@
       <c r="A47" s="12">
         <v>43</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="102"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="62">
+      <c r="D47" s="109"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="60">
         <v>44369</v>
       </c>
-      <c r="H47" s="86" t="s">
+      <c r="H47" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="65" t="s">
+      <c r="I47" s="65"/>
+      <c r="J47" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K47" s="11"/>
@@ -9018,20 +9135,20 @@
       <c r="A48" s="12">
         <v>44</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="48"/>
+      <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="62">
+      <c r="D48" s="109"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="60">
         <v>44369</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I48" s="32"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="17" t="s">
         <v>145</v>
       </c>
@@ -9041,21 +9158,21 @@
       <c r="A49" s="12">
         <v>45</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="62">
+      <c r="D49" s="109"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="60">
         <v>44369</v>
       </c>
-      <c r="H49" s="86" t="s">
+      <c r="H49" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I49" s="67"/>
-      <c r="J49" s="65" t="s">
+      <c r="I49" s="65"/>
+      <c r="J49" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K49" s="11"/>
@@ -9064,20 +9181,20 @@
       <c r="A50" s="12">
         <v>46</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="48"/>
+      <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="62">
+      <c r="D50" s="109"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="60">
         <v>44369</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I50" s="67"/>
+      <c r="I50" s="65"/>
       <c r="J50" s="17" t="s">
         <v>145</v>
       </c>
@@ -9087,21 +9204,21 @@
       <c r="A51" s="12">
         <v>47</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="102"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="62">
+      <c r="D51" s="109"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="60">
         <v>44369</v>
       </c>
-      <c r="H51" s="86" t="s">
+      <c r="H51" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I51" s="67"/>
-      <c r="J51" s="65" t="s">
+      <c r="I51" s="65"/>
+      <c r="J51" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K51" s="11"/>
@@ -9110,20 +9227,20 @@
       <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="62">
+      <c r="D52" s="109"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="60">
         <v>44369</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I52" s="32"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="17" t="s">
         <v>145</v>
       </c>
@@ -9133,21 +9250,21 @@
       <c r="A53" s="12">
         <v>49</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="26" t="s">
+      <c r="B53" s="48"/>
+      <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="103"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="62">
+      <c r="D53" s="110"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="60">
         <v>44369</v>
       </c>
-      <c r="H53" s="86" t="s">
+      <c r="H53" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I53" s="67"/>
-      <c r="J53" s="65" t="s">
+      <c r="I53" s="65"/>
+      <c r="J53" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K53" s="11"/>
@@ -9156,28 +9273,28 @@
       <c r="A54" s="12">
         <v>50</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="93" t="s">
+      <c r="D54" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="F54" s="106" t="s">
+      <c r="F54" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="G54" s="62">
+      <c r="G54" s="60">
         <v>44369</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I54" s="67"/>
+      <c r="I54" s="65"/>
       <c r="J54" s="17" t="s">
         <v>145</v>
       </c>
@@ -9187,21 +9304,21 @@
       <c r="A55" s="12">
         <v>51</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="26" t="s">
+      <c r="B55" s="48"/>
+      <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="102"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="62">
+      <c r="D55" s="109"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="60">
         <v>44369</v>
       </c>
-      <c r="H55" s="86" t="s">
+      <c r="H55" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I55" s="67"/>
-      <c r="J55" s="65" t="s">
+      <c r="I55" s="65"/>
+      <c r="J55" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K55" s="11"/>
@@ -9210,20 +9327,20 @@
       <c r="A56" s="12">
         <v>52</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="26" t="s">
+      <c r="B56" s="48"/>
+      <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="62">
+      <c r="D56" s="109"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="60">
         <v>44369</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I56" s="67"/>
+      <c r="I56" s="65"/>
       <c r="J56" s="17" t="s">
         <v>145</v>
       </c>
@@ -9233,21 +9350,21 @@
       <c r="A57" s="12">
         <v>53</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="48"/>
+      <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="62">
+      <c r="D57" s="109"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="60">
         <v>44369</v>
       </c>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I57" s="67"/>
-      <c r="J57" s="65" t="s">
+      <c r="I57" s="65"/>
+      <c r="J57" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K57" s="11"/>
@@ -9256,20 +9373,20 @@
       <c r="A58" s="12">
         <v>54</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="48"/>
+      <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="62">
+      <c r="D58" s="109"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="60">
         <v>44369</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I58" s="67"/>
+      <c r="I58" s="65"/>
       <c r="J58" s="17" t="s">
         <v>145</v>
       </c>
@@ -9279,21 +9396,21 @@
       <c r="A59" s="12">
         <v>55</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="26" t="s">
+      <c r="B59" s="48"/>
+      <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="102"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="62">
+      <c r="D59" s="109"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="60">
         <v>44369</v>
       </c>
-      <c r="H59" s="86" t="s">
+      <c r="H59" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I59" s="67"/>
-      <c r="J59" s="65" t="s">
+      <c r="I59" s="65"/>
+      <c r="J59" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K59" s="11"/>
@@ -9302,22 +9419,22 @@
       <c r="A60" s="12">
         <v>56</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="26" t="s">
+      <c r="B60" s="48"/>
+      <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="34" t="s">
+      <c r="D60" s="109"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="G60" s="62">
+      <c r="G60" s="60">
         <v>44369</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I60" s="32"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="17" t="s">
         <v>145</v>
       </c>
@@ -9327,23 +9444,23 @@
       <c r="A61" s="12">
         <v>57</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="26" t="s">
+      <c r="B61" s="48"/>
+      <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="102"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="34" t="s">
+      <c r="D61" s="109"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G61" s="62">
+      <c r="G61" s="60">
         <v>44369</v>
       </c>
-      <c r="H61" s="86" t="s">
+      <c r="H61" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I61" s="67"/>
-      <c r="J61" s="65" t="s">
+      <c r="I61" s="65"/>
+      <c r="J61" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K61" s="11"/>
@@ -9352,22 +9469,22 @@
       <c r="A62" s="12">
         <v>58</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="26" t="s">
+      <c r="B62" s="48"/>
+      <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="102"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="34" t="s">
+      <c r="D62" s="109"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="G62" s="62">
+      <c r="G62" s="60">
         <v>44369</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I62" s="67"/>
+      <c r="I62" s="65"/>
       <c r="J62" s="17" t="s">
         <v>145</v>
       </c>
@@ -9377,23 +9494,23 @@
       <c r="A63" s="12">
         <v>59</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="26" t="s">
+      <c r="B63" s="48"/>
+      <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="102"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="106" t="s">
+      <c r="D63" s="109"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="G63" s="62">
+      <c r="G63" s="60">
         <v>44369</v>
       </c>
-      <c r="H63" s="86" t="s">
+      <c r="H63" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I63" s="67"/>
-      <c r="J63" s="65" t="s">
+      <c r="I63" s="65"/>
+      <c r="J63" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K63" s="11"/>
@@ -9402,20 +9519,20 @@
       <c r="A64" s="12">
         <v>60</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="26" t="s">
+      <c r="B64" s="76"/>
+      <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="102"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="62">
+      <c r="D64" s="109"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="60">
         <v>44369</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I64" s="32"/>
+      <c r="I64" s="30"/>
       <c r="J64" s="17" t="s">
         <v>145</v>
       </c>
@@ -9425,23 +9542,23 @@
       <c r="A65" s="12">
         <v>61</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="48"/>
+      <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="103"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="34" t="s">
+      <c r="D65" s="110"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="G65" s="62">
+      <c r="G65" s="60">
         <v>44369</v>
       </c>
-      <c r="H65" s="86" t="s">
+      <c r="H65" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I65" s="67"/>
-      <c r="J65" s="65" t="s">
+      <c r="I65" s="65"/>
+      <c r="J65" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K65" s="11"/>
@@ -9450,28 +9567,28 @@
       <c r="A66" s="12">
         <v>62</v>
       </c>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="E66" s="93" t="s">
+      <c r="E66" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="F66" s="96" t="s">
+      <c r="F66" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="62">
+      <c r="G66" s="60">
         <v>44369</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I66" s="67"/>
+      <c r="I66" s="65"/>
       <c r="J66" s="17" t="s">
         <v>145</v>
       </c>
@@ -9481,21 +9598,21 @@
       <c r="A67" s="12">
         <v>63</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="26" t="s">
+      <c r="B67" s="48"/>
+      <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="102"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="62">
+      <c r="D67" s="109"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="60">
         <v>44369</v>
       </c>
-      <c r="H67" s="86" t="s">
+      <c r="H67" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="65" t="s">
+      <c r="I67" s="30"/>
+      <c r="J67" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K67" s="11"/>
@@ -9504,20 +9621,20 @@
       <c r="A68" s="12">
         <v>64</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="48"/>
+      <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="102"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="62">
+      <c r="D68" s="109"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="60">
         <v>44369</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I68" s="69"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="17" t="s">
         <v>145</v>
       </c>
@@ -9527,21 +9644,21 @@
       <c r="A69" s="12">
         <v>65</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="26" t="s">
+      <c r="B69" s="75"/>
+      <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="102"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="62">
+      <c r="D69" s="109"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="60">
         <v>44369</v>
       </c>
-      <c r="H69" s="86" t="s">
+      <c r="H69" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="65" t="s">
+      <c r="I69" s="30"/>
+      <c r="J69" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K69" s="11"/>
@@ -9550,20 +9667,20 @@
       <c r="A70" s="12">
         <v>66</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="48"/>
+      <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="102"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="97"/>
-      <c r="G70" s="62">
+      <c r="D70" s="109"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="60">
         <v>44369</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I70" s="32"/>
+      <c r="I70" s="30"/>
       <c r="J70" s="17" t="s">
         <v>145</v>
       </c>
@@ -9573,21 +9690,21 @@
       <c r="A71" s="12">
         <v>67</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="26" t="s">
+      <c r="B71" s="48"/>
+      <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="102"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="62">
+      <c r="D71" s="109"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="60">
         <v>44369</v>
       </c>
-      <c r="H71" s="86" t="s">
+      <c r="H71" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I71" s="32"/>
-      <c r="J71" s="65" t="s">
+      <c r="I71" s="30"/>
+      <c r="J71" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K71" s="11"/>
@@ -9596,20 +9713,20 @@
       <c r="A72" s="12">
         <v>68</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="26" t="s">
+      <c r="B72" s="48"/>
+      <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="62">
+      <c r="D72" s="109"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="60">
         <v>44369</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I72" s="32"/>
+      <c r="I72" s="30"/>
       <c r="J72" s="17" t="s">
         <v>145</v>
       </c>
@@ -9619,21 +9736,21 @@
       <c r="A73" s="12">
         <v>69</v>
       </c>
-      <c r="B73" s="78"/>
-      <c r="C73" s="26" t="s">
+      <c r="B73" s="76"/>
+      <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="102"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="62">
+      <c r="D73" s="109"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="60">
         <v>44369</v>
       </c>
-      <c r="H73" s="86" t="s">
+      <c r="H73" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I73" s="69"/>
-      <c r="J73" s="65" t="s">
+      <c r="I73" s="67"/>
+      <c r="J73" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K73" s="11"/>
@@ -9642,20 +9759,20 @@
       <c r="A74" s="12">
         <v>70</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="26" t="s">
+      <c r="B74" s="48"/>
+      <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="62">
+      <c r="D74" s="109"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="60">
         <v>44369</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I74" s="32"/>
+      <c r="I74" s="30"/>
       <c r="J74" s="17" t="s">
         <v>145</v>
       </c>
@@ -9665,21 +9782,21 @@
       <c r="A75" s="12">
         <v>71</v>
       </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="26" t="s">
+      <c r="B75" s="48"/>
+      <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="102"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="62">
+      <c r="D75" s="109"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="60">
         <v>44369</v>
       </c>
-      <c r="H75" s="86" t="s">
+      <c r="H75" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I75" s="69"/>
-      <c r="J75" s="65" t="s">
+      <c r="I75" s="67"/>
+      <c r="J75" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K75" s="11"/>
@@ -9688,20 +9805,20 @@
       <c r="A76" s="12">
         <v>72</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="26" t="s">
+      <c r="B76" s="48"/>
+      <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="62">
+      <c r="D76" s="109"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="60">
         <v>44369</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I76" s="32"/>
+      <c r="I76" s="30"/>
       <c r="J76" s="17" t="s">
         <v>145</v>
       </c>
@@ -9711,21 +9828,21 @@
       <c r="A77" s="12">
         <v>73</v>
       </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="26" t="s">
+      <c r="B77" s="48"/>
+      <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="103"/>
-      <c r="E77" s="95"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="62">
+      <c r="D77" s="110"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="60">
         <v>44369</v>
       </c>
-      <c r="H77" s="86" t="s">
+      <c r="H77" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="65" t="s">
+      <c r="I77" s="30"/>
+      <c r="J77" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K77" s="11"/>
@@ -9734,29 +9851,29 @@
       <c r="A78" s="12">
         <v>74</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="F78" s="34" t="s">
+      <c r="F78" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G78" s="62">
+      <c r="G78" s="60">
         <v>44369</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="41" t="s">
+      <c r="I78" s="30"/>
+      <c r="J78" s="39" t="s">
         <v>149</v>
       </c>
       <c r="K78" s="11"/>
@@ -9765,29 +9882,29 @@
       <c r="A79" s="12">
         <v>75</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D79" s="93" t="s">
+      <c r="D79" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="93" t="s">
-        <v>246</v>
-      </c>
-      <c r="F79" s="34" t="s">
+      <c r="E79" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="F79" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="G79" s="62">
+      <c r="G79" s="60">
         <v>44369</v>
       </c>
-      <c r="H79" s="86" t="s">
+      <c r="H79" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I79" s="32"/>
-      <c r="J79" s="65" t="s">
+      <c r="I79" s="30"/>
+      <c r="J79" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K79" s="11"/>
@@ -9797,21 +9914,21 @@
         <v>76</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="34" t="s">
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="G80" s="62">
+      <c r="G80" s="60">
         <v>44369</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I80" s="32"/>
+      <c r="I80" s="30"/>
       <c r="J80" s="17" t="s">
         <v>145</v>
       </c>
@@ -9821,23 +9938,23 @@
       <c r="A81" s="12">
         <v>77</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="26" t="s">
+      <c r="B81" s="48"/>
+      <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="34" t="s">
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="G81" s="62">
+      <c r="G81" s="60">
         <v>44369</v>
       </c>
-      <c r="H81" s="86" t="s">
+      <c r="H81" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I81" s="32"/>
-      <c r="J81" s="65" t="s">
+      <c r="I81" s="30"/>
+      <c r="J81" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K81" s="11"/>
@@ -9846,23 +9963,23 @@
       <c r="A82" s="12">
         <v>78</v>
       </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="26" t="s">
+      <c r="B82" s="48"/>
+      <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="94"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="34" t="s">
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="G82" s="62">
+      <c r="G82" s="60">
         <v>44369</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I82" s="32"/>
-      <c r="J82" s="65" t="s">
+      <c r="I82" s="30"/>
+      <c r="J82" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K82" s="11"/>
@@ -9871,22 +9988,22 @@
       <c r="A83" s="12">
         <v>79</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="26" t="s">
+      <c r="B83" s="48"/>
+      <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="34" t="s">
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="G83" s="62">
+      <c r="G83" s="60">
         <v>44369</v>
       </c>
-      <c r="H83" s="86" t="s">
+      <c r="H83" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I83" s="32"/>
+      <c r="I83" s="30"/>
       <c r="J83" s="17" t="s">
         <v>145</v>
       </c>
@@ -9896,23 +10013,23 @@
       <c r="A84" s="12">
         <v>80</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="26" t="s">
+      <c r="B84" s="48"/>
+      <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="94"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="34" t="s">
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="62">
+      <c r="G84" s="60">
         <v>44369</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I84" s="32"/>
-      <c r="J84" s="65" t="s">
+      <c r="I84" s="30"/>
+      <c r="J84" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K84" s="11"/>
@@ -9921,23 +10038,23 @@
       <c r="A85" s="12">
         <v>81</v>
       </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="26" t="s">
+      <c r="B85" s="48"/>
+      <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="34" t="s">
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="G85" s="62">
+      <c r="G85" s="60">
         <v>44369</v>
       </c>
-      <c r="H85" s="86" t="s">
+      <c r="H85" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I85" s="32"/>
-      <c r="J85" s="65" t="s">
+      <c r="I85" s="30"/>
+      <c r="J85" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K85" s="11"/>
@@ -9946,22 +10063,22 @@
       <c r="A86" s="12">
         <v>82</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="26" t="s">
+      <c r="B86" s="48"/>
+      <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="34" t="s">
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G86" s="62">
+      <c r="G86" s="60">
         <v>44369</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I86" s="32"/>
+      <c r="I86" s="30"/>
       <c r="J86" s="17" t="s">
         <v>145</v>
       </c>
@@ -9971,23 +10088,23 @@
       <c r="A87" s="12">
         <v>83</v>
       </c>
-      <c r="B87" s="74"/>
-      <c r="C87" s="26" t="s">
+      <c r="B87" s="72"/>
+      <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="94"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="34" t="s">
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="G87" s="62">
+      <c r="G87" s="60">
         <v>44369</v>
       </c>
-      <c r="H87" s="86" t="s">
+      <c r="H87" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I87" s="32"/>
-      <c r="J87" s="65" t="s">
+      <c r="I87" s="30"/>
+      <c r="J87" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K87" s="11"/>
@@ -9996,23 +10113,23 @@
       <c r="A88" s="12">
         <v>84</v>
       </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="26" t="s">
+      <c r="B88" s="72"/>
+      <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="34" t="s">
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="G88" s="62">
+      <c r="G88" s="60">
         <v>44369</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I88" s="32"/>
-      <c r="J88" s="65" t="s">
+      <c r="I88" s="30"/>
+      <c r="J88" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K88" s="11"/>
@@ -10021,22 +10138,22 @@
       <c r="A89" s="12">
         <v>85</v>
       </c>
-      <c r="B89" s="74"/>
-      <c r="C89" s="26" t="s">
+      <c r="B89" s="72"/>
+      <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="34" t="s">
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G89" s="62">
+      <c r="G89" s="60">
         <v>44369</v>
       </c>
-      <c r="H89" s="86" t="s">
+      <c r="H89" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I89" s="32"/>
+      <c r="I89" s="30"/>
       <c r="J89" s="17" t="s">
         <v>145</v>
       </c>
@@ -10046,23 +10163,23 @@
       <c r="A90" s="12">
         <v>86</v>
       </c>
-      <c r="B90" s="74"/>
-      <c r="C90" s="26" t="s">
+      <c r="B90" s="72"/>
+      <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="94"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="34" t="s">
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="G90" s="62">
+      <c r="G90" s="60">
         <v>44369</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I90" s="32"/>
-      <c r="J90" s="65" t="s">
+      <c r="I90" s="30"/>
+      <c r="J90" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K90" s="11"/>
@@ -10071,23 +10188,23 @@
       <c r="A91" s="12">
         <v>87</v>
       </c>
-      <c r="B91" s="74"/>
-      <c r="C91" s="26" t="s">
+      <c r="B91" s="72"/>
+      <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="94"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="34" t="s">
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="G91" s="62">
+      <c r="G91" s="60">
         <v>44369</v>
       </c>
-      <c r="H91" s="86" t="s">
+      <c r="H91" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I91" s="32"/>
-      <c r="J91" s="65" t="s">
+      <c r="I91" s="30"/>
+      <c r="J91" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K91" s="11"/>
@@ -10096,22 +10213,22 @@
       <c r="A92" s="12">
         <v>88</v>
       </c>
-      <c r="B92" s="74"/>
-      <c r="C92" s="39" t="s">
+      <c r="B92" s="72"/>
+      <c r="C92" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="94"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="33" t="s">
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="G92" s="62">
+      <c r="G92" s="60">
         <v>44369</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I92" s="32"/>
+      <c r="I92" s="30"/>
       <c r="J92" s="17" t="s">
         <v>145</v>
       </c>
@@ -10121,25 +10238,25 @@
       <c r="A93" s="12">
         <v>89</v>
       </c>
-      <c r="B93" s="74"/>
-      <c r="C93" s="39" t="s">
+      <c r="B93" s="72"/>
+      <c r="C93" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D93" s="94"/>
-      <c r="E93" s="94"/>
-      <c r="F93" s="33" t="s">
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="G93" s="62">
+      <c r="G93" s="60">
         <v>44369</v>
       </c>
-      <c r="H93" s="86" t="s">
+      <c r="H93" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="I93" s="32" t="s">
+      <c r="I93" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="J93" s="65" t="s">
+      <c r="J93" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K93" s="11"/>
@@ -10148,25 +10265,25 @@
       <c r="A94" s="12">
         <v>90</v>
       </c>
-      <c r="B94" s="74"/>
-      <c r="C94" s="39" t="s">
+      <c r="B94" s="72"/>
+      <c r="C94" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D94" s="95"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="33" t="s">
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="G94" s="62">
+      <c r="G94" s="60">
         <v>44369</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I94" s="32" t="s">
+      <c r="I94" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="J94" s="65" t="s">
+      <c r="J94" s="63" t="s">
         <v>145</v>
       </c>
       <c r="K94" s="11"/>
@@ -10175,500 +10292,547 @@
       <c r="A95" s="12">
         <v>91</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D95" s="74" t="s">
+      <c r="D95" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="F95" s="33" t="s">
+      <c r="E95" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F95" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="G95" s="62">
+      <c r="G95" s="60">
         <v>44369</v>
       </c>
-      <c r="H95" s="86" t="s">
+      <c r="H95" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="I95" s="32"/>
+      <c r="I95" s="30"/>
       <c r="J95" s="17" t="s">
         <v>145</v>
       </c>
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="1:11" ht="30">
-      <c r="A96" s="17"/>
-      <c r="B96" s="74" t="s">
+      <c r="A96" s="12">
+        <v>92</v>
+      </c>
+      <c r="B96" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="39" t="s">
+      <c r="C96" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="D96" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="E96" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F96" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="34"/>
+      <c r="F96" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G96" s="111"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="32"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
     <row r="97" spans="1:11" ht="45">
-      <c r="A97" s="17"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="39" t="s">
+      <c r="A97" s="12">
+        <v>93</v>
+      </c>
+      <c r="B97" s="72"/>
+      <c r="C97" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="E97" s="39" t="s">
+      <c r="D97" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="F97" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="34"/>
+      <c r="F97" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G97" s="111"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="32"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
     <row r="98" spans="1:11" ht="30">
-      <c r="A98" s="17"/>
-      <c r="B98" s="74" t="s">
+      <c r="A98" s="12">
+        <v>94</v>
+      </c>
+      <c r="B98" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D98" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="E98" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="34"/>
+      <c r="D98" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="E98" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="F98" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G98" s="111"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
     </row>
     <row r="99" spans="1:11" ht="30">
-      <c r="A99" s="17"/>
-      <c r="B99" s="74"/>
+      <c r="A99" s="12">
+        <v>95</v>
+      </c>
+      <c r="B99" s="72"/>
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="100"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="34"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" s="111"/>
+      <c r="H99" s="87"/>
+      <c r="I99" s="32"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
     </row>
     <row r="100" spans="1:11" ht="30">
-      <c r="A100" s="17"/>
-      <c r="B100" s="74"/>
+      <c r="A100" s="12">
+        <v>96</v>
+      </c>
+      <c r="B100" s="72"/>
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="100"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="34"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="111"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="32"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
     </row>
     <row r="101" spans="1:11" ht="30">
-      <c r="A101" s="17"/>
-      <c r="B101" s="74"/>
+      <c r="A101" s="12">
+        <v>97</v>
+      </c>
+      <c r="B101" s="72"/>
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="100"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="34"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G101" s="111"/>
+      <c r="H101" s="87"/>
+      <c r="I101" s="32"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
     </row>
     <row r="102" spans="1:11" ht="30">
-      <c r="A102" s="17"/>
-      <c r="B102" s="74"/>
+      <c r="A102" s="12">
+        <v>98</v>
+      </c>
+      <c r="B102" s="72"/>
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="100"/>
-      <c r="E102" s="97"/>
-      <c r="F102" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="34"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G102" s="111"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="32"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
     </row>
     <row r="103" spans="1:11" ht="30">
-      <c r="A103" s="17"/>
-      <c r="B103" s="74"/>
+      <c r="A103" s="12">
+        <v>99</v>
+      </c>
+      <c r="B103" s="72"/>
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="100"/>
-      <c r="E103" s="97"/>
-      <c r="F103" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="34"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G103" s="111"/>
+      <c r="H103" s="87"/>
+      <c r="I103" s="32"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
     </row>
     <row r="104" spans="1:11" ht="30">
-      <c r="A104" s="17"/>
-      <c r="B104" s="74"/>
+      <c r="A104" s="12">
+        <v>100</v>
+      </c>
+      <c r="B104" s="72"/>
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="100"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="34"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G104" s="111"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="32"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
     </row>
     <row r="105" spans="1:11" ht="30">
-      <c r="A105" s="17"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="26" t="s">
+      <c r="A105" s="12">
+        <v>101</v>
+      </c>
+      <c r="B105" s="72"/>
+      <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="100"/>
-      <c r="E105" s="97"/>
-      <c r="F105" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="34"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G105" s="111"/>
+      <c r="H105" s="87"/>
+      <c r="I105" s="32"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
     </row>
     <row r="106" spans="1:11" ht="30">
-      <c r="A106" s="17"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="39" t="s">
+      <c r="A106" s="12">
+        <v>102</v>
+      </c>
+      <c r="B106" s="72"/>
+      <c r="C106" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D106" s="100"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="34"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G106" s="111"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="32"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11" ht="30">
-      <c r="A107" s="17"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="39" t="s">
+      <c r="A107" s="12">
+        <v>103</v>
+      </c>
+      <c r="B107" s="72"/>
+      <c r="C107" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D107" s="100"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="34"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G107" s="111"/>
+      <c r="H107" s="87"/>
+      <c r="I107" s="32"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11" ht="30">
-      <c r="A108" s="17"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="39" t="s">
+      <c r="A108" s="12">
+        <v>104</v>
+      </c>
+      <c r="B108" s="72"/>
+      <c r="C108" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D108" s="101"/>
-      <c r="E108" s="98"/>
-      <c r="F108" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="34"/>
+      <c r="D108" s="100"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G108" s="111"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="32"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11" ht="45">
-      <c r="A109" s="17"/>
-      <c r="B109" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="C109" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="D109" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="E109" s="39" t="s">
+      <c r="A109" s="12">
+        <v>105</v>
+      </c>
+      <c r="B109" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="F109" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="34"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="87"/>
+      <c r="I109" s="32"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11" ht="45">
-      <c r="A110" s="17"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="D110" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="E110" s="39" t="s">
+      <c r="A110" s="12">
+        <v>106</v>
+      </c>
+      <c r="B110" s="72"/>
+      <c r="C110" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F110" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="F110" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="34"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="32"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
     </row>
     <row r="111" spans="1:11" ht="45">
-      <c r="A111" s="17"/>
-      <c r="B111" s="74" t="s">
+      <c r="A111" s="12">
+        <v>107</v>
+      </c>
+      <c r="B111" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="39" t="s">
+      <c r="C111" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="D111" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="E111" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F111" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="34"/>
+      <c r="F111" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G111" s="111"/>
+      <c r="H111" s="87"/>
+      <c r="I111" s="32"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
     </row>
     <row r="112" spans="1:11" ht="45">
-      <c r="A112" s="17"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="39" t="s">
+      <c r="A112" s="12">
+        <v>108</v>
+      </c>
+      <c r="B112" s="72"/>
+      <c r="C112" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D112" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="E112" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="F112" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="34"/>
+      <c r="D112" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G112" s="111"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="32"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
     </row>
     <row r="113" spans="1:11" ht="45">
-      <c r="A113" s="17"/>
-      <c r="B113" s="74" t="s">
+      <c r="A113" s="12">
+        <v>109</v>
+      </c>
+      <c r="B113" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="C113" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D113" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="E113" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="D113" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="E113" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F113" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="34"/>
+      <c r="F113" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G113" s="111"/>
+      <c r="H113" s="87"/>
+      <c r="I113" s="32"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
     </row>
     <row r="114" spans="1:11" ht="15">
       <c r="A114" s="17"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
+      <c r="B114" s="72"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
-      <c r="I114" s="34"/>
+      <c r="I114" s="32"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
     </row>
     <row r="115" spans="1:11" ht="11.25" customHeight="1">
       <c r="A115" s="17"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
-      <c r="I115" s="34"/>
+      <c r="I115" s="32"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
     </row>
     <row r="116" spans="1:11" ht="11.25" customHeight="1">
       <c r="A116" s="17"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
-      <c r="I116" s="34"/>
+      <c r="I116" s="32"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
     </row>
     <row r="117" spans="1:11" ht="11.25" customHeight="1">
       <c r="A117" s="17"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="75"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
-      <c r="I117" s="34"/>
+      <c r="I117" s="32"/>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
     </row>
     <row r="118" spans="1:11" ht="11.25" customHeight="1">
       <c r="A118" s="17"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="75"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
-      <c r="I118" s="34"/>
+      <c r="I118" s="32"/>
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
     </row>
     <row r="119" spans="1:11" ht="11.25" customHeight="1">
       <c r="A119" s="17"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="75"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
-      <c r="I119" s="34"/>
+      <c r="I119" s="32"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
     </row>
     <row r="120" spans="1:11" ht="11.25" customHeight="1">
       <c r="A120" s="17"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
-      <c r="I120" s="34"/>
+      <c r="I120" s="32"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
     </row>
     <row r="121" spans="1:11" ht="11.25" customHeight="1">
       <c r="A121" s="17"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
-      <c r="I121" s="34"/>
+      <c r="I121" s="32"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
     </row>
     <row r="122" spans="1:11" ht="11.25" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="75"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="73"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
-      <c r="I122" s="34"/>
+      <c r="I122" s="32"/>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="F63:F64"/>
@@ -10680,17 +10844,6 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
